--- a/xlsx/哥伦比亚大学_intext.xlsx
+++ b/xlsx/哥伦比亚大学_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1297">
   <si>
     <t>哥伦比亚大学</t>
   </si>
@@ -29,7 +29,7 @@
     <t>校训</t>
   </si>
   <si>
-    <t>政策_政策_政治學_哥伦比亚大学</t>
+    <t>政策_政策_政治学_哥伦比亚大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E4%B8%81%E8%AF%AD</t>
@@ -59,13 +59,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A0%A1%E9%95%B7</t>
   </si>
   <si>
-    <t>校長</t>
+    <t>校长</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%8E%C2%B7%E5%8D%A1%E7%BE%85%E7%88%BE%C2%B7%E5%B8%83%E6%9E%97%E6%A0%BC</t>
   </si>
   <si>
-    <t>李·卡羅爾·布林格</t>
+    <t>李·卡罗尔·布林格</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/John_Henry_Coatsworth</t>
@@ -89,7 +89,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%BD%E7%BA%A6%E5%B7%9E</t>
@@ -125,7 +125,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E5%A4%A7%E5%AD%B8%E9%AB%94%E8%82%B2%E5%8D%94%E6%9C%83</t>
   </si>
   <si>
-    <t>國家大學體育協會</t>
+    <t>国家大学体育协会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/NCAA%E7%AC%AC%E4%B8%80%E7%BA%A7%E5%88%AB</t>
@@ -161,7 +161,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E5%80%AB%E6%AF%94%E4%BA%9E%E8%97%8D</t>
   </si>
   <si>
-    <t>哥倫比亞藍</t>
+    <t>哥伦比亚蓝</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Columbia_blue</t>
@@ -221,7 +221,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A0%94%E7%A9%B6%E5%9E%8B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>研究型大學</t>
+    <t>研究型大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%B8%E6%98%A5%E8%97%A4%E8%81%94%E7%9B%9F</t>
@@ -275,7 +275,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E5%80%AB%E6%AF%94%E4%BA%9E%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>哥倫比亞學院</t>
+    <t>哥伦比亚学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E4%BC%A6%E6%AF%94%E4%BA%9A%E5%A4%A7%E5%AD%A6%E5%82%85%E6%B0%8F%E5%9F%BA%E9%87%91%E5%B7%A5%E7%A8%8B%E5%92%8C%E5%BA%94%E7%94%A8%E7%A7%91%E5%AD%A6%E5%AD%A6%E9%99%A2</t>
@@ -419,7 +419,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%A4%A7%E5%AD%B8%E8%AB%BE%E8%B2%9D%E7%88%BE%E7%8D%8E%E5%BE%97%E4%B8%BB%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>各大學諾貝爾獎得主列表</t>
+    <t>各大学诺贝尔奖得主列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E4%BD%9B%E5%A4%A7%E5%AD%A6</t>
@@ -449,13 +449,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E5%9C%8B%E6%95%99%E6%9C%83</t>
   </si>
   <si>
-    <t>英國國教會</t>
+    <t>英国国教会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E5%BE%B7%E9%81%9C%E6%B2%B3</t>
   </si>
   <si>
-    <t>哈德遜河</t>
+    <t>哈德逊河</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E6%B3%BD%E8%A5%BF%E5%B7%9E</t>
@@ -527,7 +527,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E5%BE%B7%E5%BE%A9%E8%88%88%E5%BC%8F%E5%BB%BA%E7%AF%89</t>
   </si>
   <si>
-    <t>哥德復興式建築</t>
+    <t>哥德复兴式建筑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E4%BC%A6%E6%AF%94%E4%BA%9A_(%E7%BE%8E%E5%9B%BD)</t>
@@ -605,7 +605,7 @@
     <t>https://zh-yue.wikipedia.org/wiki/%E6%99%BA%E6%85%A7%E5%A5%B3%E7%A5%9E_(%E7%B4%90%E7%B4%84%E9%9B%95%E5%A1%91)</t>
   </si>
   <si>
-    <t>zh-yue-智慧女神 (紐約雕塑)</t>
+    <t>zh-yue-智慧女神 (纽约雕塑)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E8%A5%BF%E5%A4%9A%C2%B7%E8%89%BE%E8%90%A8%E5%85%8B%C2%B7%E6%8B%89%E6%AF%94</t>
@@ -653,13 +653,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E9%9B%9C%E8%97%9D%E8%A1%93</t>
   </si>
   <si>
-    <t>布雜藝術</t>
+    <t>布杂艺术</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%97%E5%8D%80</t>
   </si>
   <si>
-    <t>街區</t>
+    <t>街区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E4%BA%A9</t>
@@ -803,7 +803,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%AD%B7%E5%8F%B2%E5%8D%80</t>
   </si>
   <si>
-    <t>美國歷史區</t>
+    <t>美国历史区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E5%B9%B3%E6%A5%BC</t>
@@ -845,7 +845,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E6%9D%96</t>
   </si>
   <si>
-    <t>權杖</t>
+    <t>权杖</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%8E%E5%B8%82%E7%BE%8E%E5%8C%96%E8%BF%90%E5%8A%A8</t>
@@ -857,13 +857,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%9B%9B%E9%A0%93%E9%AB%98%E5%9C%B0</t>
   </si>
   <si>
-    <t>華盛頓高地</t>
+    <t>华盛顿高地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9B%BC%E5%93%88%E9%A0%93%E7%B6%AD%E7%88%BE</t>
   </si>
   <si>
-    <t>曼哈頓維爾</t>
+    <t>曼哈顿维尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E7%BB%8F%E9%80%80%E8%A1%8C%E6%80%A7%E7%96%BE%E7%97%85</t>
@@ -893,7 +893,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E5%80%AB%E6%AF%94%E4%BA%9E%E5%A4%A7%E5%AD%B8%E9%86%AB%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>哥倫比亞大學醫學院</t>
+    <t>哥伦比亚大学医学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%B7%E5%A5%88%E5%B0%94%E5%A4%A7%E5%AD%A6</t>
@@ -923,7 +923,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A0%98%E5%85%88%E8%83%BD%E6%BA%90%E8%88%87%E7%92%B0%E5%A2%83%E8%A8%AD%E8%A8%88</t>
   </si>
   <si>
-    <t>領先能源與環境設計</t>
+    <t>领先能源与环境设计</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%9F%8E%E5%B8%82%E4%B8%BB%E4%B9%89</t>
@@ -989,7 +989,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%95%B6%E7%84%B6%E5%A7%94%E5%93%A1</t>
   </si>
   <si>
-    <t>當然委員</t>
+    <t>当然委员</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%A6%E6%9C%AF%E8%87%AA%E7%94%B1</t>
@@ -1013,13 +1013,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%90%86%E5%AD%B8%E5%AD%B8%E5%A3%AB</t>
   </si>
   <si>
-    <t>理學學士</t>
+    <t>理学学士</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%B8%E6%8E%92%E5%90%8D</t>
   </si>
   <si>
-    <t>大學排名</t>
+    <t>大学排名</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E5%A4%A7%E5%AD%A6%E5%AD%A6%E6%9C%AF%E6%8E%92%E5%90%8D</t>
@@ -1037,13 +1037,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E6%99%A4%E5%A3%AB%E9%AB%98%E7%AD%89%E6%95%99%E8%82%B2%E4%B8%96%E7%95%8C%E5%A4%A7%E5%AD%B8%E6%8E%92%E5%90%8D</t>
   </si>
   <si>
-    <t>泰晤士高等教育世界大學排名</t>
+    <t>泰晤士高等教育世界大学排名</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%96%B0%E8%81%9E%E8%88%87%E4%B8%96%E7%95%8C%E5%A0%B1%E5%B0%8E</t>
   </si>
   <si>
-    <t>美國新聞與世界報導</t>
+    <t>美国新闻与世界报导</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E5%B8%83%E6%96%AF</t>
@@ -1133,7 +1133,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E5%88%A9%E6%A1%91%E9%82%A3%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>亞利桑那州立大學</t>
+    <t>亚利桑那州立大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%BE%E5%A4%95%E6%B3%95%E5%B0%BC%E4%BA%9A%E5%A4%A7%E5%AD%A6</t>
@@ -1241,7 +1241,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%BA%BA%E6%96%87%E8%88%87%E7%A7%91%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>美國人文與科學院</t>
+    <t>美国人文与科学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%84%E5%BC%9F%E4%BC%9A</t>
@@ -1259,7 +1259,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E5%80%AB%E6%AF%94%E4%BA%9E%E5%A4%A7%E5%AD%B8%E5%87%BA%E7%89%88%E7%A4%BE</t>
   </si>
   <si>
-    <t>哥倫比亞大學出版社</t>
+    <t>哥伦比亚大学出版社</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8A%B9%E5%A4%AA</t>
@@ -1349,7 +1349,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E7%B7%9A%E9%9B%BB%E9%80%9A%E4%BF%A1</t>
   </si>
   <si>
-    <t>無線電通信</t>
+    <t>无线电通信</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BA%A6%E5%85%8B%E9%A3%8E</t>
@@ -1379,7 +1379,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BD%BC%E5%BE%97%C2%B7%E6%B3%B0%E7%88%BE</t>
   </si>
   <si>
-    <t>彼得·泰爾</t>
+    <t>彼得·泰尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/PayPal</t>
@@ -1403,7 +1403,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%AD%B7%E5%85%8B%E8%A5%BF%E6%96%AF%C2%B7%E7%93%A6%E5%B0%BC%E5%AE%89</t>
   </si>
   <si>
-    <t>亞歷克西斯·瓦尼安</t>
+    <t>亚历克西斯·瓦尼安</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Reddit</t>
@@ -1415,7 +1415,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E9%AD%AF%C2%B7%E4%BC%91%E6%96%AF%E9%A0%93</t>
   </si>
   <si>
-    <t>德魯·休斯頓</t>
+    <t>德鲁·休斯顿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Dropbox</t>
@@ -1445,7 +1445,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%95%E7%BE%85%E5%A5%A7%E5%9C%96</t>
   </si>
   <si>
-    <t>帕羅奧圖</t>
+    <t>帕罗奥图</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%AE%E8%BD%AF</t>
@@ -1535,7 +1535,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E6%8B%89%C2%B7%E8%96%87%E5%A5%91-%E6%96%90%E6%9F%8F%E5%98%89</t>
   </si>
   <si>
-    <t>維拉·薇契-斐柏嘉</t>
+    <t>维拉·薇契-斐柏嘉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%94%E9%87%8C%E5%A8%85%C2%B7%E5%93%88%E6%B4%9B%E5%AE%81</t>
@@ -1607,19 +1607,19 @@
     <t>https://zh.wikipedia.org/wiki/IRT%E7%99%BE%E8%80%81%E5%8C%AF-%E7%AC%AC%E4%B8%83%E5%A4%A7%E9%81%93%E7%B7%9A</t>
   </si>
   <si>
-    <t>IRT百老匯-第七大道線</t>
+    <t>IRT百老汇-第七大道线</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/116%E8%A1%97-%E5%93%A5%E5%80%AB%E6%AF%94%E4%BA%9E%E5%A4%A7%E5%AD%B8%E8%BB%8A%E7%AB%99_(IRT%E7%99%BE%E8%80%81%E5%8C%AF-%E7%AC%AC%E4%B8%83%E5%A4%A7%E9%81%93%E7%B7%9A)</t>
   </si>
   <si>
-    <t>116街-哥倫比亞大學車站 (IRT百老匯-第七大道線)</t>
+    <t>116街-哥伦比亚大学车站 (IRT百老汇-第七大道线)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E5%9C%B0%E9%90%B51%E8%99%9F%E7%B7%9A</t>
   </si>
   <si>
-    <t>紐約地鐵1號線</t>
+    <t>纽约地铁1号线</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%89%E6%80%9D%E8%80%85</t>
@@ -1655,7 +1655,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E5%80%AB%E6%AF%94%E4%BA%9E%E5%A4%A7%E5%AD%B8%E5%9C%8B%E9%9A%9B%E5%85%AC%E5%85%B1%E4%BA%8B%E5%8B%99%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>哥倫比亞大學國際公共事務學院</t>
+    <t>哥伦比亚大学国际公共事务学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%94%E5%90%88%E5%9B%BD%E5%A4%A7%E4%BC%9A</t>
@@ -1781,7 +1781,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B5%AB%E7%88%BE%E6%9B%BC%C2%B7%E4%BD%95%E6%A8%82%E7%A6%AE</t>
   </si>
   <si>
-    <t>赫爾曼·何樂禮</t>
+    <t>赫尔曼·何乐礼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%83%E4%BC%A6%C2%B7%E5%B7%B4%E8%8F%B2%E7%89%B9</t>
@@ -1799,19 +1799,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%90%86%E5%AF%9F%C2%B7%E7%BE%85%E5%82%91%E6%96%AF_(%E4%BD%9C%E6%9B%B2%E5%AE%B6)</t>
   </si>
   <si>
-    <t>理察·羅傑斯 (作曲家)</t>
+    <t>理察·罗杰斯 (作曲家)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E6%96%AF%E5%8D%A1%C2%B7%E6%BC%A2%E9%BB%98%E6%96%AF%E5%9D%A6%E4%BA%8C%E4%B8%96</t>
   </si>
   <si>
-    <t>奧斯卡·漢默斯坦二世</t>
+    <t>奥斯卡·汉默斯坦二世</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E5%AE%B6%E5%9C%96%E6%9B%B8%E7%8D%8E</t>
   </si>
   <si>
-    <t>美國國家圖書獎</t>
+    <t>美国国家图书奖</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E4%BA%94%E7%99%BE%E5%BC%BA</t>
@@ -1847,7 +1847,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E6%87%B7%E7%89%B9%C2%B7%E5%A4%A7%E8%A1%9B%C2%B7%E8%89%BE%E6%A3%AE%E8%B1%AA</t>
   </si>
   <si>
-    <t>德懷特·大衛·艾森豪</t>
+    <t>德怀特·大卫·艾森豪</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B1%B3%E5%93%88%E4%BC%8A%E5%B0%94%C2%B7%E8%90%A8%E5%8D%A1%E4%BB%80%E7%BB%B4%E5%88%A9</t>
@@ -1913,7 +1913,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E4%BA%9E%E5%BA%B7%E5%A7%86</t>
   </si>
   <si>
-    <t>維亞康姆</t>
+    <t>维亚康姆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%BD%E4%B9%90</t>
@@ -1961,7 +1961,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B2%E8%92%82%E8%8A%AC%C2%B7%E5%8F%A4%E7%88%BE%E5%BE%B7</t>
   </si>
   <si>
-    <t>史蒂芬·古爾德</t>
+    <t>史蒂芬·古尔德</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E4%BC%AF%E7%89%B9%C2%B7%E5%AF%86%E7%AB%8B%E6%A0%B9</t>
@@ -1985,7 +1985,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8B%9E%E5%80%AB%E8%8C%B2%C2%B7%E5%93%88%E7%89%B9</t>
   </si>
   <si>
-    <t>勞倫茲·哈特</t>
+    <t>劳伦兹·哈特</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E7%89%B9%C2%B7%E5%8A%A0%E8%8A%AC%E5%85%8B%E5%B0%94</t>
@@ -1997,7 +1997,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%82%91%E5%85%8B%C2%B7%E5%87%B1%E9%AD%AF%E4%BA%9E%E5%85%8B</t>
   </si>
   <si>
-    <t>傑克·凱魯亞克</t>
+    <t>杰克·凯鲁亚克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E4%BC%A6%C2%B7%E9%87%91%E6%96%AF%E5%A0%A1</t>
@@ -2045,7 +2045,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%81%E4%BA%8C%E6%80%92%E6%BC%A2_(%E9%9B%BB%E5%BD%B1)</t>
   </si>
   <si>
-    <t>十二怒漢 (電影)</t>
+    <t>十二怒汉 (电影)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E5%BE%B7%E5%B0%BC%C2%B7%E9%B2%81%E8%BF%88%E7%89%B9</t>
@@ -2141,19 +2141,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%B3%E4%BB%B0%E6%9B%BE</t>
   </si>
   <si>
-    <t>吳仰曾</t>
+    <t>吴仰曾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B1%B1%E6%9D%B1%E5%B7%A1%E6%92%AB</t>
   </si>
   <si>
-    <t>山東巡撫</t>
+    <t>山东巡抚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9B%B4%E9%9A%B8%E7%B8%BD%E7%9D%A3</t>
   </si>
   <si>
-    <t>直隸總督</t>
+    <t>直隶总督</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E6%B4%8B%E9%80%9A%E5%95%86%E5%A4%A7%E8%87%A3</t>
@@ -2171,7 +2171,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B%E5%9C%8B%E5%8B%99%E7%B8%BD%E7%90%86</t>
   </si>
   <si>
-    <t>中華民國國務總理</t>
+    <t>中华民国国务总理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B1%B1%E4%B8%9C%E5%A4%A7%E5%AD%A6</t>
@@ -2225,7 +2225,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E6%B0%91%E6%94%BF%E5%BA%9C%E8%B2%A1%E6%94%BF%E9%83%A8</t>
   </si>
   <si>
-    <t>國民政府財政部</t>
+    <t>国民政府财政部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E6%94%BF%E9%99%A2%E9%95%BF</t>
@@ -2243,13 +2243,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BB%A3%E6%9D%B1%E7%9C%81%E6%94%BF%E5%BA%9C</t>
   </si>
   <si>
-    <t>廣東省政府</t>
+    <t>广东省政府</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E5%9C%8B%E6%B0%91%E9%BB%A8%E4%B8%AD%E5%A4%AE%E5%9F%B7%E8%A1%8C%E5%A7%94%E5%93%A1%E6%9C%83</t>
   </si>
   <si>
-    <t>中國國民黨中央執行委員會</t>
+    <t>中国国民党中央执行委员会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%99%E7%A7%91</t>
@@ -2441,13 +2441,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%8E%E7%85%A5</t>
   </si>
   <si>
-    <t>李煥</t>
+    <t>李焕</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%91%A8%E8%87%AA%E9%BD%8A</t>
   </si>
   <si>
-    <t>周自齊</t>
+    <t>周自齐</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Wayback_Machine</t>
@@ -2483,13 +2483,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%9B%B8%E5%B1%80</t>
   </si>
   <si>
-    <t>中華書局</t>
+    <t>中华书局</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8A%E6%B5%B7%E8%BE%AD%E6%9B%B8%E5%87%BA%E7%89%88%E7%A4%BE</t>
   </si>
   <si>
-    <t>上海辭書出版社</t>
+    <t>上海辞书出版社</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/The_Chinese_University_Press</t>
@@ -2531,13 +2531,10 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%A4%A7%E5%AD%B8%E5%8D%94%E6%9C%83</t>
   </si>
   <si>
-    <t>美國大學協會</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E7%AB%8B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>公立大學</t>
+    <t>公立大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E5%88%A9%E6%A1%91%E9%82%A3%E5%A4%A7%E5%AD%A6</t>
@@ -2555,7 +2552,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%B7%9E%E5%A4%A7%E5%AD%B8%E6%9F%8F%E5%85%8B%E8%90%8A%E5%88%86%E6%A0%A1</t>
   </si>
   <si>
-    <t>加州大學柏克萊分校</t>
+    <t>加州大学柏克莱分校</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%B7%9E%E5%A4%A7%E5%AD%A6%E6%88%B4%E7%BB%B4%E6%96%AF%E5%88%86%E6%A0%A1</t>
@@ -2567,7 +2564,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%B7%9E%E5%A4%A7%E5%AD%B8%E7%88%BE%E7%81%A3%E5%88%86%E6%A0%A1</t>
   </si>
   <si>
-    <t>加州大學爾灣分校</t>
+    <t>加州大学尔湾分校</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%B7%9E%E5%A4%A7%E5%AD%A6%E6%B4%9B%E6%9D%89%E7%9F%B6%E5%88%86%E6%A0%A1</t>
@@ -2591,7 +2588,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%BE%85%E6%8B%89%E5%A4%9A%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>科羅拉多大學</t>
+    <t>科罗拉多大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E7%BD%97%E9%87%8C%E8%BE%BE%E5%A4%A7%E5%AD%A6</t>
@@ -2609,7 +2606,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E5%88%A9%E8%AB%BE%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>伊利諾大學</t>
+    <t>伊利诺大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E7%AC%AC%E5%AE%89%E7%BA%B3%E5%A4%A7%E5%AD%A6</t>
@@ -2639,7 +2636,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E9%87%8C%E8%98%AD%E5%A4%A7%E5%AD%B8%E5%AD%B8%E9%99%A2%E5%B8%82%E5%88%86%E6%A0%A1</t>
   </si>
   <si>
-    <t>馬里蘭大學學院市分校</t>
+    <t>马里兰大学学院市分校</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E6%AD%87%E6%A0%B9%E5%A4%A7%E5%AD%A6</t>
@@ -2669,25 +2666,25 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>紐約州立大學</t>
+    <t>纽约州立大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%B8%E6%B0%B4%E7%89%9B%E5%9F%8E%E5%88%86%E6%A0%A1</t>
   </si>
   <si>
-    <t>紐約州立大學水牛城分校</t>
+    <t>纽约州立大学水牛城分校</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9F%B3%E6%BA%AA%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>石溪大學</t>
+    <t>石溪大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E5%8D%A1%E7%BE%85%E4%BE%86%E7%B4%8D%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>北卡羅來納大學</t>
+    <t>北卡罗来纳大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E5%8D%A1%E7%BD%97%E6%9D%A5%E7%BA%B3%E5%A4%A7%E5%AD%A6%E6%95%99%E5%A0%82%E5%B1%B1%E5%88%86%E6%A0%A1</t>
@@ -2705,7 +2702,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E5%8B%92%E5%B2%A1%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>俄勒岡大學</t>
+    <t>俄勒冈大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%BE%E5%A4%95%E6%B3%95%E5%B0%BC%E4%BA%9A%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%A6</t>
@@ -2717,13 +2714,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8C%B9%E8%8C%B2%E5%A0%A1%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>匹茲堡大學</t>
+    <t>匹兹堡大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E6%B8%A1%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>普渡大學</t>
+    <t>普渡大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E6%A0%BC%E6%96%AF%E5%A4%A7%E5%AD%A6</t>
@@ -2735,13 +2732,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%85%8B%E8%96%A9%E6%96%AF%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%B8%E5%A5%A7%E6%96%AF%E6%B1%80%E5%88%86%E6%A0%A1</t>
   </si>
   <si>
-    <t>德克薩斯州立大學奧斯汀分校</t>
+    <t>德克萨斯州立大学奥斯汀分校</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%B7%9E%E8%BE%B2%E5%B7%A5%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>德州農工大學</t>
+    <t>德州农工大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E5%90%89%E5%B0%BC%E4%BA%9A%E5%A4%A7%E5%AD%A6</t>
@@ -2765,7 +2762,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%A3%AB%E9%A0%93%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>波士頓大學</t>
+    <t>波士顿大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E5%85%B0%E8%BF%AA%E6%96%AF%E5%A4%A7%E5%AD%A6</t>
@@ -2783,13 +2780,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%87%B1%E6%96%AF%E8%A5%BF%E5%84%B2%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>凱斯西儲大學</t>
+    <t>凯斯西储大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%B7%E4%B9%83%E7%88%BE%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>康乃爾大學</t>
+    <t>康乃尔大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%9C%E5%85%8B%E5%A4%A7%E5%AD%A6</t>
@@ -2801,7 +2798,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E9%BB%98%E9%87%8C%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>埃默里大學</t>
+    <t>埃默里大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%C2%B7%E9%9C%8D%E6%99%AE%E9%87%91%E6%96%AF%E5%A4%A7%E5%AD%A6</t>
@@ -2819,13 +2816,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%90%8A%E6%96%AF%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>萊斯大學</t>
+    <t>莱斯大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E5%BE%B9%E6%96%AF%E7%89%B9%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>羅徹斯特大學</t>
+    <t>罗彻斯特大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%8A%A0%E5%B7%9E%E5%A4%A7%E5%AD%A6</t>
@@ -2837,7 +2834,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%9C%E8%98%AD%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>杜蘭大學</t>
+    <t>杜兰大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8C%83%E5%BE%B7%E5%A0%A1%E5%A4%A7%E5%AD%A6</t>
@@ -2855,7 +2852,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%8B%BF%E5%A4%A7%E5%A4%A7%E5%AD%B8%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>加拿大大學列表</t>
+    <t>加拿大大学列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BA%A6%E5%90%89%E5%B0%94%E5%A4%A7%E5%AD%A6</t>
@@ -2867,19 +2864,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E5%80%AB%E5%A4%9A%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>多倫多大學</t>
+    <t>多伦多大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%A4%A9%E4%B8%BB%E6%95%99%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>美國天主教大學</t>
+    <t>美国天主教大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E6%8B%89%E5%85%8B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>克拉克大學</t>
+    <t>克拉克大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%AA%E5%9F%8E%E5%A4%A7%E5%AD%A6</t>
@@ -2915,13 +2912,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>新學院</t>
+    <t>新学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%A9%E6%96%AF%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>佩斯大學</t>
+    <t>佩斯大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E7%BA%A6%E7%BF%B0%E5%A4%A7%E5%AD%A6_(%E7%BA%BD%E7%BA%A6)</t>
@@ -2957,13 +2954,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%8E%8B%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>國王學院</t>
+    <t>国王学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%91%AA%E9%BA%97%E5%B1%B1%E6%9B%BC%E5%93%88%E9%A0%93%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>瑪麗山曼哈頓學院</t>
+    <t>玛丽山曼哈顿学院</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Mercy_College_(New_York)</t>
@@ -3077,7 +3074,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E7%91%9E%E7%89%B9%E8%97%9D%E8%A1%93%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>普瑞特藝術學院</t>
+    <t>普瑞特艺术学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A7%86%E8%A7%89%E8%89%BA%E6%9C%AF%E5%AD%A6%E9%99%A2_(%E7%BA%BD%E7%BA%A6)</t>
@@ -3149,7 +3146,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E5%85%8B%E8%8F%B2%E5%8B%92%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>洛克菲勒大學</t>
+    <t>洛克菲勒大学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/SUNY_Downstate_Medical_Center</t>
@@ -3191,7 +3188,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%8C%B6%E5%A4%AA%E6%95%99%E7%A5%9E%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>美國猶太教神學院</t>
+    <t>美国犹太教神学院</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/New_York_Theological_Seminary</t>
@@ -3251,7 +3248,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E5%9C%8B%E5%A4%A7%E5%AD%B8%E9%AB%94%E8%82%B2%E5%8D%94%E6%9C%83</t>
   </si>
   <si>
-    <t>全國大學體育協會</t>
+    <t>全国大学体育协会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A9%84%E6%A6%84%E7%90%83</t>
@@ -3437,7 +3434,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%82%81%E9%98%BF%E5%AF%86%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>邁阿密大學</t>
+    <t>迈阿密大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E5%8D%A1%E7%BD%97%E6%9D%A5%E7%BA%B3%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%A6</t>
@@ -3455,37 +3452,34 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A0%AA%E8%96%A9%E6%96%AF%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>堪薩斯州立大學</t>
+    <t>堪萨斯州立大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%9D%E5%8B%92%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>貝勒大學</t>
+    <t>贝勒大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%85%8B%E6%8B%89%E8%8D%B7%E9%A6%AC%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>奧克拉荷馬州立大學</t>
+    <t>奥克拉荷马州立大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%B7%9E%E5%86%9C%E5%B7%A5%E5%A4%A7%E5%AD%A6</t>
   </si>
   <si>
-    <t>德州农工大学</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%85%8B%E8%96%A9%E6%96%AF%E7%90%86%E5%B7%A5%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>德克薩斯理工大學</t>
+    <t>德克萨斯理工大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%85%8B%E6%8B%89%E8%8D%B7%E9%A6%AC%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>奧克拉荷馬大學</t>
+    <t>奥克拉荷马大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%85%8B%E8%90%A8%E6%96%AF%E5%A4%A7%E5%AD%A6%E5%A5%A5%E6%96%AF%E6%B1%80%E5%88%86%E6%A0%A1</t>
@@ -3497,25 +3491,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E5%B9%B3%E6%B4%8B%E5%8D%81%E4%BA%8C%E6%A0%A1%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>太平洋十二校聯盟</t>
+    <t>太平洋十二校联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B2%E4%B8%B9%E4%BD%9B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>史丹佛大學</t>
+    <t>史丹佛大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E5%8B%92%E5%B2%A1%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>俄勒岡州立大學</t>
+    <t>俄勒冈州立大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%9B%9B%E9%A0%93%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>華盛頓州立大學</t>
+    <t>华盛顿州立大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E5%8D%97%E8%81%94%E7%9B%9F</t>
@@ -3539,13 +3533,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%B0%E7%B4%8D%E8%A5%BF%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>田納西大學</t>
+    <t>田纳西大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%E4%BA%9E%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>喬治亞大學</t>
+    <t>乔治亚大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%A5%BF%E8%A5%BF%E6%AF%94%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%A6</t>
@@ -3563,7 +3557,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B7%AF%E6%98%93%E6%96%AF%E5%AE%89%E9%82%A3%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>路易斯安那州立大學</t>
+    <t>路易斯安那州立大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%A5%BF%E8%A5%BF%E6%AF%94%E5%A4%A7%E5%AD%A6</t>
@@ -3575,7 +3569,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E6%9C%AC%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>奧本大學</t>
+    <t>奥本大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E8%82%AF%E8%89%B2%E5%A4%A7%E5%AD%A6</t>
@@ -3587,7 +3581,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%8D%A1%E7%BE%85%E8%90%8A%E7%B4%8D%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>南卡羅萊納大學</t>
+    <t>南卡罗莱纳大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BE%9B%E8%BE%9B%E9%82%A3%E6%8F%90%E5%A4%A7%E5%AD%A6</t>
@@ -3629,19 +3623,16 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E6%AF%8D%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>聖母大學</t>
+    <t>圣母大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%B9%E5%85%B9%E5%A0%A1%E5%A4%A7%E5%AD%A6</t>
   </si>
   <si>
-    <t>匹兹堡大学</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E7%BE%85%E7%B6%AD%E7%99%BB%E6%96%AF%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>普羅維登斯學院</t>
+    <t>普罗维登斯学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E4%BD%9B%E7%BD%97%E9%87%8C%E8%BE%BE%E5%A4%A7%E5%AD%A6</t>
@@ -3659,7 +3650,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%BC%97%E5%90%89%E5%B0%BC%E4%BA%9E%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>西弗吉尼亞大學</t>
+    <t>西弗吉尼亚大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%AB%E7%91%B0%E7%A2%97</t>
@@ -3719,13 +3710,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%8D%81%E5%AD%97%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>聖十字學院</t>
+    <t>圣十字学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A5%8A%E7%99%BE%E7%BF%B0%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>楊百翰大學</t>
+    <t>杨百翰大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%85%8B%E8%90%A8%E6%96%AF%E5%9F%BA%E7%9D%A3%E6%95%99%E5%A4%A7%E5%AD%A6</t>
@@ -3737,13 +3728,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%BE%85%E6%8B%89%E5%A4%9A%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>科羅拉多學院</t>
+    <t>科罗拉多学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E4%BD%9B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>丹佛大學</t>
+    <t>丹佛大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%9D%E6%9E%97%E6%A0%BC%E6%9E%97%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%A6</t>
@@ -3755,19 +3746,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%A5%BF%E6%A0%B9%E7%90%86%E5%B7%A5%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>密西根理工大學</t>
+    <t>密西根理工大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E5%AF%86%E6%AD%87%E6%A0%B9%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>北密歇根大學</t>
+    <t>北密歇根大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E5%BF%85%E5%88%A9%E7%88%BE%E6%B9%96%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>蘇必利爾湖州立大學</t>
+    <t>苏必利尔湖州立大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%A6%E6%96%AF%E5%8B%92%E7%90%86%E5%B7%A5%E5%AD%A6%E9%99%A2</t>
@@ -3791,7 +3782,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%BE%85%E6%8B%89%E5%A4%9A%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>科羅拉多州立大學</t>
+    <t>科罗拉多州立大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%B7%9E%E5%A4%A7%E5%AD%A6%E6%AC%A7%E6%96%87%E5%88%86%E6%A0%A1</t>
@@ -3821,7 +3812,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BD%A9%E7%8F%80%E4%BB%A3%E5%9B%A0%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>佩珀代因大學</t>
+    <t>佩珀代因大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E6%8B%89%E5%8D%8E%E5%A4%A7%E5%AD%A6</t>
@@ -3833,7 +3824,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%B7%9E%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%B8%E6%B4%9B%E6%9D%89%E7%A3%AF%E5%88%86%E6%A0%A1</t>
   </si>
   <si>
-    <t>加州州立大學洛杉磯分校</t>
+    <t>加州州立大学洛杉矶分校</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E8%90%A8%E8%AF%B8%E5%A1%9E%E5%A4%A7%E5%AD%A6</t>
@@ -3845,9 +3836,6 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8E%B1%E6%96%AF%E5%A4%A7%E5%AD%A6</t>
   </si>
   <si>
-    <t>莱斯大学</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%A5%A5%E5%B0%94%E8%89%AF%E5%A4%A7%E5%AD%A6</t>
   </si>
   <si>
@@ -3875,7 +3863,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -3893,7 +3881,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96%E5%90%8D%E7%A8%B1%E8%AD%98%E5%88%A5%E7%A2%BC</t>
   </si>
   <si>
-    <t>國際標準名稱識別碼</t>
+    <t>国际标准名称识别码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -3905,7 +3893,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%B8%E6%96%87%E6%AA%94%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>大學文檔系統</t>
+    <t>大学文档系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -17106,7 +17094,7 @@
         <v>837</v>
       </c>
       <c r="F443" t="s">
-        <v>838</v>
+        <v>56</v>
       </c>
       <c r="G443" t="n">
         <v>1</v>
@@ -17132,10 +17120,10 @@
         <v>443</v>
       </c>
       <c r="E444" t="s">
+        <v>838</v>
+      </c>
+      <c r="F444" t="s">
         <v>839</v>
-      </c>
-      <c r="F444" t="s">
-        <v>840</v>
       </c>
       <c r="G444" t="n">
         <v>1</v>
@@ -17161,10 +17149,10 @@
         <v>444</v>
       </c>
       <c r="E445" t="s">
+        <v>840</v>
+      </c>
+      <c r="F445" t="s">
         <v>841</v>
-      </c>
-      <c r="F445" t="s">
-        <v>842</v>
       </c>
       <c r="G445" t="n">
         <v>1</v>
@@ -17190,10 +17178,10 @@
         <v>445</v>
       </c>
       <c r="E446" t="s">
+        <v>842</v>
+      </c>
+      <c r="F446" t="s">
         <v>843</v>
-      </c>
-      <c r="F446" t="s">
-        <v>844</v>
       </c>
       <c r="G446" t="n">
         <v>2</v>
@@ -17219,10 +17207,10 @@
         <v>446</v>
       </c>
       <c r="E447" t="s">
+        <v>844</v>
+      </c>
+      <c r="F447" t="s">
         <v>845</v>
-      </c>
-      <c r="F447" t="s">
-        <v>846</v>
       </c>
       <c r="G447" t="n">
         <v>6</v>
@@ -17248,10 +17236,10 @@
         <v>447</v>
       </c>
       <c r="E448" t="s">
+        <v>846</v>
+      </c>
+      <c r="F448" t="s">
         <v>847</v>
-      </c>
-      <c r="F448" t="s">
-        <v>848</v>
       </c>
       <c r="G448" t="n">
         <v>2</v>
@@ -17277,10 +17265,10 @@
         <v>448</v>
       </c>
       <c r="E449" t="s">
+        <v>848</v>
+      </c>
+      <c r="F449" t="s">
         <v>849</v>
-      </c>
-      <c r="F449" t="s">
-        <v>850</v>
       </c>
       <c r="G449" t="n">
         <v>1</v>
@@ -17306,10 +17294,10 @@
         <v>449</v>
       </c>
       <c r="E450" t="s">
+        <v>850</v>
+      </c>
+      <c r="F450" t="s">
         <v>851</v>
-      </c>
-      <c r="F450" t="s">
-        <v>852</v>
       </c>
       <c r="G450" t="n">
         <v>7</v>
@@ -17335,10 +17323,10 @@
         <v>450</v>
       </c>
       <c r="E451" t="s">
+        <v>852</v>
+      </c>
+      <c r="F451" t="s">
         <v>853</v>
-      </c>
-      <c r="F451" t="s">
-        <v>854</v>
       </c>
       <c r="G451" t="n">
         <v>1</v>
@@ -17364,10 +17352,10 @@
         <v>451</v>
       </c>
       <c r="E452" t="s">
+        <v>854</v>
+      </c>
+      <c r="F452" t="s">
         <v>855</v>
-      </c>
-      <c r="F452" t="s">
-        <v>856</v>
       </c>
       <c r="G452" t="n">
         <v>1</v>
@@ -17393,10 +17381,10 @@
         <v>452</v>
       </c>
       <c r="E453" t="s">
+        <v>856</v>
+      </c>
+      <c r="F453" t="s">
         <v>857</v>
-      </c>
-      <c r="F453" t="s">
-        <v>858</v>
       </c>
       <c r="G453" t="n">
         <v>1</v>
@@ -17422,10 +17410,10 @@
         <v>453</v>
       </c>
       <c r="E454" t="s">
+        <v>858</v>
+      </c>
+      <c r="F454" t="s">
         <v>859</v>
-      </c>
-      <c r="F454" t="s">
-        <v>860</v>
       </c>
       <c r="G454" t="n">
         <v>1</v>
@@ -17451,10 +17439,10 @@
         <v>454</v>
       </c>
       <c r="E455" t="s">
+        <v>860</v>
+      </c>
+      <c r="F455" t="s">
         <v>861</v>
-      </c>
-      <c r="F455" t="s">
-        <v>862</v>
       </c>
       <c r="G455" t="n">
         <v>1</v>
@@ -17480,10 +17468,10 @@
         <v>455</v>
       </c>
       <c r="E456" t="s">
+        <v>862</v>
+      </c>
+      <c r="F456" t="s">
         <v>863</v>
-      </c>
-      <c r="F456" t="s">
-        <v>864</v>
       </c>
       <c r="G456" t="n">
         <v>1</v>
@@ -17509,10 +17497,10 @@
         <v>456</v>
       </c>
       <c r="E457" t="s">
+        <v>864</v>
+      </c>
+      <c r="F457" t="s">
         <v>865</v>
-      </c>
-      <c r="F457" t="s">
-        <v>866</v>
       </c>
       <c r="G457" t="n">
         <v>2</v>
@@ -17538,10 +17526,10 @@
         <v>457</v>
       </c>
       <c r="E458" t="s">
+        <v>866</v>
+      </c>
+      <c r="F458" t="s">
         <v>867</v>
-      </c>
-      <c r="F458" t="s">
-        <v>868</v>
       </c>
       <c r="G458" t="n">
         <v>1</v>
@@ -17567,10 +17555,10 @@
         <v>458</v>
       </c>
       <c r="E459" t="s">
+        <v>868</v>
+      </c>
+      <c r="F459" t="s">
         <v>869</v>
-      </c>
-      <c r="F459" t="s">
-        <v>870</v>
       </c>
       <c r="G459" t="n">
         <v>1</v>
@@ -17596,10 +17584,10 @@
         <v>459</v>
       </c>
       <c r="E460" t="s">
+        <v>870</v>
+      </c>
+      <c r="F460" t="s">
         <v>871</v>
-      </c>
-      <c r="F460" t="s">
-        <v>872</v>
       </c>
       <c r="G460" t="n">
         <v>1</v>
@@ -17625,10 +17613,10 @@
         <v>460</v>
       </c>
       <c r="E461" t="s">
+        <v>872</v>
+      </c>
+      <c r="F461" t="s">
         <v>873</v>
-      </c>
-      <c r="F461" t="s">
-        <v>874</v>
       </c>
       <c r="G461" t="n">
         <v>1</v>
@@ -17654,10 +17642,10 @@
         <v>461</v>
       </c>
       <c r="E462" t="s">
+        <v>874</v>
+      </c>
+      <c r="F462" t="s">
         <v>875</v>
-      </c>
-      <c r="F462" t="s">
-        <v>876</v>
       </c>
       <c r="G462" t="n">
         <v>1</v>
@@ -17683,10 +17671,10 @@
         <v>462</v>
       </c>
       <c r="E463" t="s">
+        <v>876</v>
+      </c>
+      <c r="F463" t="s">
         <v>877</v>
-      </c>
-      <c r="F463" t="s">
-        <v>878</v>
       </c>
       <c r="G463" t="n">
         <v>1</v>
@@ -17712,10 +17700,10 @@
         <v>463</v>
       </c>
       <c r="E464" t="s">
+        <v>878</v>
+      </c>
+      <c r="F464" t="s">
         <v>879</v>
-      </c>
-      <c r="F464" t="s">
-        <v>880</v>
       </c>
       <c r="G464" t="n">
         <v>1</v>
@@ -17741,10 +17729,10 @@
         <v>464</v>
       </c>
       <c r="E465" t="s">
+        <v>880</v>
+      </c>
+      <c r="F465" t="s">
         <v>881</v>
-      </c>
-      <c r="F465" t="s">
-        <v>882</v>
       </c>
       <c r="G465" t="n">
         <v>1</v>
@@ -17770,10 +17758,10 @@
         <v>465</v>
       </c>
       <c r="E466" t="s">
+        <v>882</v>
+      </c>
+      <c r="F466" t="s">
         <v>883</v>
-      </c>
-      <c r="F466" t="s">
-        <v>884</v>
       </c>
       <c r="G466" t="n">
         <v>1</v>
@@ -17799,10 +17787,10 @@
         <v>466</v>
       </c>
       <c r="E467" t="s">
+        <v>884</v>
+      </c>
+      <c r="F467" t="s">
         <v>885</v>
-      </c>
-      <c r="F467" t="s">
-        <v>886</v>
       </c>
       <c r="G467" t="n">
         <v>1</v>
@@ -17828,10 +17816,10 @@
         <v>467</v>
       </c>
       <c r="E468" t="s">
+        <v>886</v>
+      </c>
+      <c r="F468" t="s">
         <v>887</v>
-      </c>
-      <c r="F468" t="s">
-        <v>888</v>
       </c>
       <c r="G468" t="n">
         <v>1</v>
@@ -17857,10 +17845,10 @@
         <v>468</v>
       </c>
       <c r="E469" t="s">
+        <v>888</v>
+      </c>
+      <c r="F469" t="s">
         <v>889</v>
-      </c>
-      <c r="F469" t="s">
-        <v>890</v>
       </c>
       <c r="G469" t="n">
         <v>1</v>
@@ -17886,10 +17874,10 @@
         <v>469</v>
       </c>
       <c r="E470" t="s">
+        <v>890</v>
+      </c>
+      <c r="F470" t="s">
         <v>891</v>
-      </c>
-      <c r="F470" t="s">
-        <v>892</v>
       </c>
       <c r="G470" t="n">
         <v>4</v>
@@ -17915,10 +17903,10 @@
         <v>470</v>
       </c>
       <c r="E471" t="s">
+        <v>892</v>
+      </c>
+      <c r="F471" t="s">
         <v>893</v>
-      </c>
-      <c r="F471" t="s">
-        <v>894</v>
       </c>
       <c r="G471" t="n">
         <v>1</v>
@@ -17944,10 +17932,10 @@
         <v>471</v>
       </c>
       <c r="E472" t="s">
+        <v>894</v>
+      </c>
+      <c r="F472" t="s">
         <v>895</v>
-      </c>
-      <c r="F472" t="s">
-        <v>896</v>
       </c>
       <c r="G472" t="n">
         <v>1</v>
@@ -17973,10 +17961,10 @@
         <v>472</v>
       </c>
       <c r="E473" t="s">
+        <v>896</v>
+      </c>
+      <c r="F473" t="s">
         <v>897</v>
-      </c>
-      <c r="F473" t="s">
-        <v>898</v>
       </c>
       <c r="G473" t="n">
         <v>1</v>
@@ -18002,10 +17990,10 @@
         <v>473</v>
       </c>
       <c r="E474" t="s">
+        <v>898</v>
+      </c>
+      <c r="F474" t="s">
         <v>899</v>
-      </c>
-      <c r="F474" t="s">
-        <v>900</v>
       </c>
       <c r="G474" t="n">
         <v>1</v>
@@ -18031,10 +18019,10 @@
         <v>474</v>
       </c>
       <c r="E475" t="s">
+        <v>900</v>
+      </c>
+      <c r="F475" t="s">
         <v>901</v>
-      </c>
-      <c r="F475" t="s">
-        <v>902</v>
       </c>
       <c r="G475" t="n">
         <v>1</v>
@@ -18060,10 +18048,10 @@
         <v>475</v>
       </c>
       <c r="E476" t="s">
+        <v>902</v>
+      </c>
+      <c r="F476" t="s">
         <v>903</v>
-      </c>
-      <c r="F476" t="s">
-        <v>904</v>
       </c>
       <c r="G476" t="n">
         <v>2</v>
@@ -18089,10 +18077,10 @@
         <v>476</v>
       </c>
       <c r="E477" t="s">
+        <v>904</v>
+      </c>
+      <c r="F477" t="s">
         <v>905</v>
-      </c>
-      <c r="F477" t="s">
-        <v>906</v>
       </c>
       <c r="G477" t="n">
         <v>1</v>
@@ -18118,10 +18106,10 @@
         <v>477</v>
       </c>
       <c r="E478" t="s">
+        <v>906</v>
+      </c>
+      <c r="F478" t="s">
         <v>907</v>
-      </c>
-      <c r="F478" t="s">
-        <v>908</v>
       </c>
       <c r="G478" t="n">
         <v>1</v>
@@ -18147,10 +18135,10 @@
         <v>478</v>
       </c>
       <c r="E479" t="s">
+        <v>908</v>
+      </c>
+      <c r="F479" t="s">
         <v>909</v>
-      </c>
-      <c r="F479" t="s">
-        <v>910</v>
       </c>
       <c r="G479" t="n">
         <v>1</v>
@@ -18176,10 +18164,10 @@
         <v>479</v>
       </c>
       <c r="E480" t="s">
+        <v>910</v>
+      </c>
+      <c r="F480" t="s">
         <v>911</v>
-      </c>
-      <c r="F480" t="s">
-        <v>912</v>
       </c>
       <c r="G480" t="n">
         <v>2</v>
@@ -18205,10 +18193,10 @@
         <v>480</v>
       </c>
       <c r="E481" t="s">
+        <v>912</v>
+      </c>
+      <c r="F481" t="s">
         <v>913</v>
-      </c>
-      <c r="F481" t="s">
-        <v>914</v>
       </c>
       <c r="G481" t="n">
         <v>1</v>
@@ -18234,10 +18222,10 @@
         <v>481</v>
       </c>
       <c r="E482" t="s">
+        <v>914</v>
+      </c>
+      <c r="F482" t="s">
         <v>915</v>
-      </c>
-      <c r="F482" t="s">
-        <v>916</v>
       </c>
       <c r="G482" t="n">
         <v>1</v>
@@ -18263,10 +18251,10 @@
         <v>482</v>
       </c>
       <c r="E483" t="s">
+        <v>916</v>
+      </c>
+      <c r="F483" t="s">
         <v>917</v>
-      </c>
-      <c r="F483" t="s">
-        <v>918</v>
       </c>
       <c r="G483" t="n">
         <v>1</v>
@@ -18321,10 +18309,10 @@
         <v>484</v>
       </c>
       <c r="E485" t="s">
+        <v>918</v>
+      </c>
+      <c r="F485" t="s">
         <v>919</v>
-      </c>
-      <c r="F485" t="s">
-        <v>920</v>
       </c>
       <c r="G485" t="n">
         <v>1</v>
@@ -18350,10 +18338,10 @@
         <v>485</v>
       </c>
       <c r="E486" t="s">
+        <v>920</v>
+      </c>
+      <c r="F486" t="s">
         <v>921</v>
-      </c>
-      <c r="F486" t="s">
-        <v>922</v>
       </c>
       <c r="G486" t="n">
         <v>1</v>
@@ -18379,10 +18367,10 @@
         <v>486</v>
       </c>
       <c r="E487" t="s">
+        <v>922</v>
+      </c>
+      <c r="F487" t="s">
         <v>923</v>
-      </c>
-      <c r="F487" t="s">
-        <v>924</v>
       </c>
       <c r="G487" t="n">
         <v>1</v>
@@ -18408,10 +18396,10 @@
         <v>487</v>
       </c>
       <c r="E488" t="s">
+        <v>924</v>
+      </c>
+      <c r="F488" t="s">
         <v>925</v>
-      </c>
-      <c r="F488" t="s">
-        <v>926</v>
       </c>
       <c r="G488" t="n">
         <v>1</v>
@@ -18437,10 +18425,10 @@
         <v>488</v>
       </c>
       <c r="E489" t="s">
+        <v>926</v>
+      </c>
+      <c r="F489" t="s">
         <v>927</v>
-      </c>
-      <c r="F489" t="s">
-        <v>928</v>
       </c>
       <c r="G489" t="n">
         <v>1</v>
@@ -18466,10 +18454,10 @@
         <v>489</v>
       </c>
       <c r="E490" t="s">
+        <v>928</v>
+      </c>
+      <c r="F490" t="s">
         <v>929</v>
-      </c>
-      <c r="F490" t="s">
-        <v>930</v>
       </c>
       <c r="G490" t="n">
         <v>1</v>
@@ -18495,10 +18483,10 @@
         <v>490</v>
       </c>
       <c r="E491" t="s">
+        <v>930</v>
+      </c>
+      <c r="F491" t="s">
         <v>931</v>
-      </c>
-      <c r="F491" t="s">
-        <v>932</v>
       </c>
       <c r="G491" t="n">
         <v>1</v>
@@ -18524,10 +18512,10 @@
         <v>491</v>
       </c>
       <c r="E492" t="s">
+        <v>932</v>
+      </c>
+      <c r="F492" t="s">
         <v>933</v>
-      </c>
-      <c r="F492" t="s">
-        <v>934</v>
       </c>
       <c r="G492" t="n">
         <v>1</v>
@@ -18553,10 +18541,10 @@
         <v>492</v>
       </c>
       <c r="E493" t="s">
+        <v>934</v>
+      </c>
+      <c r="F493" t="s">
         <v>935</v>
-      </c>
-      <c r="F493" t="s">
-        <v>936</v>
       </c>
       <c r="G493" t="n">
         <v>1</v>
@@ -18582,10 +18570,10 @@
         <v>493</v>
       </c>
       <c r="E494" t="s">
+        <v>936</v>
+      </c>
+      <c r="F494" t="s">
         <v>937</v>
-      </c>
-      <c r="F494" t="s">
-        <v>938</v>
       </c>
       <c r="G494" t="n">
         <v>1</v>
@@ -18611,10 +18599,10 @@
         <v>494</v>
       </c>
       <c r="E495" t="s">
+        <v>938</v>
+      </c>
+      <c r="F495" t="s">
         <v>939</v>
-      </c>
-      <c r="F495" t="s">
-        <v>940</v>
       </c>
       <c r="G495" t="n">
         <v>1</v>
@@ -18640,10 +18628,10 @@
         <v>495</v>
       </c>
       <c r="E496" t="s">
+        <v>940</v>
+      </c>
+      <c r="F496" t="s">
         <v>941</v>
-      </c>
-      <c r="F496" t="s">
-        <v>942</v>
       </c>
       <c r="G496" t="n">
         <v>1</v>
@@ -18669,10 +18657,10 @@
         <v>496</v>
       </c>
       <c r="E497" t="s">
+        <v>942</v>
+      </c>
+      <c r="F497" t="s">
         <v>943</v>
-      </c>
-      <c r="F497" t="s">
-        <v>944</v>
       </c>
       <c r="G497" t="n">
         <v>1</v>
@@ -18698,10 +18686,10 @@
         <v>497</v>
       </c>
       <c r="E498" t="s">
+        <v>944</v>
+      </c>
+      <c r="F498" t="s">
         <v>945</v>
-      </c>
-      <c r="F498" t="s">
-        <v>946</v>
       </c>
       <c r="G498" t="n">
         <v>1</v>
@@ -18727,10 +18715,10 @@
         <v>498</v>
       </c>
       <c r="E499" t="s">
+        <v>946</v>
+      </c>
+      <c r="F499" t="s">
         <v>947</v>
-      </c>
-      <c r="F499" t="s">
-        <v>948</v>
       </c>
       <c r="G499" t="n">
         <v>1</v>
@@ -18756,10 +18744,10 @@
         <v>499</v>
       </c>
       <c r="E500" t="s">
+        <v>948</v>
+      </c>
+      <c r="F500" t="s">
         <v>949</v>
-      </c>
-      <c r="F500" t="s">
-        <v>950</v>
       </c>
       <c r="G500" t="n">
         <v>1</v>
@@ -18785,10 +18773,10 @@
         <v>500</v>
       </c>
       <c r="E501" t="s">
+        <v>950</v>
+      </c>
+      <c r="F501" t="s">
         <v>951</v>
-      </c>
-      <c r="F501" t="s">
-        <v>952</v>
       </c>
       <c r="G501" t="n">
         <v>1</v>
@@ -18814,10 +18802,10 @@
         <v>501</v>
       </c>
       <c r="E502" t="s">
+        <v>952</v>
+      </c>
+      <c r="F502" t="s">
         <v>953</v>
-      </c>
-      <c r="F502" t="s">
-        <v>954</v>
       </c>
       <c r="G502" t="n">
         <v>1</v>
@@ -18843,10 +18831,10 @@
         <v>502</v>
       </c>
       <c r="E503" t="s">
+        <v>954</v>
+      </c>
+      <c r="F503" t="s">
         <v>955</v>
-      </c>
-      <c r="F503" t="s">
-        <v>956</v>
       </c>
       <c r="G503" t="n">
         <v>1</v>
@@ -18872,10 +18860,10 @@
         <v>503</v>
       </c>
       <c r="E504" t="s">
+        <v>956</v>
+      </c>
+      <c r="F504" t="s">
         <v>957</v>
-      </c>
-      <c r="F504" t="s">
-        <v>958</v>
       </c>
       <c r="G504" t="n">
         <v>1</v>
@@ -18901,10 +18889,10 @@
         <v>504</v>
       </c>
       <c r="E505" t="s">
+        <v>958</v>
+      </c>
+      <c r="F505" t="s">
         <v>959</v>
-      </c>
-      <c r="F505" t="s">
-        <v>960</v>
       </c>
       <c r="G505" t="n">
         <v>1</v>
@@ -18930,10 +18918,10 @@
         <v>505</v>
       </c>
       <c r="E506" t="s">
+        <v>960</v>
+      </c>
+      <c r="F506" t="s">
         <v>961</v>
-      </c>
-      <c r="F506" t="s">
-        <v>962</v>
       </c>
       <c r="G506" t="n">
         <v>1</v>
@@ -18959,10 +18947,10 @@
         <v>506</v>
       </c>
       <c r="E507" t="s">
+        <v>962</v>
+      </c>
+      <c r="F507" t="s">
         <v>963</v>
-      </c>
-      <c r="F507" t="s">
-        <v>964</v>
       </c>
       <c r="G507" t="n">
         <v>1</v>
@@ -18988,10 +18976,10 @@
         <v>507</v>
       </c>
       <c r="E508" t="s">
+        <v>964</v>
+      </c>
+      <c r="F508" t="s">
         <v>965</v>
-      </c>
-      <c r="F508" t="s">
-        <v>966</v>
       </c>
       <c r="G508" t="n">
         <v>1</v>
@@ -19017,10 +19005,10 @@
         <v>508</v>
       </c>
       <c r="E509" t="s">
+        <v>966</v>
+      </c>
+      <c r="F509" t="s">
         <v>967</v>
-      </c>
-      <c r="F509" t="s">
-        <v>968</v>
       </c>
       <c r="G509" t="n">
         <v>1</v>
@@ -19046,10 +19034,10 @@
         <v>509</v>
       </c>
       <c r="E510" t="s">
+        <v>968</v>
+      </c>
+      <c r="F510" t="s">
         <v>969</v>
-      </c>
-      <c r="F510" t="s">
-        <v>970</v>
       </c>
       <c r="G510" t="n">
         <v>2</v>
@@ -19075,10 +19063,10 @@
         <v>510</v>
       </c>
       <c r="E511" t="s">
+        <v>970</v>
+      </c>
+      <c r="F511" t="s">
         <v>971</v>
-      </c>
-      <c r="F511" t="s">
-        <v>972</v>
       </c>
       <c r="G511" t="n">
         <v>1</v>
@@ -19104,10 +19092,10 @@
         <v>511</v>
       </c>
       <c r="E512" t="s">
+        <v>972</v>
+      </c>
+      <c r="F512" t="s">
         <v>973</v>
-      </c>
-      <c r="F512" t="s">
-        <v>974</v>
       </c>
       <c r="G512" t="n">
         <v>1</v>
@@ -19162,10 +19150,10 @@
         <v>513</v>
       </c>
       <c r="E514" t="s">
+        <v>974</v>
+      </c>
+      <c r="F514" t="s">
         <v>975</v>
-      </c>
-      <c r="F514" t="s">
-        <v>976</v>
       </c>
       <c r="G514" t="n">
         <v>1</v>
@@ -19191,10 +19179,10 @@
         <v>514</v>
       </c>
       <c r="E515" t="s">
+        <v>976</v>
+      </c>
+      <c r="F515" t="s">
         <v>977</v>
-      </c>
-      <c r="F515" t="s">
-        <v>978</v>
       </c>
       <c r="G515" t="n">
         <v>1</v>
@@ -19220,10 +19208,10 @@
         <v>515</v>
       </c>
       <c r="E516" t="s">
+        <v>978</v>
+      </c>
+      <c r="F516" t="s">
         <v>979</v>
-      </c>
-      <c r="F516" t="s">
-        <v>980</v>
       </c>
       <c r="G516" t="n">
         <v>18</v>
@@ -19249,10 +19237,10 @@
         <v>516</v>
       </c>
       <c r="E517" t="s">
+        <v>980</v>
+      </c>
+      <c r="F517" t="s">
         <v>981</v>
-      </c>
-      <c r="F517" t="s">
-        <v>982</v>
       </c>
       <c r="G517" t="n">
         <v>1</v>
@@ -19278,10 +19266,10 @@
         <v>517</v>
       </c>
       <c r="E518" t="s">
+        <v>982</v>
+      </c>
+      <c r="F518" t="s">
         <v>983</v>
-      </c>
-      <c r="F518" t="s">
-        <v>984</v>
       </c>
       <c r="G518" t="n">
         <v>1</v>
@@ -19307,10 +19295,10 @@
         <v>518</v>
       </c>
       <c r="E519" t="s">
+        <v>984</v>
+      </c>
+      <c r="F519" t="s">
         <v>985</v>
-      </c>
-      <c r="F519" t="s">
-        <v>986</v>
       </c>
       <c r="G519" t="n">
         <v>1</v>
@@ -19336,10 +19324,10 @@
         <v>519</v>
       </c>
       <c r="E520" t="s">
+        <v>986</v>
+      </c>
+      <c r="F520" t="s">
         <v>987</v>
-      </c>
-      <c r="F520" t="s">
-        <v>988</v>
       </c>
       <c r="G520" t="n">
         <v>1</v>
@@ -19365,10 +19353,10 @@
         <v>520</v>
       </c>
       <c r="E521" t="s">
+        <v>988</v>
+      </c>
+      <c r="F521" t="s">
         <v>989</v>
-      </c>
-      <c r="F521" t="s">
-        <v>990</v>
       </c>
       <c r="G521" t="n">
         <v>1</v>
@@ -19394,10 +19382,10 @@
         <v>521</v>
       </c>
       <c r="E522" t="s">
+        <v>990</v>
+      </c>
+      <c r="F522" t="s">
         <v>991</v>
-      </c>
-      <c r="F522" t="s">
-        <v>992</v>
       </c>
       <c r="G522" t="n">
         <v>1</v>
@@ -19423,10 +19411,10 @@
         <v>522</v>
       </c>
       <c r="E523" t="s">
+        <v>992</v>
+      </c>
+      <c r="F523" t="s">
         <v>993</v>
-      </c>
-      <c r="F523" t="s">
-        <v>994</v>
       </c>
       <c r="G523" t="n">
         <v>1</v>
@@ -19452,10 +19440,10 @@
         <v>523</v>
       </c>
       <c r="E524" t="s">
+        <v>994</v>
+      </c>
+      <c r="F524" t="s">
         <v>995</v>
-      </c>
-      <c r="F524" t="s">
-        <v>996</v>
       </c>
       <c r="G524" t="n">
         <v>1</v>
@@ -19481,10 +19469,10 @@
         <v>524</v>
       </c>
       <c r="E525" t="s">
+        <v>996</v>
+      </c>
+      <c r="F525" t="s">
         <v>997</v>
-      </c>
-      <c r="F525" t="s">
-        <v>998</v>
       </c>
       <c r="G525" t="n">
         <v>1</v>
@@ -19510,10 +19498,10 @@
         <v>525</v>
       </c>
       <c r="E526" t="s">
+        <v>998</v>
+      </c>
+      <c r="F526" t="s">
         <v>999</v>
-      </c>
-      <c r="F526" t="s">
-        <v>1000</v>
       </c>
       <c r="G526" t="n">
         <v>1</v>
@@ -19539,10 +19527,10 @@
         <v>526</v>
       </c>
       <c r="E527" t="s">
+        <v>1000</v>
+      </c>
+      <c r="F527" t="s">
         <v>1001</v>
-      </c>
-      <c r="F527" t="s">
-        <v>1002</v>
       </c>
       <c r="G527" t="n">
         <v>1</v>
@@ -19568,10 +19556,10 @@
         <v>527</v>
       </c>
       <c r="E528" t="s">
+        <v>1002</v>
+      </c>
+      <c r="F528" t="s">
         <v>1003</v>
-      </c>
-      <c r="F528" t="s">
-        <v>1004</v>
       </c>
       <c r="G528" t="n">
         <v>1</v>
@@ -19597,10 +19585,10 @@
         <v>528</v>
       </c>
       <c r="E529" t="s">
+        <v>1004</v>
+      </c>
+      <c r="F529" t="s">
         <v>1005</v>
-      </c>
-      <c r="F529" t="s">
-        <v>1006</v>
       </c>
       <c r="G529" t="n">
         <v>1</v>
@@ -19626,10 +19614,10 @@
         <v>529</v>
       </c>
       <c r="E530" t="s">
+        <v>1006</v>
+      </c>
+      <c r="F530" t="s">
         <v>1007</v>
-      </c>
-      <c r="F530" t="s">
-        <v>1008</v>
       </c>
       <c r="G530" t="n">
         <v>1</v>
@@ -19655,10 +19643,10 @@
         <v>530</v>
       </c>
       <c r="E531" t="s">
+        <v>1008</v>
+      </c>
+      <c r="F531" t="s">
         <v>1009</v>
-      </c>
-      <c r="F531" t="s">
-        <v>1010</v>
       </c>
       <c r="G531" t="n">
         <v>1</v>
@@ -19684,10 +19672,10 @@
         <v>531</v>
       </c>
       <c r="E532" t="s">
+        <v>1010</v>
+      </c>
+      <c r="F532" t="s">
         <v>1011</v>
-      </c>
-      <c r="F532" t="s">
-        <v>1012</v>
       </c>
       <c r="G532" t="n">
         <v>1</v>
@@ -19713,10 +19701,10 @@
         <v>532</v>
       </c>
       <c r="E533" t="s">
+        <v>1012</v>
+      </c>
+      <c r="F533" t="s">
         <v>1013</v>
-      </c>
-      <c r="F533" t="s">
-        <v>1014</v>
       </c>
       <c r="G533" t="n">
         <v>1</v>
@@ -19742,10 +19730,10 @@
         <v>533</v>
       </c>
       <c r="E534" t="s">
+        <v>1014</v>
+      </c>
+      <c r="F534" t="s">
         <v>1015</v>
-      </c>
-      <c r="F534" t="s">
-        <v>1016</v>
       </c>
       <c r="G534" t="n">
         <v>1</v>
@@ -19771,10 +19759,10 @@
         <v>534</v>
       </c>
       <c r="E535" t="s">
+        <v>1016</v>
+      </c>
+      <c r="F535" t="s">
         <v>1017</v>
-      </c>
-      <c r="F535" t="s">
-        <v>1018</v>
       </c>
       <c r="G535" t="n">
         <v>1</v>
@@ -19800,10 +19788,10 @@
         <v>535</v>
       </c>
       <c r="E536" t="s">
+        <v>1018</v>
+      </c>
+      <c r="F536" t="s">
         <v>1019</v>
-      </c>
-      <c r="F536" t="s">
-        <v>1020</v>
       </c>
       <c r="G536" t="n">
         <v>1</v>
@@ -19829,10 +19817,10 @@
         <v>536</v>
       </c>
       <c r="E537" t="s">
+        <v>1020</v>
+      </c>
+      <c r="F537" t="s">
         <v>1021</v>
-      </c>
-      <c r="F537" t="s">
-        <v>1022</v>
       </c>
       <c r="G537" t="n">
         <v>1</v>
@@ -19858,10 +19846,10 @@
         <v>537</v>
       </c>
       <c r="E538" t="s">
+        <v>1022</v>
+      </c>
+      <c r="F538" t="s">
         <v>1023</v>
-      </c>
-      <c r="F538" t="s">
-        <v>1024</v>
       </c>
       <c r="G538" t="n">
         <v>1</v>
@@ -19887,10 +19875,10 @@
         <v>538</v>
       </c>
       <c r="E539" t="s">
+        <v>1024</v>
+      </c>
+      <c r="F539" t="s">
         <v>1025</v>
-      </c>
-      <c r="F539" t="s">
-        <v>1026</v>
       </c>
       <c r="G539" t="n">
         <v>1</v>
@@ -19916,10 +19904,10 @@
         <v>539</v>
       </c>
       <c r="E540" t="s">
+        <v>1026</v>
+      </c>
+      <c r="F540" t="s">
         <v>1027</v>
-      </c>
-      <c r="F540" t="s">
-        <v>1028</v>
       </c>
       <c r="G540" t="n">
         <v>1</v>
@@ -19945,10 +19933,10 @@
         <v>540</v>
       </c>
       <c r="E541" t="s">
+        <v>1028</v>
+      </c>
+      <c r="F541" t="s">
         <v>1029</v>
-      </c>
-      <c r="F541" t="s">
-        <v>1030</v>
       </c>
       <c r="G541" t="n">
         <v>1</v>
@@ -19974,10 +19962,10 @@
         <v>541</v>
       </c>
       <c r="E542" t="s">
+        <v>1030</v>
+      </c>
+      <c r="F542" t="s">
         <v>1031</v>
-      </c>
-      <c r="F542" t="s">
-        <v>1032</v>
       </c>
       <c r="G542" t="n">
         <v>1</v>
@@ -20003,10 +19991,10 @@
         <v>542</v>
       </c>
       <c r="E543" t="s">
+        <v>1032</v>
+      </c>
+      <c r="F543" t="s">
         <v>1033</v>
-      </c>
-      <c r="F543" t="s">
-        <v>1034</v>
       </c>
       <c r="G543" t="n">
         <v>1</v>
@@ -20032,10 +20020,10 @@
         <v>543</v>
       </c>
       <c r="E544" t="s">
+        <v>1034</v>
+      </c>
+      <c r="F544" t="s">
         <v>1035</v>
-      </c>
-      <c r="F544" t="s">
-        <v>1036</v>
       </c>
       <c r="G544" t="n">
         <v>1</v>
@@ -20061,10 +20049,10 @@
         <v>544</v>
       </c>
       <c r="E545" t="s">
+        <v>1036</v>
+      </c>
+      <c r="F545" t="s">
         <v>1037</v>
-      </c>
-      <c r="F545" t="s">
-        <v>1038</v>
       </c>
       <c r="G545" t="n">
         <v>1</v>
@@ -20090,10 +20078,10 @@
         <v>545</v>
       </c>
       <c r="E546" t="s">
+        <v>1038</v>
+      </c>
+      <c r="F546" t="s">
         <v>1039</v>
-      </c>
-      <c r="F546" t="s">
-        <v>1040</v>
       </c>
       <c r="G546" t="n">
         <v>1</v>
@@ -20119,10 +20107,10 @@
         <v>546</v>
       </c>
       <c r="E547" t="s">
+        <v>1040</v>
+      </c>
+      <c r="F547" t="s">
         <v>1041</v>
-      </c>
-      <c r="F547" t="s">
-        <v>1042</v>
       </c>
       <c r="G547" t="n">
         <v>1</v>
@@ -20148,10 +20136,10 @@
         <v>547</v>
       </c>
       <c r="E548" t="s">
+        <v>1042</v>
+      </c>
+      <c r="F548" t="s">
         <v>1043</v>
-      </c>
-      <c r="F548" t="s">
-        <v>1044</v>
       </c>
       <c r="G548" t="n">
         <v>1</v>
@@ -20177,10 +20165,10 @@
         <v>548</v>
       </c>
       <c r="E549" t="s">
+        <v>1044</v>
+      </c>
+      <c r="F549" t="s">
         <v>1045</v>
-      </c>
-      <c r="F549" t="s">
-        <v>1046</v>
       </c>
       <c r="G549" t="n">
         <v>1</v>
@@ -20206,10 +20194,10 @@
         <v>549</v>
       </c>
       <c r="E550" t="s">
+        <v>1046</v>
+      </c>
+      <c r="F550" t="s">
         <v>1047</v>
-      </c>
-      <c r="F550" t="s">
-        <v>1048</v>
       </c>
       <c r="G550" t="n">
         <v>1</v>
@@ -20235,10 +20223,10 @@
         <v>550</v>
       </c>
       <c r="E551" t="s">
+        <v>1048</v>
+      </c>
+      <c r="F551" t="s">
         <v>1049</v>
-      </c>
-      <c r="F551" t="s">
-        <v>1050</v>
       </c>
       <c r="G551" t="n">
         <v>1</v>
@@ -20264,10 +20252,10 @@
         <v>551</v>
       </c>
       <c r="E552" t="s">
+        <v>1050</v>
+      </c>
+      <c r="F552" t="s">
         <v>1051</v>
-      </c>
-      <c r="F552" t="s">
-        <v>1052</v>
       </c>
       <c r="G552" t="n">
         <v>1</v>
@@ -20293,10 +20281,10 @@
         <v>552</v>
       </c>
       <c r="E553" t="s">
+        <v>1052</v>
+      </c>
+      <c r="F553" t="s">
         <v>1053</v>
-      </c>
-      <c r="F553" t="s">
-        <v>1054</v>
       </c>
       <c r="G553" t="n">
         <v>1</v>
@@ -20322,10 +20310,10 @@
         <v>553</v>
       </c>
       <c r="E554" t="s">
+        <v>1054</v>
+      </c>
+      <c r="F554" t="s">
         <v>1055</v>
-      </c>
-      <c r="F554" t="s">
-        <v>1056</v>
       </c>
       <c r="G554" t="n">
         <v>1</v>
@@ -20351,10 +20339,10 @@
         <v>554</v>
       </c>
       <c r="E555" t="s">
+        <v>1056</v>
+      </c>
+      <c r="F555" t="s">
         <v>1057</v>
-      </c>
-      <c r="F555" t="s">
-        <v>1058</v>
       </c>
       <c r="G555" t="n">
         <v>1</v>
@@ -20409,10 +20397,10 @@
         <v>556</v>
       </c>
       <c r="E557" t="s">
+        <v>1058</v>
+      </c>
+      <c r="F557" t="s">
         <v>1059</v>
-      </c>
-      <c r="F557" t="s">
-        <v>1060</v>
       </c>
       <c r="G557" t="n">
         <v>1</v>
@@ -20438,10 +20426,10 @@
         <v>557</v>
       </c>
       <c r="E558" t="s">
+        <v>1060</v>
+      </c>
+      <c r="F558" t="s">
         <v>1061</v>
-      </c>
-      <c r="F558" t="s">
-        <v>1062</v>
       </c>
       <c r="G558" t="n">
         <v>1</v>
@@ -20467,10 +20455,10 @@
         <v>558</v>
       </c>
       <c r="E559" t="s">
+        <v>1062</v>
+      </c>
+      <c r="F559" t="s">
         <v>1063</v>
-      </c>
-      <c r="F559" t="s">
-        <v>1064</v>
       </c>
       <c r="G559" t="n">
         <v>1</v>
@@ -20496,10 +20484,10 @@
         <v>559</v>
       </c>
       <c r="E560" t="s">
+        <v>1064</v>
+      </c>
+      <c r="F560" t="s">
         <v>1065</v>
-      </c>
-      <c r="F560" t="s">
-        <v>1066</v>
       </c>
       <c r="G560" t="n">
         <v>1</v>
@@ -20525,10 +20513,10 @@
         <v>560</v>
       </c>
       <c r="E561" t="s">
+        <v>1066</v>
+      </c>
+      <c r="F561" t="s">
         <v>1067</v>
-      </c>
-      <c r="F561" t="s">
-        <v>1068</v>
       </c>
       <c r="G561" t="n">
         <v>1</v>
@@ -20554,10 +20542,10 @@
         <v>561</v>
       </c>
       <c r="E562" t="s">
+        <v>1068</v>
+      </c>
+      <c r="F562" t="s">
         <v>1069</v>
-      </c>
-      <c r="F562" t="s">
-        <v>1070</v>
       </c>
       <c r="G562" t="n">
         <v>1</v>
@@ -20583,10 +20571,10 @@
         <v>562</v>
       </c>
       <c r="E563" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F563" t="s">
         <v>1071</v>
-      </c>
-      <c r="F563" t="s">
-        <v>1072</v>
       </c>
       <c r="G563" t="n">
         <v>1</v>
@@ -20612,10 +20600,10 @@
         <v>563</v>
       </c>
       <c r="E564" t="s">
+        <v>1072</v>
+      </c>
+      <c r="F564" t="s">
         <v>1073</v>
-      </c>
-      <c r="F564" t="s">
-        <v>1074</v>
       </c>
       <c r="G564" t="n">
         <v>1</v>
@@ -20641,10 +20629,10 @@
         <v>564</v>
       </c>
       <c r="E565" t="s">
+        <v>1074</v>
+      </c>
+      <c r="F565" t="s">
         <v>1075</v>
-      </c>
-      <c r="F565" t="s">
-        <v>1076</v>
       </c>
       <c r="G565" t="n">
         <v>1</v>
@@ -20699,10 +20687,10 @@
         <v>566</v>
       </c>
       <c r="E567" t="s">
+        <v>1076</v>
+      </c>
+      <c r="F567" t="s">
         <v>1077</v>
-      </c>
-      <c r="F567" t="s">
-        <v>1078</v>
       </c>
       <c r="G567" t="n">
         <v>1</v>
@@ -20757,10 +20745,10 @@
         <v>568</v>
       </c>
       <c r="E569" t="s">
+        <v>1078</v>
+      </c>
+      <c r="F569" t="s">
         <v>1079</v>
-      </c>
-      <c r="F569" t="s">
-        <v>1080</v>
       </c>
       <c r="G569" t="n">
         <v>9</v>
@@ -20786,10 +20774,10 @@
         <v>569</v>
       </c>
       <c r="E570" t="s">
+        <v>1080</v>
+      </c>
+      <c r="F570" t="s">
         <v>1081</v>
-      </c>
-      <c r="F570" t="s">
-        <v>1082</v>
       </c>
       <c r="G570" t="n">
         <v>1</v>
@@ -20815,10 +20803,10 @@
         <v>570</v>
       </c>
       <c r="E571" t="s">
+        <v>1082</v>
+      </c>
+      <c r="F571" t="s">
         <v>1083</v>
-      </c>
-      <c r="F571" t="s">
-        <v>1084</v>
       </c>
       <c r="G571" t="n">
         <v>3</v>
@@ -20844,10 +20832,10 @@
         <v>571</v>
       </c>
       <c r="E572" t="s">
+        <v>1084</v>
+      </c>
+      <c r="F572" t="s">
         <v>1085</v>
-      </c>
-      <c r="F572" t="s">
-        <v>1086</v>
       </c>
       <c r="G572" t="n">
         <v>2</v>
@@ -20873,10 +20861,10 @@
         <v>572</v>
       </c>
       <c r="E573" t="s">
+        <v>1086</v>
+      </c>
+      <c r="F573" t="s">
         <v>1087</v>
-      </c>
-      <c r="F573" t="s">
-        <v>1088</v>
       </c>
       <c r="G573" t="n">
         <v>2</v>
@@ -20902,10 +20890,10 @@
         <v>573</v>
       </c>
       <c r="E574" t="s">
+        <v>1088</v>
+      </c>
+      <c r="F574" t="s">
         <v>1089</v>
-      </c>
-      <c r="F574" t="s">
-        <v>1090</v>
       </c>
       <c r="G574" t="n">
         <v>3</v>
@@ -20931,10 +20919,10 @@
         <v>574</v>
       </c>
       <c r="E575" t="s">
+        <v>1090</v>
+      </c>
+      <c r="F575" t="s">
         <v>1091</v>
-      </c>
-      <c r="F575" t="s">
-        <v>1092</v>
       </c>
       <c r="G575" t="n">
         <v>1</v>
@@ -20960,10 +20948,10 @@
         <v>575</v>
       </c>
       <c r="E576" t="s">
+        <v>1092</v>
+      </c>
+      <c r="F576" t="s">
         <v>1093</v>
-      </c>
-      <c r="F576" t="s">
-        <v>1094</v>
       </c>
       <c r="G576" t="n">
         <v>3</v>
@@ -20989,10 +20977,10 @@
         <v>576</v>
       </c>
       <c r="E577" t="s">
+        <v>1094</v>
+      </c>
+      <c r="F577" t="s">
         <v>1095</v>
-      </c>
-      <c r="F577" t="s">
-        <v>1096</v>
       </c>
       <c r="G577" t="n">
         <v>2</v>
@@ -21018,10 +21006,10 @@
         <v>577</v>
       </c>
       <c r="E578" t="s">
+        <v>1096</v>
+      </c>
+      <c r="F578" t="s">
         <v>1097</v>
-      </c>
-      <c r="F578" t="s">
-        <v>1098</v>
       </c>
       <c r="G578" t="n">
         <v>1</v>
@@ -21047,10 +21035,10 @@
         <v>578</v>
       </c>
       <c r="E579" t="s">
+        <v>1098</v>
+      </c>
+      <c r="F579" t="s">
         <v>1099</v>
-      </c>
-      <c r="F579" t="s">
-        <v>1100</v>
       </c>
       <c r="G579" t="n">
         <v>2</v>
@@ -21076,10 +21064,10 @@
         <v>579</v>
       </c>
       <c r="E580" t="s">
+        <v>1100</v>
+      </c>
+      <c r="F580" t="s">
         <v>1101</v>
-      </c>
-      <c r="F580" t="s">
-        <v>1102</v>
       </c>
       <c r="G580" t="n">
         <v>1</v>
@@ -21105,10 +21093,10 @@
         <v>580</v>
       </c>
       <c r="E581" t="s">
+        <v>1102</v>
+      </c>
+      <c r="F581" t="s">
         <v>1103</v>
-      </c>
-      <c r="F581" t="s">
-        <v>1104</v>
       </c>
       <c r="G581" t="n">
         <v>3</v>
@@ -21134,10 +21122,10 @@
         <v>581</v>
       </c>
       <c r="E582" t="s">
+        <v>1104</v>
+      </c>
+      <c r="F582" t="s">
         <v>1105</v>
-      </c>
-      <c r="F582" t="s">
-        <v>1106</v>
       </c>
       <c r="G582" t="n">
         <v>2</v>
@@ -21163,10 +21151,10 @@
         <v>582</v>
       </c>
       <c r="E583" t="s">
+        <v>1106</v>
+      </c>
+      <c r="F583" t="s">
         <v>1107</v>
-      </c>
-      <c r="F583" t="s">
-        <v>1108</v>
       </c>
       <c r="G583" t="n">
         <v>2</v>
@@ -21192,10 +21180,10 @@
         <v>583</v>
       </c>
       <c r="E584" t="s">
+        <v>1108</v>
+      </c>
+      <c r="F584" t="s">
         <v>1109</v>
-      </c>
-      <c r="F584" t="s">
-        <v>1110</v>
       </c>
       <c r="G584" t="n">
         <v>1</v>
@@ -21221,10 +21209,10 @@
         <v>584</v>
       </c>
       <c r="E585" t="s">
+        <v>1110</v>
+      </c>
+      <c r="F585" t="s">
         <v>1111</v>
-      </c>
-      <c r="F585" t="s">
-        <v>1112</v>
       </c>
       <c r="G585" t="n">
         <v>2</v>
@@ -21250,10 +21238,10 @@
         <v>585</v>
       </c>
       <c r="E586" t="s">
+        <v>1112</v>
+      </c>
+      <c r="F586" t="s">
         <v>1113</v>
-      </c>
-      <c r="F586" t="s">
-        <v>1114</v>
       </c>
       <c r="G586" t="n">
         <v>1</v>
@@ -21279,10 +21267,10 @@
         <v>586</v>
       </c>
       <c r="E587" t="s">
+        <v>1114</v>
+      </c>
+      <c r="F587" t="s">
         <v>1115</v>
-      </c>
-      <c r="F587" t="s">
-        <v>1116</v>
       </c>
       <c r="G587" t="n">
         <v>2</v>
@@ -21308,10 +21296,10 @@
         <v>587</v>
       </c>
       <c r="E588" t="s">
+        <v>1116</v>
+      </c>
+      <c r="F588" t="s">
         <v>1117</v>
-      </c>
-      <c r="F588" t="s">
-        <v>1118</v>
       </c>
       <c r="G588" t="n">
         <v>1</v>
@@ -21337,10 +21325,10 @@
         <v>588</v>
       </c>
       <c r="E589" t="s">
+        <v>900</v>
+      </c>
+      <c r="F589" t="s">
         <v>901</v>
-      </c>
-      <c r="F589" t="s">
-        <v>902</v>
       </c>
       <c r="G589" t="n">
         <v>3</v>
@@ -21366,10 +21354,10 @@
         <v>589</v>
       </c>
       <c r="E590" t="s">
+        <v>1118</v>
+      </c>
+      <c r="F590" t="s">
         <v>1119</v>
-      </c>
-      <c r="F590" t="s">
-        <v>1120</v>
       </c>
       <c r="G590" t="n">
         <v>3</v>
@@ -21395,10 +21383,10 @@
         <v>590</v>
       </c>
       <c r="E591" t="s">
+        <v>878</v>
+      </c>
+      <c r="F591" t="s">
         <v>879</v>
-      </c>
-      <c r="F591" t="s">
-        <v>880</v>
       </c>
       <c r="G591" t="n">
         <v>5</v>
@@ -21424,10 +21412,10 @@
         <v>591</v>
       </c>
       <c r="E592" t="s">
+        <v>1120</v>
+      </c>
+      <c r="F592" t="s">
         <v>1121</v>
-      </c>
-      <c r="F592" t="s">
-        <v>1122</v>
       </c>
       <c r="G592" t="n">
         <v>3</v>
@@ -21453,10 +21441,10 @@
         <v>592</v>
       </c>
       <c r="E593" t="s">
+        <v>896</v>
+      </c>
+      <c r="F593" t="s">
         <v>897</v>
-      </c>
-      <c r="F593" t="s">
-        <v>898</v>
       </c>
       <c r="G593" t="n">
         <v>3</v>
@@ -21482,10 +21470,10 @@
         <v>593</v>
       </c>
       <c r="E594" t="s">
+        <v>892</v>
+      </c>
+      <c r="F594" t="s">
         <v>893</v>
-      </c>
-      <c r="F594" t="s">
-        <v>894</v>
       </c>
       <c r="G594" t="n">
         <v>5</v>
@@ -21511,10 +21499,10 @@
         <v>594</v>
       </c>
       <c r="E595" t="s">
+        <v>876</v>
+      </c>
+      <c r="F595" t="s">
         <v>877</v>
-      </c>
-      <c r="F595" t="s">
-        <v>878</v>
       </c>
       <c r="G595" t="n">
         <v>6</v>
@@ -21540,10 +21528,10 @@
         <v>595</v>
       </c>
       <c r="E596" t="s">
+        <v>874</v>
+      </c>
+      <c r="F596" t="s">
         <v>875</v>
-      </c>
-      <c r="F596" t="s">
-        <v>876</v>
       </c>
       <c r="G596" t="n">
         <v>15</v>
@@ -21569,10 +21557,10 @@
         <v>596</v>
       </c>
       <c r="E597" t="s">
+        <v>864</v>
+      </c>
+      <c r="F597" t="s">
         <v>865</v>
-      </c>
-      <c r="F597" t="s">
-        <v>866</v>
       </c>
       <c r="G597" t="n">
         <v>6</v>
@@ -21598,10 +21586,10 @@
         <v>597</v>
       </c>
       <c r="E598" t="s">
+        <v>866</v>
+      </c>
+      <c r="F598" t="s">
         <v>867</v>
-      </c>
-      <c r="F598" t="s">
-        <v>868</v>
       </c>
       <c r="G598" t="n">
         <v>8</v>
@@ -21627,10 +21615,10 @@
         <v>598</v>
       </c>
       <c r="E599" t="s">
+        <v>956</v>
+      </c>
+      <c r="F599" t="s">
         <v>957</v>
-      </c>
-      <c r="F599" t="s">
-        <v>958</v>
       </c>
       <c r="G599" t="n">
         <v>4</v>
@@ -21656,10 +21644,10 @@
         <v>599</v>
       </c>
       <c r="E600" t="s">
+        <v>1122</v>
+      </c>
+      <c r="F600" t="s">
         <v>1123</v>
-      </c>
-      <c r="F600" t="s">
-        <v>1124</v>
       </c>
       <c r="G600" t="n">
         <v>5</v>
@@ -21685,10 +21673,10 @@
         <v>600</v>
       </c>
       <c r="E601" t="s">
+        <v>1124</v>
+      </c>
+      <c r="F601" t="s">
         <v>1125</v>
-      </c>
-      <c r="F601" t="s">
-        <v>1126</v>
       </c>
       <c r="G601" t="n">
         <v>4</v>
@@ -21714,10 +21702,10 @@
         <v>601</v>
       </c>
       <c r="E602" t="s">
+        <v>902</v>
+      </c>
+      <c r="F602" t="s">
         <v>903</v>
-      </c>
-      <c r="F602" t="s">
-        <v>904</v>
       </c>
       <c r="G602" t="n">
         <v>5</v>
@@ -21743,10 +21731,10 @@
         <v>602</v>
       </c>
       <c r="E603" t="s">
+        <v>1126</v>
+      </c>
+      <c r="F603" t="s">
         <v>1127</v>
-      </c>
-      <c r="F603" t="s">
-        <v>1128</v>
       </c>
       <c r="G603" t="n">
         <v>1</v>
@@ -21772,10 +21760,10 @@
         <v>603</v>
       </c>
       <c r="E604" t="s">
+        <v>924</v>
+      </c>
+      <c r="F604" t="s">
         <v>925</v>
-      </c>
-      <c r="F604" t="s">
-        <v>926</v>
       </c>
       <c r="G604" t="n">
         <v>4</v>
@@ -21801,10 +21789,10 @@
         <v>604</v>
       </c>
       <c r="E605" t="s">
+        <v>1128</v>
+      </c>
+      <c r="F605" t="s">
         <v>1129</v>
-      </c>
-      <c r="F605" t="s">
-        <v>1130</v>
       </c>
       <c r="G605" t="n">
         <v>3</v>
@@ -21830,10 +21818,10 @@
         <v>605</v>
       </c>
       <c r="E606" t="s">
+        <v>1130</v>
+      </c>
+      <c r="F606" t="s">
         <v>1131</v>
-      </c>
-      <c r="F606" t="s">
-        <v>1132</v>
       </c>
       <c r="G606" t="n">
         <v>3</v>
@@ -21859,10 +21847,10 @@
         <v>606</v>
       </c>
       <c r="E607" t="s">
+        <v>860</v>
+      </c>
+      <c r="F607" t="s">
         <v>861</v>
-      </c>
-      <c r="F607" t="s">
-        <v>862</v>
       </c>
       <c r="G607" t="n">
         <v>4</v>
@@ -21888,10 +21876,10 @@
         <v>607</v>
       </c>
       <c r="E608" t="s">
+        <v>908</v>
+      </c>
+      <c r="F608" t="s">
         <v>909</v>
-      </c>
-      <c r="F608" t="s">
-        <v>910</v>
       </c>
       <c r="G608" t="n">
         <v>5</v>
@@ -21917,10 +21905,10 @@
         <v>608</v>
       </c>
       <c r="E609" t="s">
+        <v>1132</v>
+      </c>
+      <c r="F609" t="s">
         <v>1133</v>
-      </c>
-      <c r="F609" t="s">
-        <v>1134</v>
       </c>
       <c r="G609" t="n">
         <v>3</v>
@@ -21946,10 +21934,10 @@
         <v>609</v>
       </c>
       <c r="E610" t="s">
+        <v>890</v>
+      </c>
+      <c r="F610" t="s">
         <v>891</v>
-      </c>
-      <c r="F610" t="s">
-        <v>892</v>
       </c>
       <c r="G610" t="n">
         <v>3</v>
@@ -21975,10 +21963,10 @@
         <v>610</v>
       </c>
       <c r="E611" t="s">
+        <v>1134</v>
+      </c>
+      <c r="F611" t="s">
         <v>1135</v>
-      </c>
-      <c r="F611" t="s">
-        <v>1136</v>
       </c>
       <c r="G611" t="n">
         <v>2</v>
@@ -22004,10 +21992,10 @@
         <v>611</v>
       </c>
       <c r="E612" t="s">
+        <v>1136</v>
+      </c>
+      <c r="F612" t="s">
         <v>1137</v>
-      </c>
-      <c r="F612" t="s">
-        <v>1138</v>
       </c>
       <c r="G612" t="n">
         <v>1</v>
@@ -22033,10 +22021,10 @@
         <v>612</v>
       </c>
       <c r="E613" t="s">
+        <v>1138</v>
+      </c>
+      <c r="F613" t="s">
         <v>1139</v>
-      </c>
-      <c r="F613" t="s">
-        <v>1140</v>
       </c>
       <c r="G613" t="n">
         <v>3</v>
@@ -22062,10 +22050,10 @@
         <v>613</v>
       </c>
       <c r="E614" t="s">
+        <v>1140</v>
+      </c>
+      <c r="F614" t="s">
         <v>1141</v>
-      </c>
-      <c r="F614" t="s">
-        <v>1142</v>
       </c>
       <c r="G614" t="n">
         <v>3</v>
@@ -22091,10 +22079,10 @@
         <v>614</v>
       </c>
       <c r="E615" t="s">
+        <v>1142</v>
+      </c>
+      <c r="F615" t="s">
         <v>1143</v>
-      </c>
-      <c r="F615" t="s">
-        <v>1144</v>
       </c>
       <c r="G615" t="n">
         <v>1</v>
@@ -22120,10 +22108,10 @@
         <v>615</v>
       </c>
       <c r="E616" t="s">
+        <v>868</v>
+      </c>
+      <c r="F616" t="s">
         <v>869</v>
-      </c>
-      <c r="F616" t="s">
-        <v>870</v>
       </c>
       <c r="G616" t="n">
         <v>3</v>
@@ -22149,10 +22137,10 @@
         <v>616</v>
       </c>
       <c r="E617" t="s">
+        <v>1144</v>
+      </c>
+      <c r="F617" t="s">
         <v>1145</v>
-      </c>
-      <c r="F617" t="s">
-        <v>1146</v>
       </c>
       <c r="G617" t="n">
         <v>2</v>
@@ -22178,10 +22166,10 @@
         <v>617</v>
       </c>
       <c r="E618" t="s">
+        <v>870</v>
+      </c>
+      <c r="F618" t="s">
         <v>871</v>
-      </c>
-      <c r="F618" t="s">
-        <v>872</v>
       </c>
       <c r="G618" t="n">
         <v>6</v>
@@ -22207,10 +22195,10 @@
         <v>618</v>
       </c>
       <c r="E619" t="s">
+        <v>880</v>
+      </c>
+      <c r="F619" t="s">
         <v>881</v>
-      </c>
-      <c r="F619" t="s">
-        <v>882</v>
       </c>
       <c r="G619" t="n">
         <v>4</v>
@@ -22236,10 +22224,10 @@
         <v>619</v>
       </c>
       <c r="E620" t="s">
+        <v>1146</v>
+      </c>
+      <c r="F620" t="s">
         <v>1147</v>
-      </c>
-      <c r="F620" t="s">
-        <v>1148</v>
       </c>
       <c r="G620" t="n">
         <v>2</v>
@@ -22265,10 +22253,10 @@
         <v>620</v>
       </c>
       <c r="E621" t="s">
+        <v>1148</v>
+      </c>
+      <c r="F621" t="s">
         <v>1149</v>
-      </c>
-      <c r="F621" t="s">
-        <v>1150</v>
       </c>
       <c r="G621" t="n">
         <v>4</v>
@@ -22294,10 +22282,10 @@
         <v>621</v>
       </c>
       <c r="E622" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="F622" t="s">
-        <v>1152</v>
+        <v>907</v>
       </c>
       <c r="G622" t="n">
         <v>3</v>
@@ -22323,10 +22311,10 @@
         <v>622</v>
       </c>
       <c r="E623" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="F623" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="G623" t="n">
         <v>1</v>
@@ -22352,10 +22340,10 @@
         <v>623</v>
       </c>
       <c r="E624" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="F624" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="G624" t="n">
         <v>7</v>
@@ -22381,10 +22369,10 @@
         <v>624</v>
       </c>
       <c r="E625" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="F625" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="G625" t="n">
         <v>2</v>
@@ -22410,10 +22398,10 @@
         <v>625</v>
       </c>
       <c r="E626" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="F626" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="G626" t="n">
         <v>2</v>
@@ -22439,10 +22427,10 @@
         <v>626</v>
       </c>
       <c r="E627" t="s">
+        <v>844</v>
+      </c>
+      <c r="F627" t="s">
         <v>845</v>
-      </c>
-      <c r="F627" t="s">
-        <v>846</v>
       </c>
       <c r="G627" t="n">
         <v>4</v>
@@ -22468,10 +22456,10 @@
         <v>627</v>
       </c>
       <c r="E628" t="s">
+        <v>910</v>
+      </c>
+      <c r="F628" t="s">
         <v>911</v>
-      </c>
-      <c r="F628" t="s">
-        <v>912</v>
       </c>
       <c r="G628" t="n">
         <v>9</v>
@@ -22497,10 +22485,10 @@
         <v>628</v>
       </c>
       <c r="E629" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="F629" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="G629" t="n">
         <v>7</v>
@@ -22526,10 +22514,10 @@
         <v>629</v>
       </c>
       <c r="E630" t="s">
+        <v>840</v>
+      </c>
+      <c r="F630" t="s">
         <v>841</v>
-      </c>
-      <c r="F630" t="s">
-        <v>842</v>
       </c>
       <c r="G630" t="n">
         <v>7</v>
@@ -22584,10 +22572,10 @@
         <v>631</v>
       </c>
       <c r="E632" t="s">
+        <v>894</v>
+      </c>
+      <c r="F632" t="s">
         <v>895</v>
-      </c>
-      <c r="F632" t="s">
-        <v>896</v>
       </c>
       <c r="G632" t="n">
         <v>6</v>
@@ -22613,10 +22601,10 @@
         <v>632</v>
       </c>
       <c r="E633" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="F633" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="G633" t="n">
         <v>2</v>
@@ -22642,10 +22630,10 @@
         <v>633</v>
       </c>
       <c r="E634" t="s">
+        <v>850</v>
+      </c>
+      <c r="F634" t="s">
         <v>851</v>
-      </c>
-      <c r="F634" t="s">
-        <v>852</v>
       </c>
       <c r="G634" t="n">
         <v>4</v>
@@ -22671,10 +22659,10 @@
         <v>634</v>
       </c>
       <c r="E635" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="F635" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="G635" t="n">
         <v>2</v>
@@ -22700,10 +22688,10 @@
         <v>635</v>
       </c>
       <c r="E636" t="s">
+        <v>936</v>
+      </c>
+      <c r="F636" t="s">
         <v>937</v>
-      </c>
-      <c r="F636" t="s">
-        <v>938</v>
       </c>
       <c r="G636" t="n">
         <v>4</v>
@@ -22729,10 +22717,10 @@
         <v>636</v>
       </c>
       <c r="E637" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="F637" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="G637" t="n">
         <v>1</v>
@@ -22758,10 +22746,10 @@
         <v>637</v>
       </c>
       <c r="E638" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="F638" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="G638" t="n">
         <v>4</v>
@@ -22787,10 +22775,10 @@
         <v>638</v>
       </c>
       <c r="E639" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="F639" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="G639" t="n">
         <v>4</v>
@@ -22816,10 +22804,10 @@
         <v>639</v>
       </c>
       <c r="E640" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
       <c r="F640" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
       <c r="G640" t="n">
         <v>3</v>
@@ -22845,10 +22833,10 @@
         <v>640</v>
       </c>
       <c r="E641" t="s">
+        <v>858</v>
+      </c>
+      <c r="F641" t="s">
         <v>859</v>
-      </c>
-      <c r="F641" t="s">
-        <v>860</v>
       </c>
       <c r="G641" t="n">
         <v>6</v>
@@ -22874,10 +22862,10 @@
         <v>641</v>
       </c>
       <c r="E642" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
       <c r="F642" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="G642" t="n">
         <v>9</v>
@@ -22903,10 +22891,10 @@
         <v>642</v>
       </c>
       <c r="E643" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="F643" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="G643" t="n">
         <v>2</v>
@@ -22932,10 +22920,10 @@
         <v>643</v>
       </c>
       <c r="E644" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
       <c r="F644" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="G644" t="n">
         <v>1</v>
@@ -22961,10 +22949,10 @@
         <v>644</v>
       </c>
       <c r="E645" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="F645" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="G645" t="n">
         <v>3</v>
@@ -22990,10 +22978,10 @@
         <v>645</v>
       </c>
       <c r="E646" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="F646" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="G646" t="n">
         <v>5</v>
@@ -23019,10 +23007,10 @@
         <v>646</v>
       </c>
       <c r="E647" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="F647" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="G647" t="n">
         <v>3</v>
@@ -23048,10 +23036,10 @@
         <v>647</v>
       </c>
       <c r="E648" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="F648" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="G648" t="n">
         <v>4</v>
@@ -23077,10 +23065,10 @@
         <v>648</v>
       </c>
       <c r="E649" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
       <c r="F649" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="G649" t="n">
         <v>1</v>
@@ -23106,10 +23094,10 @@
         <v>649</v>
       </c>
       <c r="E650" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
       <c r="F650" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="G650" t="n">
         <v>2</v>
@@ -23135,10 +23123,10 @@
         <v>650</v>
       </c>
       <c r="E651" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="F651" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="G651" t="n">
         <v>4</v>
@@ -23164,10 +23152,10 @@
         <v>651</v>
       </c>
       <c r="E652" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="F652" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="G652" t="n">
         <v>1</v>
@@ -23193,10 +23181,10 @@
         <v>652</v>
       </c>
       <c r="E653" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="F653" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="G653" t="n">
         <v>2</v>
@@ -23222,10 +23210,10 @@
         <v>653</v>
       </c>
       <c r="E654" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="F654" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="G654" t="n">
         <v>2</v>
@@ -23251,10 +23239,10 @@
         <v>654</v>
       </c>
       <c r="E655" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="F655" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="G655" t="n">
         <v>1</v>
@@ -23280,10 +23268,10 @@
         <v>655</v>
       </c>
       <c r="E656" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="F656" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="G656" t="n">
         <v>3</v>
@@ -23309,10 +23297,10 @@
         <v>656</v>
       </c>
       <c r="E657" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="F657" t="s">
-        <v>1206</v>
+        <v>899</v>
       </c>
       <c r="G657" t="n">
         <v>3</v>
@@ -23338,10 +23326,10 @@
         <v>657</v>
       </c>
       <c r="E658" t="s">
-        <v>1207</v>
+        <v>1204</v>
       </c>
       <c r="F658" t="s">
-        <v>1208</v>
+        <v>1205</v>
       </c>
       <c r="G658" t="n">
         <v>1</v>
@@ -23367,10 +23355,10 @@
         <v>658</v>
       </c>
       <c r="E659" t="s">
-        <v>1209</v>
+        <v>1206</v>
       </c>
       <c r="F659" t="s">
-        <v>1210</v>
+        <v>1207</v>
       </c>
       <c r="G659" t="n">
         <v>1</v>
@@ -23396,10 +23384,10 @@
         <v>659</v>
       </c>
       <c r="E660" t="s">
+        <v>954</v>
+      </c>
+      <c r="F660" t="s">
         <v>955</v>
-      </c>
-      <c r="F660" t="s">
-        <v>956</v>
       </c>
       <c r="G660" t="n">
         <v>4</v>
@@ -23425,10 +23413,10 @@
         <v>660</v>
       </c>
       <c r="E661" t="s">
-        <v>1211</v>
+        <v>1208</v>
       </c>
       <c r="F661" t="s">
-        <v>1212</v>
+        <v>1209</v>
       </c>
       <c r="G661" t="n">
         <v>1</v>
@@ -23454,10 +23442,10 @@
         <v>661</v>
       </c>
       <c r="E662" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
       <c r="F662" t="s">
-        <v>1214</v>
+        <v>1211</v>
       </c>
       <c r="G662" t="n">
         <v>1</v>
@@ -23483,10 +23471,10 @@
         <v>662</v>
       </c>
       <c r="E663" t="s">
-        <v>1215</v>
+        <v>1212</v>
       </c>
       <c r="F663" t="s">
-        <v>1216</v>
+        <v>1213</v>
       </c>
       <c r="G663" t="n">
         <v>1</v>
@@ -23512,10 +23500,10 @@
         <v>663</v>
       </c>
       <c r="E664" t="s">
-        <v>1217</v>
+        <v>1214</v>
       </c>
       <c r="F664" t="s">
-        <v>1218</v>
+        <v>1215</v>
       </c>
       <c r="G664" t="n">
         <v>1</v>
@@ -23541,10 +23529,10 @@
         <v>664</v>
       </c>
       <c r="E665" t="s">
-        <v>1219</v>
+        <v>1216</v>
       </c>
       <c r="F665" t="s">
-        <v>1220</v>
+        <v>1217</v>
       </c>
       <c r="G665" t="n">
         <v>1</v>
@@ -23570,10 +23558,10 @@
         <v>665</v>
       </c>
       <c r="E666" t="s">
-        <v>1221</v>
+        <v>1218</v>
       </c>
       <c r="F666" t="s">
-        <v>1222</v>
+        <v>1219</v>
       </c>
       <c r="G666" t="n">
         <v>1</v>
@@ -23599,10 +23587,10 @@
         <v>666</v>
       </c>
       <c r="E667" t="s">
-        <v>1223</v>
+        <v>1220</v>
       </c>
       <c r="F667" t="s">
-        <v>1224</v>
+        <v>1221</v>
       </c>
       <c r="G667" t="n">
         <v>1</v>
@@ -23628,10 +23616,10 @@
         <v>667</v>
       </c>
       <c r="E668" t="s">
-        <v>1225</v>
+        <v>1222</v>
       </c>
       <c r="F668" t="s">
-        <v>1226</v>
+        <v>1223</v>
       </c>
       <c r="G668" t="n">
         <v>1</v>
@@ -23657,10 +23645,10 @@
         <v>668</v>
       </c>
       <c r="E669" t="s">
-        <v>1227</v>
+        <v>1224</v>
       </c>
       <c r="F669" t="s">
-        <v>1228</v>
+        <v>1225</v>
       </c>
       <c r="G669" t="n">
         <v>1</v>
@@ -23715,10 +23703,10 @@
         <v>670</v>
       </c>
       <c r="E671" t="s">
-        <v>1229</v>
+        <v>1226</v>
       </c>
       <c r="F671" t="s">
-        <v>1230</v>
+        <v>1227</v>
       </c>
       <c r="G671" t="n">
         <v>2</v>
@@ -23744,10 +23732,10 @@
         <v>671</v>
       </c>
       <c r="E672" t="s">
-        <v>1231</v>
+        <v>1228</v>
       </c>
       <c r="F672" t="s">
-        <v>1232</v>
+        <v>1229</v>
       </c>
       <c r="G672" t="n">
         <v>1</v>
@@ -23773,10 +23761,10 @@
         <v>672</v>
       </c>
       <c r="E673" t="s">
-        <v>1233</v>
+        <v>1230</v>
       </c>
       <c r="F673" t="s">
-        <v>1234</v>
+        <v>1231</v>
       </c>
       <c r="G673" t="n">
         <v>1</v>
@@ -23831,10 +23819,10 @@
         <v>674</v>
       </c>
       <c r="E675" t="s">
-        <v>1235</v>
+        <v>1232</v>
       </c>
       <c r="F675" t="s">
-        <v>1236</v>
+        <v>1233</v>
       </c>
       <c r="G675" t="n">
         <v>2</v>
@@ -23860,10 +23848,10 @@
         <v>675</v>
       </c>
       <c r="E676" t="s">
-        <v>1237</v>
+        <v>1234</v>
       </c>
       <c r="F676" t="s">
-        <v>1238</v>
+        <v>1235</v>
       </c>
       <c r="G676" t="n">
         <v>2</v>
@@ -23889,10 +23877,10 @@
         <v>676</v>
       </c>
       <c r="E677" t="s">
-        <v>1239</v>
+        <v>1236</v>
       </c>
       <c r="F677" t="s">
-        <v>1240</v>
+        <v>1237</v>
       </c>
       <c r="G677" t="n">
         <v>1</v>
@@ -23918,10 +23906,10 @@
         <v>677</v>
       </c>
       <c r="E678" t="s">
-        <v>1241</v>
+        <v>1238</v>
       </c>
       <c r="F678" t="s">
-        <v>1242</v>
+        <v>1239</v>
       </c>
       <c r="G678" t="n">
         <v>1</v>
@@ -23947,10 +23935,10 @@
         <v>678</v>
       </c>
       <c r="E679" t="s">
-        <v>1243</v>
+        <v>1240</v>
       </c>
       <c r="F679" t="s">
-        <v>1244</v>
+        <v>1241</v>
       </c>
       <c r="G679" t="n">
         <v>1</v>
@@ -23976,10 +23964,10 @@
         <v>679</v>
       </c>
       <c r="E680" t="s">
-        <v>1245</v>
+        <v>1242</v>
       </c>
       <c r="F680" t="s">
-        <v>1246</v>
+        <v>1243</v>
       </c>
       <c r="G680" t="n">
         <v>1</v>
@@ -24005,10 +23993,10 @@
         <v>680</v>
       </c>
       <c r="E681" t="s">
-        <v>1247</v>
+        <v>1244</v>
       </c>
       <c r="F681" t="s">
-        <v>1248</v>
+        <v>1245</v>
       </c>
       <c r="G681" t="n">
         <v>1</v>
@@ -24034,10 +24022,10 @@
         <v>681</v>
       </c>
       <c r="E682" t="s">
-        <v>1249</v>
+        <v>1246</v>
       </c>
       <c r="F682" t="s">
-        <v>1250</v>
+        <v>1247</v>
       </c>
       <c r="G682" t="n">
         <v>1</v>
@@ -24063,10 +24051,10 @@
         <v>682</v>
       </c>
       <c r="E683" t="s">
-        <v>1251</v>
+        <v>1248</v>
       </c>
       <c r="F683" t="s">
-        <v>1252</v>
+        <v>1249</v>
       </c>
       <c r="G683" t="n">
         <v>1</v>
@@ -24092,10 +24080,10 @@
         <v>683</v>
       </c>
       <c r="E684" t="s">
+        <v>914</v>
+      </c>
+      <c r="F684" t="s">
         <v>915</v>
-      </c>
-      <c r="F684" t="s">
-        <v>916</v>
       </c>
       <c r="G684" t="n">
         <v>4</v>
@@ -24121,10 +24109,10 @@
         <v>684</v>
       </c>
       <c r="E685" t="s">
-        <v>1253</v>
+        <v>1250</v>
       </c>
       <c r="F685" t="s">
-        <v>1254</v>
+        <v>1251</v>
       </c>
       <c r="G685" t="n">
         <v>2</v>
@@ -24150,10 +24138,10 @@
         <v>685</v>
       </c>
       <c r="E686" t="s">
-        <v>1255</v>
+        <v>1252</v>
       </c>
       <c r="F686" t="s">
-        <v>1256</v>
+        <v>1253</v>
       </c>
       <c r="G686" t="n">
         <v>1</v>
@@ -24179,10 +24167,10 @@
         <v>686</v>
       </c>
       <c r="E687" t="s">
-        <v>1257</v>
+        <v>1254</v>
       </c>
       <c r="F687" t="s">
-        <v>1258</v>
+        <v>1255</v>
       </c>
       <c r="G687" t="n">
         <v>1</v>
@@ -24208,10 +24196,10 @@
         <v>687</v>
       </c>
       <c r="E688" t="s">
-        <v>1259</v>
+        <v>1256</v>
       </c>
       <c r="F688" t="s">
-        <v>1260</v>
+        <v>1257</v>
       </c>
       <c r="G688" t="n">
         <v>1</v>
@@ -24237,10 +24225,10 @@
         <v>688</v>
       </c>
       <c r="E689" t="s">
-        <v>1261</v>
+        <v>1258</v>
       </c>
       <c r="F689" t="s">
-        <v>1262</v>
+        <v>1259</v>
       </c>
       <c r="G689" t="n">
         <v>2</v>
@@ -24266,10 +24254,10 @@
         <v>689</v>
       </c>
       <c r="E690" t="s">
-        <v>1263</v>
+        <v>1260</v>
       </c>
       <c r="F690" t="s">
-        <v>1264</v>
+        <v>1261</v>
       </c>
       <c r="G690" t="n">
         <v>1</v>
@@ -24295,10 +24283,10 @@
         <v>690</v>
       </c>
       <c r="E691" t="s">
-        <v>1265</v>
+        <v>1262</v>
       </c>
       <c r="F691" t="s">
-        <v>1266</v>
+        <v>1263</v>
       </c>
       <c r="G691" t="n">
         <v>1</v>
@@ -24324,10 +24312,10 @@
         <v>691</v>
       </c>
       <c r="E692" t="s">
-        <v>1267</v>
+        <v>1264</v>
       </c>
       <c r="F692" t="s">
-        <v>1268</v>
+        <v>1265</v>
       </c>
       <c r="G692" t="n">
         <v>1</v>
@@ -24353,10 +24341,10 @@
         <v>692</v>
       </c>
       <c r="E693" t="s">
-        <v>1269</v>
+        <v>1266</v>
       </c>
       <c r="F693" t="s">
-        <v>1270</v>
+        <v>1267</v>
       </c>
       <c r="G693" t="n">
         <v>1</v>
@@ -24382,10 +24370,10 @@
         <v>693</v>
       </c>
       <c r="E694" t="s">
-        <v>1271</v>
+        <v>1268</v>
       </c>
       <c r="F694" t="s">
-        <v>1272</v>
+        <v>1269</v>
       </c>
       <c r="G694" t="n">
         <v>1</v>
@@ -24411,10 +24399,10 @@
         <v>694</v>
       </c>
       <c r="E695" t="s">
-        <v>1273</v>
+        <v>1270</v>
       </c>
       <c r="F695" t="s">
-        <v>1274</v>
+        <v>1271</v>
       </c>
       <c r="G695" t="n">
         <v>5</v>
@@ -24440,10 +24428,10 @@
         <v>695</v>
       </c>
       <c r="E696" t="s">
-        <v>1275</v>
+        <v>1272</v>
       </c>
       <c r="F696" t="s">
-        <v>1276</v>
+        <v>933</v>
       </c>
       <c r="G696" t="n">
         <v>1</v>
@@ -24469,10 +24457,10 @@
         <v>696</v>
       </c>
       <c r="E697" t="s">
-        <v>1277</v>
+        <v>1273</v>
       </c>
       <c r="F697" t="s">
-        <v>1278</v>
+        <v>1274</v>
       </c>
       <c r="G697" t="n">
         <v>1</v>
@@ -24498,10 +24486,10 @@
         <v>697</v>
       </c>
       <c r="E698" t="s">
+        <v>938</v>
+      </c>
+      <c r="F698" t="s">
         <v>939</v>
-      </c>
-      <c r="F698" t="s">
-        <v>940</v>
       </c>
       <c r="G698" t="n">
         <v>2</v>
@@ -24527,10 +24515,10 @@
         <v>698</v>
       </c>
       <c r="E699" t="s">
-        <v>1279</v>
+        <v>1275</v>
       </c>
       <c r="F699" t="s">
-        <v>1280</v>
+        <v>1276</v>
       </c>
       <c r="G699" t="n">
         <v>2</v>
@@ -24556,10 +24544,10 @@
         <v>699</v>
       </c>
       <c r="E700" t="s">
-        <v>1281</v>
+        <v>1277</v>
       </c>
       <c r="F700" t="s">
-        <v>1282</v>
+        <v>1278</v>
       </c>
       <c r="G700" t="n">
         <v>1</v>
@@ -24585,10 +24573,10 @@
         <v>700</v>
       </c>
       <c r="E701" t="s">
-        <v>1283</v>
+        <v>1279</v>
       </c>
       <c r="F701" t="s">
-        <v>1284</v>
+        <v>1280</v>
       </c>
       <c r="G701" t="n">
         <v>1</v>
@@ -24614,10 +24602,10 @@
         <v>701</v>
       </c>
       <c r="E702" t="s">
-        <v>1285</v>
+        <v>1281</v>
       </c>
       <c r="F702" t="s">
-        <v>1286</v>
+        <v>1282</v>
       </c>
       <c r="G702" t="n">
         <v>3</v>
@@ -24643,10 +24631,10 @@
         <v>702</v>
       </c>
       <c r="E703" t="s">
-        <v>1287</v>
+        <v>1283</v>
       </c>
       <c r="F703" t="s">
-        <v>1288</v>
+        <v>1284</v>
       </c>
       <c r="G703" t="n">
         <v>1</v>
@@ -24672,10 +24660,10 @@
         <v>703</v>
       </c>
       <c r="E704" t="s">
-        <v>1289</v>
+        <v>1285</v>
       </c>
       <c r="F704" t="s">
-        <v>1290</v>
+        <v>1286</v>
       </c>
       <c r="G704" t="n">
         <v>1</v>
@@ -24701,10 +24689,10 @@
         <v>704</v>
       </c>
       <c r="E705" t="s">
-        <v>1291</v>
+        <v>1287</v>
       </c>
       <c r="F705" t="s">
-        <v>1292</v>
+        <v>1288</v>
       </c>
       <c r="G705" t="n">
         <v>1</v>
@@ -24730,10 +24718,10 @@
         <v>705</v>
       </c>
       <c r="E706" t="s">
-        <v>1293</v>
+        <v>1289</v>
       </c>
       <c r="F706" t="s">
-        <v>1294</v>
+        <v>1290</v>
       </c>
       <c r="G706" t="n">
         <v>1</v>
@@ -24759,10 +24747,10 @@
         <v>706</v>
       </c>
       <c r="E707" t="s">
-        <v>1295</v>
+        <v>1291</v>
       </c>
       <c r="F707" t="s">
-        <v>1296</v>
+        <v>1292</v>
       </c>
       <c r="G707" t="n">
         <v>1</v>
@@ -24788,10 +24776,10 @@
         <v>707</v>
       </c>
       <c r="E708" t="s">
-        <v>1297</v>
+        <v>1293</v>
       </c>
       <c r="F708" t="s">
-        <v>1298</v>
+        <v>1294</v>
       </c>
       <c r="G708" t="n">
         <v>1</v>
@@ -24817,10 +24805,10 @@
         <v>708</v>
       </c>
       <c r="E709" t="s">
-        <v>1299</v>
+        <v>1295</v>
       </c>
       <c r="F709" t="s">
-        <v>1300</v>
+        <v>1296</v>
       </c>
       <c r="G709" t="n">
         <v>1</v>

--- a/xlsx/哥伦比亚大学_intext.xlsx
+++ b/xlsx/哥伦比亚大学_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1203">
   <si>
     <t>哥伦比亚大学</t>
   </si>
@@ -29,7 +29,7 @@
     <t>校训</t>
   </si>
   <si>
-    <t>政策_政策_政治學_哥伦比亚大学</t>
+    <t>体育运动_体育运动_美式足球_哥伦比亚大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E4%B8%81%E8%AF%AD</t>
@@ -446,12 +446,6 @@
     <t>英国圣公会差会 (1701年建立)</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E5%9C%8B%E6%95%99%E6%9C%83</t>
-  </si>
-  <si>
-    <t>英國國教會</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E5%BE%B7%E9%81%9C%E6%B2%B3</t>
   </si>
   <si>
@@ -1922,6 +1916,12 @@
     <t>施乐</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8A%B1%E6%97%97%E9%93%B6%E8%A1%8C</t>
+  </si>
+  <si>
+    <t>花旗银行</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/IBM</t>
   </si>
   <si>
@@ -2096,6 +2096,12 @@
     <t>艾德·哈里斯</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%90%B3%E4%BB%B0%E6%9B%BE</t>
+  </si>
+  <si>
+    <t>吳仰曾</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%94%90%E7%BB%8D%E4%BB%AA</t>
   </si>
   <si>
@@ -2138,118 +2144,34 @@
     <t>谭盾</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%90%B3%E4%BB%B0%E6%9B%BE</t>
-  </si>
-  <si>
-    <t>吳仰曾</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B1%B1%E6%9D%B1%E5%B7%A1%E6%92%AB</t>
-  </si>
-  <si>
-    <t>山東巡撫</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%9B%B4%E9%9A%B8%E7%B8%BD%E7%9D%A3</t>
-  </si>
-  <si>
-    <t>直隸總督</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E6%B4%8B%E9%80%9A%E5%95%86%E5%A4%A7%E8%87%A3</t>
-  </si>
-  <si>
-    <t>北洋通商大臣</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A5%89%E5%A4%A9%E5%B7%A1%E6%8A%9A</t>
-  </si>
-  <si>
-    <t>奉天巡抚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B%E5%9C%8B%E5%8B%99%E7%B8%BD%E7%90%86</t>
-  </si>
-  <si>
-    <t>中華民國國務總理</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B1%B1%E4%B8%9C%E5%A4%A7%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>山东大学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%E9%A9%BB%E7%BE%8E%E5%9B%BD%E5%A4%A7%E4%BD%BF%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>中国驻美国大使列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%83%AD%E7%A7%89%E6%96%87</t>
-  </si>
-  <si>
-    <t>郭秉文</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E7%AB%8B%E4%B8%9C%E5%8D%97%E5%A4%A7%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>国立东南大学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%99%B6%E8%A1%8C%E7%9F%A5</t>
-  </si>
-  <si>
-    <t>陶行知</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E6%96%87%E5%8C%96%E8%BF%90%E5%8A%A8</t>
-  </si>
-  <si>
-    <t>新文化运动</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E4%BA%AC%E5%A4%A7%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>北京大学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E7%A0%94%E7%A9%B6%E9%99%A2</t>
-  </si>
-  <si>
-    <t>中央研究院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E6%B0%91%E6%94%BF%E5%BA%9C%E8%B2%A1%E6%94%BF%E9%83%A8</t>
-  </si>
-  <si>
-    <t>國民政府財政部</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E6%94%BF%E9%99%A2%E9%95%BF</t>
-  </si>
-  <si>
-    <t>行政院长</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%E9%93%B6%E8%A1%8C</t>
-  </si>
-  <si>
-    <t>中国银行</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BB%A3%E6%9D%B1%E7%9C%81%E6%94%BF%E5%BA%9C</t>
-  </si>
-  <si>
-    <t>廣東省政府</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E5%9C%8B%E6%B0%91%E9%BB%A8%E4%B8%AD%E5%A4%AE%E5%9F%B7%E8%A1%8C%E5%A7%94%E5%93%A1%E6%9C%83</t>
-  </si>
-  <si>
-    <t>中國國民黨中央執行委員會</t>
+    <t>https://zh.wikipedia.org/wiki/%E6%9C%B1%E5%88%A9%E4%BA%9A%E8%AF%BA%C2%B7%E9%98%BF%E9%A9%AC%E6%89%98</t>
+  </si>
+  <si>
+    <t>朱利亚诺·阿马托</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%93%88%E8%8F%B2%E4%BD%90%E6%8B%89%C2%B7%E9%98%BF%E6%98%8E</t>
+  </si>
+  <si>
+    <t>哈菲佐拉·阿明</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B4%B9%E5%B0%94%E5%8D%97%E5%A4%9A%C2%B7%E6%81%A9%E9%87%8C%E5%85%8B%C2%B7%E5%8D%A1%E5%A4%9A%E4%BD%90</t>
+  </si>
+  <si>
+    <t>费尔南多·恩里克·卡多佐</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9D%8E%E7%85%A5</t>
+  </si>
+  <si>
+    <t>李煥</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%91%A8%E8%87%AA%E9%BD%8A</t>
+  </si>
+  <si>
+    <t>周自齊</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%99%E7%A7%91</t>
@@ -2258,198 +2180,12 @@
     <t>孙科</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AD%99%E6%96%87</t>
-  </si>
-  <si>
-    <t>孙文</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BC%A0%E4%BC%AF%E8%8B%93</t>
-  </si>
-  <si>
-    <t>张伯苓</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BB%BB%E9%B8%BF%E9%9A%BD</t>
-  </si>
-  <si>
-    <t>任鸿隽</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%92%8B%E6%A2%A6%E9%BA%9F</t>
-  </si>
-  <si>
-    <t>蒋梦麟</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BC%A0%E5%BF%97%E8%AE%A9</t>
-  </si>
-  <si>
-    <t>张志让</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BE%90%E5%BF%97%E6%91%A9</t>
-  </si>
-  <si>
-    <t>徐志摩</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%87%91%E5%B2%B3%E9%9C%96</t>
-  </si>
-  <si>
-    <t>金岳霖</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A2%81%E5%90%8C%E7%A4%BC</t>
-  </si>
-  <si>
-    <t>袁同礼</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%91%A3%E6%B3%BD</t>
-  </si>
-  <si>
-    <t>董泽</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%92%8B%E5%BB%B7%E9%BB%BB</t>
-  </si>
-  <si>
-    <t>蒋廷黻</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%AE%B8%E5%9C%B0%E5%B1%B1</t>
-  </si>
-  <si>
-    <t>许地山</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%99%88%E5%85%AC%E5%8D%9A</t>
   </si>
   <si>
     <t>陈公博</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%85%B1%E4%B8%80%E5%A4%A7</t>
-  </si>
-  <si>
-    <t>中共一大</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A2%81%E5%AE%9E%E7%A7%8B</t>
-  </si>
-  <si>
-    <t>梁实秋</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%BD%98%E5%85%89%E6%97%A6</t>
-  </si>
-  <si>
-    <t>潘光旦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%90%B4%E6%96%87%E8%97%BB</t>
-  </si>
-  <si>
-    <t>吴文藻</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%90%B4%E5%81%A5%E9%9B%84</t>
-  </si>
-  <si>
-    <t>吴健雄</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%90%B4%E5%A4%A7%E7%8C%B7</t>
-  </si>
-  <si>
-    <t>吴大猷</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%94%90%E6%95%96%E5%BA%86</t>
-  </si>
-  <si>
-    <t>唐敖庆</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9D%A8%E6%8C%AF%E5%AE%81</t>
-  </si>
-  <si>
-    <t>杨振宁</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%94%90%E5%BE%B7%E5%88%9A</t>
-  </si>
-  <si>
-    <t>唐德刚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9F%A6%E6%85%95%E5%BA%AD</t>
-  </si>
-  <si>
-    <t>韦慕庭</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9D%8E%E5%B0%8F%E5%8A%A0</t>
-  </si>
-  <si>
-    <t>李小加</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9D%A8%E6%BE%9C</t>
-  </si>
-  <si>
-    <t>杨澜</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%88%98%E7%91%9C_(%E5%BD%93%E4%BB%A3%E4%BD%9C%E5%AE%B6)</t>
-  </si>
-  <si>
-    <t>刘瑜 (当代作家)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%99%88%E7%A0%B4%E7%A9%BA</t>
-  </si>
-  <si>
-    <t>陈破空</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD%E6%8C%81%E4%B8%8D%E5%90%8C%E6%94%BF%E8%A7%81%E8%80%85</t>
-  </si>
-  <si>
-    <t>中华人民共和国持不同政见者</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9C%B1%E5%88%A9%E4%BA%9A%E8%AF%BA%C2%B7%E9%98%BF%E9%A9%AC%E6%89%98</t>
-  </si>
-  <si>
-    <t>朱利亚诺·阿马托</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%93%88%E8%8F%B2%E4%BD%90%E6%8B%89%C2%B7%E9%98%BF%E6%98%8E</t>
-  </si>
-  <si>
-    <t>哈菲佐拉·阿明</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B4%B9%E5%B0%94%E5%8D%97%E5%A4%9A%C2%B7%E6%81%A9%E9%87%8C%E5%85%8B%C2%B7%E5%8D%A1%E5%A4%9A%E4%BD%90</t>
-  </si>
-  <si>
-    <t>费尔南多·恩里克·卡多佐</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9D%8E%E7%85%A5</t>
-  </si>
-  <si>
-    <t>李煥</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%91%A8%E8%87%AA%E9%BD%8A</t>
-  </si>
-  <si>
-    <t>周自齊</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/Wayback_Machine</t>
   </si>
   <si>
@@ -2472,36 +2208,6 @@
   </si>
   <si>
     <t>The New York Times</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%E7%A4%BE%E4%BC%9A%E7%A7%91%E5%AD%A6%E9%99%A2</t>
-  </si>
-  <si>
-    <t>中国社会科学院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%9B%B8%E5%B1%80</t>
-  </si>
-  <si>
-    <t>中華書局</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%8A%E6%B5%B7%E8%BE%AD%E6%9B%B8%E5%87%BA%E7%89%88%E7%A4%BE</t>
-  </si>
-  <si>
-    <t>上海辭書出版社</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/The_Chinese_University_Press</t>
-  </si>
-  <si>
-    <t>The Chinese University Press</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/Cambridge_University_Press</t>
-  </si>
-  <si>
-    <t>Cambridge University Press</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:Ivy_League</t>
@@ -4266,7 +3972,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I709"/>
+  <dimension ref="A1:I660"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5509,7 +5215,7 @@
         <v>86</v>
       </c>
       <c r="G43" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H43" t="s">
         <v>4</v>
@@ -5596,7 +5302,7 @@
         <v>92</v>
       </c>
       <c r="G46" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H46" t="s">
         <v>4</v>
@@ -5799,7 +5505,7 @@
         <v>106</v>
       </c>
       <c r="G53" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H53" t="s">
         <v>4</v>
@@ -6321,7 +6027,7 @@
         <v>140</v>
       </c>
       <c r="G71" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H71" t="s">
         <v>4</v>
@@ -6437,7 +6143,7 @@
         <v>148</v>
       </c>
       <c r="G75" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H75" t="s">
         <v>4</v>
@@ -6466,7 +6172,7 @@
         <v>150</v>
       </c>
       <c r="G76" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H76" t="s">
         <v>4</v>
@@ -6495,7 +6201,7 @@
         <v>152</v>
       </c>
       <c r="G77" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="H77" t="s">
         <v>4</v>
@@ -6524,7 +6230,7 @@
         <v>154</v>
       </c>
       <c r="G78" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="H78" t="s">
         <v>4</v>
@@ -6611,7 +6317,7 @@
         <v>160</v>
       </c>
       <c r="G81" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H81" t="s">
         <v>4</v>
@@ -6669,7 +6375,7 @@
         <v>164</v>
       </c>
       <c r="G83" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H83" t="s">
         <v>4</v>
@@ -6698,7 +6404,7 @@
         <v>166</v>
       </c>
       <c r="G84" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H84" t="s">
         <v>4</v>
@@ -6727,7 +6433,7 @@
         <v>168</v>
       </c>
       <c r="G85" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H85" t="s">
         <v>4</v>
@@ -6756,7 +6462,7 @@
         <v>170</v>
       </c>
       <c r="G86" t="n">
-        <v>2</v>
+        <v>214</v>
       </c>
       <c r="H86" t="s">
         <v>4</v>
@@ -6785,7 +6491,7 @@
         <v>172</v>
       </c>
       <c r="G87" t="n">
-        <v>250</v>
+        <v>3</v>
       </c>
       <c r="H87" t="s">
         <v>4</v>
@@ -6814,7 +6520,7 @@
         <v>174</v>
       </c>
       <c r="G88" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H88" t="s">
         <v>4</v>
@@ -6872,7 +6578,7 @@
         <v>178</v>
       </c>
       <c r="G90" t="n">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="H90" t="s">
         <v>4</v>
@@ -6901,7 +6607,7 @@
         <v>180</v>
       </c>
       <c r="G91" t="n">
-        <v>81</v>
+        <v>3</v>
       </c>
       <c r="H91" t="s">
         <v>4</v>
@@ -6930,7 +6636,7 @@
         <v>182</v>
       </c>
       <c r="G92" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H92" t="s">
         <v>4</v>
@@ -6982,10 +6688,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>185</v>
+        <v>167</v>
       </c>
       <c r="F94" t="s">
-        <v>186</v>
+        <v>168</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -7011,13 +6717,13 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="F95" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="G95" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H95" t="s">
         <v>4</v>
@@ -7046,7 +6752,7 @@
         <v>188</v>
       </c>
       <c r="G96" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H96" t="s">
         <v>4</v>
@@ -7075,7 +6781,7 @@
         <v>190</v>
       </c>
       <c r="G97" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H97" t="s">
         <v>4</v>
@@ -7104,7 +6810,7 @@
         <v>192</v>
       </c>
       <c r="G98" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H98" t="s">
         <v>4</v>
@@ -7191,7 +6897,7 @@
         <v>198</v>
       </c>
       <c r="G101" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H101" t="s">
         <v>4</v>
@@ -7220,7 +6926,7 @@
         <v>200</v>
       </c>
       <c r="G102" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H102" t="s">
         <v>4</v>
@@ -7301,10 +7007,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>205</v>
+        <v>89</v>
       </c>
       <c r="F105" t="s">
-        <v>206</v>
+        <v>90</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -7330,10 +7036,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>89</v>
+        <v>205</v>
       </c>
       <c r="F106" t="s">
-        <v>90</v>
+        <v>206</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -7423,7 +7129,7 @@
         <v>212</v>
       </c>
       <c r="G109" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H109" t="s">
         <v>4</v>
@@ -7452,7 +7158,7 @@
         <v>214</v>
       </c>
       <c r="G110" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H110" t="s">
         <v>4</v>
@@ -7481,7 +7187,7 @@
         <v>216</v>
       </c>
       <c r="G111" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H111" t="s">
         <v>4</v>
@@ -7510,7 +7216,7 @@
         <v>218</v>
       </c>
       <c r="G112" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H112" t="s">
         <v>4</v>
@@ -7539,7 +7245,7 @@
         <v>220</v>
       </c>
       <c r="G113" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H113" t="s">
         <v>4</v>
@@ -7597,7 +7303,7 @@
         <v>224</v>
       </c>
       <c r="G115" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H115" t="s">
         <v>4</v>
@@ -7626,7 +7332,7 @@
         <v>226</v>
       </c>
       <c r="G116" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H116" t="s">
         <v>4</v>
@@ -7655,7 +7361,7 @@
         <v>228</v>
       </c>
       <c r="G117" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H117" t="s">
         <v>4</v>
@@ -7800,7 +7506,7 @@
         <v>238</v>
       </c>
       <c r="G122" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="H122" t="s">
         <v>4</v>
@@ -7829,7 +7535,7 @@
         <v>240</v>
       </c>
       <c r="G123" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="H123" t="s">
         <v>4</v>
@@ -7858,7 +7564,7 @@
         <v>242</v>
       </c>
       <c r="G124" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H124" t="s">
         <v>4</v>
@@ -8003,7 +7709,7 @@
         <v>252</v>
       </c>
       <c r="G129" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H129" t="s">
         <v>4</v>
@@ -8032,7 +7738,7 @@
         <v>254</v>
       </c>
       <c r="G130" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H130" t="s">
         <v>4</v>
@@ -8090,7 +7796,7 @@
         <v>258</v>
       </c>
       <c r="G132" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H132" t="s">
         <v>4</v>
@@ -8148,7 +7854,7 @@
         <v>262</v>
       </c>
       <c r="G134" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H134" t="s">
         <v>4</v>
@@ -8177,7 +7883,7 @@
         <v>264</v>
       </c>
       <c r="G135" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H135" t="s">
         <v>4</v>
@@ -8264,7 +7970,7 @@
         <v>270</v>
       </c>
       <c r="G138" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H138" t="s">
         <v>4</v>
@@ -8322,7 +8028,7 @@
         <v>274</v>
       </c>
       <c r="G140" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H140" t="s">
         <v>4</v>
@@ -8345,13 +8051,13 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>275</v>
+        <v>93</v>
       </c>
       <c r="F141" t="s">
-        <v>276</v>
+        <v>94</v>
       </c>
       <c r="G141" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H141" t="s">
         <v>4</v>
@@ -8374,10 +8080,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>93</v>
+        <v>275</v>
       </c>
       <c r="F142" t="s">
-        <v>94</v>
+        <v>276</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -8409,7 +8115,7 @@
         <v>278</v>
       </c>
       <c r="G143" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H143" t="s">
         <v>4</v>
@@ -8438,7 +8144,7 @@
         <v>280</v>
       </c>
       <c r="G144" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H144" t="s">
         <v>4</v>
@@ -8467,7 +8173,7 @@
         <v>282</v>
       </c>
       <c r="G145" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H145" t="s">
         <v>4</v>
@@ -8583,7 +8289,7 @@
         <v>290</v>
       </c>
       <c r="G149" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H149" t="s">
         <v>4</v>
@@ -8612,7 +8318,7 @@
         <v>292</v>
       </c>
       <c r="G150" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H150" t="s">
         <v>4</v>
@@ -8641,7 +8347,7 @@
         <v>294</v>
       </c>
       <c r="G151" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H151" t="s">
         <v>4</v>
@@ -8670,7 +8376,7 @@
         <v>296</v>
       </c>
       <c r="G152" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H152" t="s">
         <v>4</v>
@@ -8699,7 +8405,7 @@
         <v>298</v>
       </c>
       <c r="G153" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H153" t="s">
         <v>4</v>
@@ -8786,7 +8492,7 @@
         <v>304</v>
       </c>
       <c r="G156" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="H156" t="s">
         <v>4</v>
@@ -8815,7 +8521,7 @@
         <v>306</v>
       </c>
       <c r="G157" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="H157" t="s">
         <v>4</v>
@@ -8873,7 +8579,7 @@
         <v>310</v>
       </c>
       <c r="G159" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H159" t="s">
         <v>4</v>
@@ -8902,7 +8608,7 @@
         <v>312</v>
       </c>
       <c r="G160" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H160" t="s">
         <v>4</v>
@@ -8931,7 +8637,7 @@
         <v>314</v>
       </c>
       <c r="G161" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H161" t="s">
         <v>4</v>
@@ -8960,7 +8666,7 @@
         <v>316</v>
       </c>
       <c r="G162" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H162" t="s">
         <v>4</v>
@@ -8983,13 +8689,13 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>317</v>
+        <v>289</v>
       </c>
       <c r="F163" t="s">
-        <v>318</v>
+        <v>290</v>
       </c>
       <c r="G163" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="H163" t="s">
         <v>4</v>
@@ -9012,13 +8718,13 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>291</v>
+        <v>317</v>
       </c>
       <c r="F164" t="s">
-        <v>292</v>
+        <v>318</v>
       </c>
       <c r="G164" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H164" t="s">
         <v>4</v>
@@ -9041,13 +8747,13 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>319</v>
+        <v>87</v>
       </c>
       <c r="F165" t="s">
-        <v>320</v>
+        <v>88</v>
       </c>
       <c r="G165" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H165" t="s">
         <v>4</v>
@@ -9070,13 +8776,13 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>87</v>
+        <v>319</v>
       </c>
       <c r="F166" t="s">
-        <v>88</v>
+        <v>320</v>
       </c>
       <c r="G166" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H166" t="s">
         <v>4</v>
@@ -9105,7 +8811,7 @@
         <v>322</v>
       </c>
       <c r="G167" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H167" t="s">
         <v>4</v>
@@ -9134,7 +8840,7 @@
         <v>324</v>
       </c>
       <c r="G168" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H168" t="s">
         <v>4</v>
@@ -9163,7 +8869,7 @@
         <v>326</v>
       </c>
       <c r="G169" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H169" t="s">
         <v>4</v>
@@ -9221,7 +8927,7 @@
         <v>330</v>
       </c>
       <c r="G171" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H171" t="s">
         <v>4</v>
@@ -9244,13 +8950,13 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>331</v>
+        <v>101</v>
       </c>
       <c r="F172" t="s">
-        <v>332</v>
+        <v>102</v>
       </c>
       <c r="G172" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H172" t="s">
         <v>4</v>
@@ -9273,13 +8979,13 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>101</v>
+        <v>331</v>
       </c>
       <c r="F173" t="s">
-        <v>102</v>
+        <v>332</v>
       </c>
       <c r="G173" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H173" t="s">
         <v>4</v>
@@ -9308,7 +9014,7 @@
         <v>334</v>
       </c>
       <c r="G174" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="H174" t="s">
         <v>4</v>
@@ -9337,7 +9043,7 @@
         <v>336</v>
       </c>
       <c r="G175" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H175" t="s">
         <v>4</v>
@@ -9395,7 +9101,7 @@
         <v>340</v>
       </c>
       <c r="G177" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H177" t="s">
         <v>4</v>
@@ -9424,7 +9130,7 @@
         <v>342</v>
       </c>
       <c r="G178" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H178" t="s">
         <v>4</v>
@@ -9453,7 +9159,7 @@
         <v>344</v>
       </c>
       <c r="G179" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H179" t="s">
         <v>4</v>
@@ -9540,7 +9246,7 @@
         <v>350</v>
       </c>
       <c r="G182" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H182" t="s">
         <v>4</v>
@@ -9801,7 +9507,7 @@
         <v>368</v>
       </c>
       <c r="G191" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H191" t="s">
         <v>4</v>
@@ -9830,7 +9536,7 @@
         <v>370</v>
       </c>
       <c r="G192" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H192" t="s">
         <v>4</v>
@@ -9859,7 +9565,7 @@
         <v>372</v>
       </c>
       <c r="G193" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H193" t="s">
         <v>4</v>
@@ -9888,7 +9594,7 @@
         <v>374</v>
       </c>
       <c r="G194" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H194" t="s">
         <v>4</v>
@@ -9917,7 +9623,7 @@
         <v>376</v>
       </c>
       <c r="G195" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H195" t="s">
         <v>4</v>
@@ -9946,7 +9652,7 @@
         <v>378</v>
       </c>
       <c r="G196" t="n">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="H196" t="s">
         <v>4</v>
@@ -9969,10 +9675,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>379</v>
+        <v>333</v>
       </c>
       <c r="F197" t="s">
-        <v>380</v>
+        <v>334</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -10027,10 +9733,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>337</v>
+        <v>379</v>
       </c>
       <c r="F199" t="s">
-        <v>338</v>
+        <v>380</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -10056,13 +9762,13 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>381</v>
+        <v>341</v>
       </c>
       <c r="F200" t="s">
-        <v>382</v>
+        <v>342</v>
       </c>
       <c r="G200" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H200" t="s">
         <v>4</v>
@@ -10085,13 +9791,13 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>343</v>
+        <v>381</v>
       </c>
       <c r="F201" t="s">
-        <v>344</v>
+        <v>382</v>
       </c>
       <c r="G201" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H201" t="s">
         <v>4</v>
@@ -10120,7 +9826,7 @@
         <v>384</v>
       </c>
       <c r="G202" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H202" t="s">
         <v>4</v>
@@ -10178,7 +9884,7 @@
         <v>388</v>
       </c>
       <c r="G204" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H204" t="s">
         <v>4</v>
@@ -10207,7 +9913,7 @@
         <v>390</v>
       </c>
       <c r="G205" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H205" t="s">
         <v>4</v>
@@ -10468,7 +10174,7 @@
         <v>408</v>
       </c>
       <c r="G214" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H214" t="s">
         <v>4</v>
@@ -10497,7 +10203,7 @@
         <v>410</v>
       </c>
       <c r="G215" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H215" t="s">
         <v>4</v>
@@ -10526,7 +10232,7 @@
         <v>412</v>
       </c>
       <c r="G216" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H216" t="s">
         <v>4</v>
@@ -10555,7 +10261,7 @@
         <v>414</v>
       </c>
       <c r="G217" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H217" t="s">
         <v>4</v>
@@ -10584,7 +10290,7 @@
         <v>416</v>
       </c>
       <c r="G218" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H218" t="s">
         <v>4</v>
@@ -10642,7 +10348,7 @@
         <v>420</v>
       </c>
       <c r="G220" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="H220" t="s">
         <v>4</v>
@@ -10671,7 +10377,7 @@
         <v>422</v>
       </c>
       <c r="G221" t="n">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="H221" t="s">
         <v>4</v>
@@ -10700,7 +10406,7 @@
         <v>424</v>
       </c>
       <c r="G222" t="n">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="H222" t="s">
         <v>4</v>
@@ -10758,7 +10464,7 @@
         <v>428</v>
       </c>
       <c r="G224" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H224" t="s">
         <v>4</v>
@@ -10787,7 +10493,7 @@
         <v>430</v>
       </c>
       <c r="G225" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H225" t="s">
         <v>4</v>
@@ -10816,7 +10522,7 @@
         <v>432</v>
       </c>
       <c r="G226" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H226" t="s">
         <v>4</v>
@@ -10839,13 +10545,13 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>433</v>
+        <v>319</v>
       </c>
       <c r="F227" t="s">
-        <v>434</v>
+        <v>320</v>
       </c>
       <c r="G227" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H227" t="s">
         <v>4</v>
@@ -10868,13 +10574,13 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>321</v>
+        <v>433</v>
       </c>
       <c r="F228" t="s">
-        <v>322</v>
+        <v>434</v>
       </c>
       <c r="G228" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H228" t="s">
         <v>4</v>
@@ -10903,7 +10609,7 @@
         <v>436</v>
       </c>
       <c r="G229" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H229" t="s">
         <v>4</v>
@@ -10932,7 +10638,7 @@
         <v>438</v>
       </c>
       <c r="G230" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H230" t="s">
         <v>4</v>
@@ -10961,7 +10667,7 @@
         <v>440</v>
       </c>
       <c r="G231" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H231" t="s">
         <v>4</v>
@@ -10984,13 +10690,13 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>441</v>
+        <v>145</v>
       </c>
       <c r="F232" t="s">
-        <v>442</v>
+        <v>146</v>
       </c>
       <c r="G232" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H232" t="s">
         <v>4</v>
@@ -11013,10 +10719,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>147</v>
+        <v>441</v>
       </c>
       <c r="F233" t="s">
-        <v>148</v>
+        <v>442</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -11077,7 +10783,7 @@
         <v>446</v>
       </c>
       <c r="G235" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H235" t="s">
         <v>4</v>
@@ -11106,7 +10812,7 @@
         <v>448</v>
       </c>
       <c r="G236" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="H236" t="s">
         <v>4</v>
@@ -11135,7 +10841,7 @@
         <v>450</v>
       </c>
       <c r="G237" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="H237" t="s">
         <v>4</v>
@@ -11164,7 +10870,7 @@
         <v>452</v>
       </c>
       <c r="G238" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H238" t="s">
         <v>4</v>
@@ -11425,7 +11131,7 @@
         <v>470</v>
       </c>
       <c r="G247" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H247" t="s">
         <v>4</v>
@@ -11454,7 +11160,7 @@
         <v>472</v>
       </c>
       <c r="G248" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H248" t="s">
         <v>4</v>
@@ -11541,7 +11247,7 @@
         <v>478</v>
       </c>
       <c r="G251" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H251" t="s">
         <v>4</v>
@@ -11657,7 +11363,7 @@
         <v>486</v>
       </c>
       <c r="G255" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H255" t="s">
         <v>4</v>
@@ -11686,7 +11392,7 @@
         <v>488</v>
       </c>
       <c r="G256" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H256" t="s">
         <v>4</v>
@@ -12092,7 +11798,7 @@
         <v>516</v>
       </c>
       <c r="G270" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H270" t="s">
         <v>4</v>
@@ -12121,7 +11827,7 @@
         <v>518</v>
       </c>
       <c r="G271" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H271" t="s">
         <v>4</v>
@@ -12144,10 +11850,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>519</v>
+        <v>481</v>
       </c>
       <c r="F272" t="s">
-        <v>520</v>
+        <v>482</v>
       </c>
       <c r="G272" t="n">
         <v>1</v>
@@ -12173,10 +11879,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>483</v>
+        <v>519</v>
       </c>
       <c r="F273" t="s">
-        <v>484</v>
+        <v>520</v>
       </c>
       <c r="G273" t="n">
         <v>1</v>
@@ -12353,7 +12059,7 @@
         <v>532</v>
       </c>
       <c r="G279" t="n">
-        <v>1</v>
+        <v>1448</v>
       </c>
       <c r="H279" t="s">
         <v>4</v>
@@ -12382,7 +12088,7 @@
         <v>534</v>
       </c>
       <c r="G280" t="n">
-        <v>1711</v>
+        <v>1</v>
       </c>
       <c r="H280" t="s">
         <v>4</v>
@@ -12405,10 +12111,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>535</v>
+        <v>287</v>
       </c>
       <c r="F281" t="s">
-        <v>536</v>
+        <v>288</v>
       </c>
       <c r="G281" t="n">
         <v>1</v>
@@ -12434,10 +12140,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>289</v>
+        <v>535</v>
       </c>
       <c r="F282" t="s">
-        <v>290</v>
+        <v>536</v>
       </c>
       <c r="G282" t="n">
         <v>1</v>
@@ -12469,7 +12175,7 @@
         <v>538</v>
       </c>
       <c r="G283" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H283" t="s">
         <v>4</v>
@@ -12498,7 +12204,7 @@
         <v>540</v>
       </c>
       <c r="G284" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H284" t="s">
         <v>4</v>
@@ -12527,7 +12233,7 @@
         <v>542</v>
       </c>
       <c r="G285" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H285" t="s">
         <v>4</v>
@@ -12556,7 +12262,7 @@
         <v>544</v>
       </c>
       <c r="G286" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H286" t="s">
         <v>4</v>
@@ -12643,7 +12349,7 @@
         <v>550</v>
       </c>
       <c r="G289" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H289" t="s">
         <v>4</v>
@@ -12701,7 +12407,7 @@
         <v>554</v>
       </c>
       <c r="G291" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H291" t="s">
         <v>4</v>
@@ -12846,7 +12552,7 @@
         <v>564</v>
       </c>
       <c r="G296" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H296" t="s">
         <v>4</v>
@@ -12875,7 +12581,7 @@
         <v>566</v>
       </c>
       <c r="G297" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H297" t="s">
         <v>4</v>
@@ -12933,7 +12639,7 @@
         <v>570</v>
       </c>
       <c r="G299" t="n">
-        <v>1</v>
+        <v>274</v>
       </c>
       <c r="H299" t="s">
         <v>4</v>
@@ -12962,7 +12668,7 @@
         <v>572</v>
       </c>
       <c r="G300" t="n">
-        <v>324</v>
+        <v>1</v>
       </c>
       <c r="H300" t="s">
         <v>4</v>
@@ -13020,7 +12726,7 @@
         <v>576</v>
       </c>
       <c r="G302" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H302" t="s">
         <v>4</v>
@@ -13049,7 +12755,7 @@
         <v>578</v>
       </c>
       <c r="G303" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H303" t="s">
         <v>4</v>
@@ -13078,7 +12784,7 @@
         <v>580</v>
       </c>
       <c r="G304" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H304" t="s">
         <v>4</v>
@@ -13310,7 +13016,7 @@
         <v>596</v>
       </c>
       <c r="G312" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H312" t="s">
         <v>4</v>
@@ -13542,7 +13248,7 @@
         <v>612</v>
       </c>
       <c r="G320" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H320" t="s">
         <v>4</v>
@@ -13600,7 +13306,7 @@
         <v>616</v>
       </c>
       <c r="G322" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H322" t="s">
         <v>4</v>
@@ -13629,7 +13335,7 @@
         <v>618</v>
       </c>
       <c r="G323" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H323" t="s">
         <v>4</v>
@@ -13658,7 +13364,7 @@
         <v>620</v>
       </c>
       <c r="G324" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H324" t="s">
         <v>4</v>
@@ -13687,7 +13393,7 @@
         <v>622</v>
       </c>
       <c r="G325" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H325" t="s">
         <v>4</v>
@@ -14035,7 +13741,7 @@
         <v>646</v>
       </c>
       <c r="G337" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H337" t="s">
         <v>4</v>
@@ -14731,7 +14437,7 @@
         <v>694</v>
       </c>
       <c r="G361" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H361" t="s">
         <v>4</v>
@@ -14760,7 +14466,7 @@
         <v>696</v>
       </c>
       <c r="G362" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H362" t="s">
         <v>4</v>
@@ -14789,7 +14495,7 @@
         <v>698</v>
       </c>
       <c r="G363" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H363" t="s">
         <v>4</v>
@@ -14818,7 +14524,7 @@
         <v>700</v>
       </c>
       <c r="G364" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H364" t="s">
         <v>4</v>
@@ -14847,7 +14553,7 @@
         <v>702</v>
       </c>
       <c r="G365" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H365" t="s">
         <v>4</v>
@@ -14876,7 +14582,7 @@
         <v>704</v>
       </c>
       <c r="G366" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H366" t="s">
         <v>4</v>
@@ -14905,7 +14611,7 @@
         <v>706</v>
       </c>
       <c r="G367" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H367" t="s">
         <v>4</v>
@@ -15073,10 +14779,10 @@
         <v>372</v>
       </c>
       <c r="E373" t="s">
-        <v>717</v>
+        <v>609</v>
       </c>
       <c r="F373" t="s">
-        <v>718</v>
+        <v>610</v>
       </c>
       <c r="G373" t="n">
         <v>1</v>
@@ -15102,10 +14808,10 @@
         <v>373</v>
       </c>
       <c r="E374" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="F374" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="G374" t="n">
         <v>1</v>
@@ -15131,10 +14837,10 @@
         <v>374</v>
       </c>
       <c r="E375" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="F375" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="G375" t="n">
         <v>1</v>
@@ -15160,13 +14866,13 @@
         <v>375</v>
       </c>
       <c r="E376" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="F376" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="G376" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H376" t="s">
         <v>4</v>
@@ -15189,13 +14895,13 @@
         <v>376</v>
       </c>
       <c r="E377" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="F377" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="G377" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H377" t="s">
         <v>4</v>
@@ -15218,13 +14924,13 @@
         <v>377</v>
       </c>
       <c r="E378" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="F378" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="G378" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H378" t="s">
         <v>4</v>
@@ -15247,13 +14953,13 @@
         <v>378</v>
       </c>
       <c r="E379" t="s">
-        <v>729</v>
+        <v>379</v>
       </c>
       <c r="F379" t="s">
-        <v>730</v>
+        <v>380</v>
       </c>
       <c r="G379" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H379" t="s">
         <v>4</v>
@@ -15276,10 +14982,10 @@
         <v>379</v>
       </c>
       <c r="E380" t="s">
-        <v>731</v>
+        <v>339</v>
       </c>
       <c r="F380" t="s">
-        <v>732</v>
+        <v>340</v>
       </c>
       <c r="G380" t="n">
         <v>3</v>
@@ -15305,13 +15011,13 @@
         <v>380</v>
       </c>
       <c r="E381" t="s">
-        <v>733</v>
+        <v>341</v>
       </c>
       <c r="F381" t="s">
-        <v>734</v>
+        <v>342</v>
       </c>
       <c r="G381" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="H381" t="s">
         <v>4</v>
@@ -15334,13 +15040,13 @@
         <v>381</v>
       </c>
       <c r="E382" t="s">
-        <v>735</v>
+        <v>727</v>
       </c>
       <c r="F382" t="s">
-        <v>736</v>
+        <v>728</v>
       </c>
       <c r="G382" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H382" t="s">
         <v>4</v>
@@ -15363,13 +15069,13 @@
         <v>382</v>
       </c>
       <c r="E383" t="s">
-        <v>737</v>
+        <v>729</v>
       </c>
       <c r="F383" t="s">
-        <v>738</v>
+        <v>730</v>
       </c>
       <c r="G383" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="H383" t="s">
         <v>4</v>
@@ -15392,13 +15098,13 @@
         <v>383</v>
       </c>
       <c r="E384" t="s">
-        <v>739</v>
+        <v>87</v>
       </c>
       <c r="F384" t="s">
-        <v>740</v>
+        <v>88</v>
       </c>
       <c r="G384" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H384" t="s">
         <v>4</v>
@@ -15421,13 +15127,13 @@
         <v>384</v>
       </c>
       <c r="E385" t="s">
-        <v>741</v>
+        <v>731</v>
       </c>
       <c r="F385" t="s">
-        <v>742</v>
+        <v>732</v>
       </c>
       <c r="G385" t="n">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="H385" t="s">
         <v>4</v>
@@ -15450,13 +15156,13 @@
         <v>385</v>
       </c>
       <c r="E386" t="s">
-        <v>743</v>
+        <v>733</v>
       </c>
       <c r="F386" t="s">
-        <v>744</v>
+        <v>734</v>
       </c>
       <c r="G386" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H386" t="s">
         <v>4</v>
@@ -15479,13 +15185,13 @@
         <v>386</v>
       </c>
       <c r="E387" t="s">
-        <v>745</v>
+        <v>291</v>
       </c>
       <c r="F387" t="s">
-        <v>746</v>
+        <v>292</v>
       </c>
       <c r="G387" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H387" t="s">
         <v>4</v>
@@ -15508,13 +15214,13 @@
         <v>387</v>
       </c>
       <c r="E388" t="s">
-        <v>747</v>
+        <v>735</v>
       </c>
       <c r="F388" t="s">
-        <v>748</v>
+        <v>736</v>
       </c>
       <c r="G388" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H388" t="s">
         <v>4</v>
@@ -15537,13 +15243,13 @@
         <v>388</v>
       </c>
       <c r="E389" t="s">
-        <v>749</v>
+        <v>135</v>
       </c>
       <c r="F389" t="s">
-        <v>750</v>
+        <v>136</v>
       </c>
       <c r="G389" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H389" t="s">
         <v>4</v>
@@ -15566,10 +15272,10 @@
         <v>389</v>
       </c>
       <c r="E390" t="s">
-        <v>751</v>
+        <v>737</v>
       </c>
       <c r="F390" t="s">
-        <v>752</v>
+        <v>738</v>
       </c>
       <c r="G390" t="n">
         <v>1</v>
@@ -15595,13 +15301,13 @@
         <v>390</v>
       </c>
       <c r="E391" t="s">
-        <v>753</v>
+        <v>371</v>
       </c>
       <c r="F391" t="s">
-        <v>754</v>
+        <v>372</v>
       </c>
       <c r="G391" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H391" t="s">
         <v>4</v>
@@ -15624,13 +15330,13 @@
         <v>391</v>
       </c>
       <c r="E392" t="s">
-        <v>755</v>
+        <v>147</v>
       </c>
       <c r="F392" t="s">
-        <v>756</v>
+        <v>148</v>
       </c>
       <c r="G392" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="H392" t="s">
         <v>4</v>
@@ -15653,13 +15359,13 @@
         <v>392</v>
       </c>
       <c r="E393" t="s">
-        <v>757</v>
+        <v>311</v>
       </c>
       <c r="F393" t="s">
-        <v>758</v>
+        <v>312</v>
       </c>
       <c r="G393" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H393" t="s">
         <v>4</v>
@@ -15682,10 +15388,10 @@
         <v>393</v>
       </c>
       <c r="E394" t="s">
-        <v>759</v>
+        <v>739</v>
       </c>
       <c r="F394" t="s">
-        <v>760</v>
+        <v>740</v>
       </c>
       <c r="G394" t="n">
         <v>1</v>
@@ -15711,10 +15417,10 @@
         <v>394</v>
       </c>
       <c r="E395" t="s">
-        <v>761</v>
+        <v>741</v>
       </c>
       <c r="F395" t="s">
-        <v>762</v>
+        <v>742</v>
       </c>
       <c r="G395" t="n">
         <v>1</v>
@@ -15740,10 +15446,10 @@
         <v>395</v>
       </c>
       <c r="E396" t="s">
-        <v>763</v>
+        <v>743</v>
       </c>
       <c r="F396" t="s">
-        <v>764</v>
+        <v>744</v>
       </c>
       <c r="G396" t="n">
         <v>1</v>
@@ -15769,13 +15475,13 @@
         <v>396</v>
       </c>
       <c r="E397" t="s">
-        <v>765</v>
+        <v>745</v>
       </c>
       <c r="F397" t="s">
-        <v>766</v>
+        <v>746</v>
       </c>
       <c r="G397" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H397" t="s">
         <v>4</v>
@@ -15798,13 +15504,13 @@
         <v>397</v>
       </c>
       <c r="E398" t="s">
-        <v>767</v>
+        <v>747</v>
       </c>
       <c r="F398" t="s">
-        <v>768</v>
+        <v>748</v>
       </c>
       <c r="G398" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H398" t="s">
         <v>4</v>
@@ -15827,10 +15533,10 @@
         <v>398</v>
       </c>
       <c r="E399" t="s">
-        <v>769</v>
+        <v>749</v>
       </c>
       <c r="F399" t="s">
-        <v>770</v>
+        <v>750</v>
       </c>
       <c r="G399" t="n">
         <v>2</v>
@@ -15856,10 +15562,10 @@
         <v>399</v>
       </c>
       <c r="E400" t="s">
-        <v>771</v>
+        <v>751</v>
       </c>
       <c r="F400" t="s">
-        <v>772</v>
+        <v>752</v>
       </c>
       <c r="G400" t="n">
         <v>1</v>
@@ -15885,13 +15591,13 @@
         <v>400</v>
       </c>
       <c r="E401" t="s">
-        <v>773</v>
+        <v>753</v>
       </c>
       <c r="F401" t="s">
-        <v>774</v>
+        <v>754</v>
       </c>
       <c r="G401" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H401" t="s">
         <v>4</v>
@@ -15914,10 +15620,10 @@
         <v>401</v>
       </c>
       <c r="E402" t="s">
-        <v>775</v>
+        <v>755</v>
       </c>
       <c r="F402" t="s">
-        <v>776</v>
+        <v>756</v>
       </c>
       <c r="G402" t="n">
         <v>1</v>
@@ -15943,10 +15649,10 @@
         <v>402</v>
       </c>
       <c r="E403" t="s">
-        <v>777</v>
+        <v>757</v>
       </c>
       <c r="F403" t="s">
-        <v>778</v>
+        <v>758</v>
       </c>
       <c r="G403" t="n">
         <v>1</v>
@@ -15972,10 +15678,10 @@
         <v>403</v>
       </c>
       <c r="E404" t="s">
-        <v>779</v>
+        <v>759</v>
       </c>
       <c r="F404" t="s">
-        <v>780</v>
+        <v>760</v>
       </c>
       <c r="G404" t="n">
         <v>1</v>
@@ -16001,10 +15707,10 @@
         <v>404</v>
       </c>
       <c r="E405" t="s">
-        <v>781</v>
+        <v>761</v>
       </c>
       <c r="F405" t="s">
-        <v>782</v>
+        <v>762</v>
       </c>
       <c r="G405" t="n">
         <v>1</v>
@@ -16030,10 +15736,10 @@
         <v>405</v>
       </c>
       <c r="E406" t="s">
-        <v>783</v>
+        <v>763</v>
       </c>
       <c r="F406" t="s">
-        <v>784</v>
+        <v>764</v>
       </c>
       <c r="G406" t="n">
         <v>1</v>
@@ -16059,10 +15765,10 @@
         <v>406</v>
       </c>
       <c r="E407" t="s">
-        <v>785</v>
+        <v>765</v>
       </c>
       <c r="F407" t="s">
-        <v>786</v>
+        <v>766</v>
       </c>
       <c r="G407" t="n">
         <v>1</v>
@@ -16088,13 +15794,13 @@
         <v>407</v>
       </c>
       <c r="E408" t="s">
-        <v>787</v>
+        <v>767</v>
       </c>
       <c r="F408" t="s">
-        <v>788</v>
+        <v>768</v>
       </c>
       <c r="G408" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H408" t="s">
         <v>4</v>
@@ -16117,10 +15823,10 @@
         <v>408</v>
       </c>
       <c r="E409" t="s">
-        <v>789</v>
+        <v>769</v>
       </c>
       <c r="F409" t="s">
-        <v>790</v>
+        <v>770</v>
       </c>
       <c r="G409" t="n">
         <v>1</v>
@@ -16146,10 +15852,10 @@
         <v>409</v>
       </c>
       <c r="E410" t="s">
-        <v>791</v>
+        <v>771</v>
       </c>
       <c r="F410" t="s">
-        <v>792</v>
+        <v>772</v>
       </c>
       <c r="G410" t="n">
         <v>1</v>
@@ -16175,10 +15881,10 @@
         <v>410</v>
       </c>
       <c r="E411" t="s">
-        <v>793</v>
+        <v>773</v>
       </c>
       <c r="F411" t="s">
-        <v>794</v>
+        <v>774</v>
       </c>
       <c r="G411" t="n">
         <v>1</v>
@@ -16204,10 +15910,10 @@
         <v>411</v>
       </c>
       <c r="E412" t="s">
-        <v>795</v>
+        <v>775</v>
       </c>
       <c r="F412" t="s">
-        <v>796</v>
+        <v>776</v>
       </c>
       <c r="G412" t="n">
         <v>1</v>
@@ -16233,10 +15939,10 @@
         <v>412</v>
       </c>
       <c r="E413" t="s">
-        <v>797</v>
+        <v>777</v>
       </c>
       <c r="F413" t="s">
-        <v>798</v>
+        <v>778</v>
       </c>
       <c r="G413" t="n">
         <v>1</v>
@@ -16262,10 +15968,10 @@
         <v>413</v>
       </c>
       <c r="E414" t="s">
-        <v>799</v>
+        <v>779</v>
       </c>
       <c r="F414" t="s">
-        <v>800</v>
+        <v>780</v>
       </c>
       <c r="G414" t="n">
         <v>1</v>
@@ -16291,10 +15997,10 @@
         <v>414</v>
       </c>
       <c r="E415" t="s">
-        <v>801</v>
+        <v>781</v>
       </c>
       <c r="F415" t="s">
-        <v>802</v>
+        <v>782</v>
       </c>
       <c r="G415" t="n">
         <v>1</v>
@@ -16320,10 +16026,10 @@
         <v>415</v>
       </c>
       <c r="E416" t="s">
-        <v>803</v>
+        <v>783</v>
       </c>
       <c r="F416" t="s">
-        <v>804</v>
+        <v>784</v>
       </c>
       <c r="G416" t="n">
         <v>1</v>
@@ -16349,10 +16055,10 @@
         <v>416</v>
       </c>
       <c r="E417" t="s">
-        <v>805</v>
+        <v>785</v>
       </c>
       <c r="F417" t="s">
-        <v>806</v>
+        <v>786</v>
       </c>
       <c r="G417" t="n">
         <v>1</v>
@@ -16378,10 +16084,10 @@
         <v>417</v>
       </c>
       <c r="E418" t="s">
-        <v>807</v>
+        <v>787</v>
       </c>
       <c r="F418" t="s">
-        <v>808</v>
+        <v>788</v>
       </c>
       <c r="G418" t="n">
         <v>1</v>
@@ -16407,10 +16113,10 @@
         <v>418</v>
       </c>
       <c r="E419" t="s">
-        <v>611</v>
+        <v>789</v>
       </c>
       <c r="F419" t="s">
-        <v>612</v>
+        <v>790</v>
       </c>
       <c r="G419" t="n">
         <v>1</v>
@@ -16436,10 +16142,10 @@
         <v>419</v>
       </c>
       <c r="E420" t="s">
-        <v>809</v>
+        <v>791</v>
       </c>
       <c r="F420" t="s">
-        <v>810</v>
+        <v>792</v>
       </c>
       <c r="G420" t="n">
         <v>1</v>
@@ -16465,13 +16171,13 @@
         <v>420</v>
       </c>
       <c r="E421" t="s">
-        <v>811</v>
+        <v>793</v>
       </c>
       <c r="F421" t="s">
-        <v>812</v>
+        <v>794</v>
       </c>
       <c r="G421" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H421" t="s">
         <v>4</v>
@@ -16494,10 +16200,10 @@
         <v>421</v>
       </c>
       <c r="E422" t="s">
-        <v>813</v>
+        <v>795</v>
       </c>
       <c r="F422" t="s">
-        <v>814</v>
+        <v>796</v>
       </c>
       <c r="G422" t="n">
         <v>1</v>
@@ -16523,13 +16229,13 @@
         <v>422</v>
       </c>
       <c r="E423" t="s">
-        <v>381</v>
+        <v>797</v>
       </c>
       <c r="F423" t="s">
-        <v>382</v>
+        <v>798</v>
       </c>
       <c r="G423" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H423" t="s">
         <v>4</v>
@@ -16552,13 +16258,13 @@
         <v>423</v>
       </c>
       <c r="E424" t="s">
-        <v>341</v>
+        <v>799</v>
       </c>
       <c r="F424" t="s">
-        <v>342</v>
+        <v>800</v>
       </c>
       <c r="G424" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H424" t="s">
         <v>4</v>
@@ -16581,13 +16287,13 @@
         <v>424</v>
       </c>
       <c r="E425" t="s">
-        <v>343</v>
+        <v>801</v>
       </c>
       <c r="F425" t="s">
-        <v>344</v>
+        <v>802</v>
       </c>
       <c r="G425" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="H425" t="s">
         <v>4</v>
@@ -16610,13 +16316,13 @@
         <v>425</v>
       </c>
       <c r="E426" t="s">
-        <v>815</v>
+        <v>803</v>
       </c>
       <c r="F426" t="s">
-        <v>816</v>
+        <v>804</v>
       </c>
       <c r="G426" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H426" t="s">
         <v>4</v>
@@ -16639,13 +16345,13 @@
         <v>426</v>
       </c>
       <c r="E427" t="s">
-        <v>817</v>
+        <v>805</v>
       </c>
       <c r="F427" t="s">
-        <v>818</v>
+        <v>806</v>
       </c>
       <c r="G427" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="H427" t="s">
         <v>4</v>
@@ -16668,10 +16374,10 @@
         <v>427</v>
       </c>
       <c r="E428" t="s">
-        <v>819</v>
+        <v>807</v>
       </c>
       <c r="F428" t="s">
-        <v>820</v>
+        <v>808</v>
       </c>
       <c r="G428" t="n">
         <v>1</v>
@@ -16697,10 +16403,10 @@
         <v>428</v>
       </c>
       <c r="E429" t="s">
-        <v>821</v>
+        <v>809</v>
       </c>
       <c r="F429" t="s">
-        <v>822</v>
+        <v>810</v>
       </c>
       <c r="G429" t="n">
         <v>1</v>
@@ -16726,13 +16432,13 @@
         <v>429</v>
       </c>
       <c r="E430" t="s">
-        <v>823</v>
+        <v>811</v>
       </c>
       <c r="F430" t="s">
-        <v>824</v>
+        <v>812</v>
       </c>
       <c r="G430" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H430" t="s">
         <v>4</v>
@@ -16755,13 +16461,13 @@
         <v>430</v>
       </c>
       <c r="E431" t="s">
-        <v>825</v>
+        <v>813</v>
       </c>
       <c r="F431" t="s">
-        <v>826</v>
+        <v>814</v>
       </c>
       <c r="G431" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H431" t="s">
         <v>4</v>
@@ -16784,10 +16490,10 @@
         <v>431</v>
       </c>
       <c r="E432" t="s">
-        <v>827</v>
+        <v>815</v>
       </c>
       <c r="F432" t="s">
-        <v>828</v>
+        <v>816</v>
       </c>
       <c r="G432" t="n">
         <v>1</v>
@@ -16813,10 +16519,10 @@
         <v>432</v>
       </c>
       <c r="E433" t="s">
-        <v>87</v>
+        <v>817</v>
       </c>
       <c r="F433" t="s">
-        <v>88</v>
+        <v>818</v>
       </c>
       <c r="G433" t="n">
         <v>1</v>
@@ -16842,13 +16548,13 @@
         <v>433</v>
       </c>
       <c r="E434" t="s">
-        <v>829</v>
+        <v>819</v>
       </c>
       <c r="F434" t="s">
-        <v>830</v>
+        <v>820</v>
       </c>
       <c r="G434" t="n">
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="H434" t="s">
         <v>4</v>
@@ -16871,13 +16577,13 @@
         <v>434</v>
       </c>
       <c r="E435" t="s">
-        <v>831</v>
+        <v>733</v>
       </c>
       <c r="F435" t="s">
-        <v>832</v>
+        <v>734</v>
       </c>
       <c r="G435" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H435" t="s">
         <v>4</v>
@@ -16900,13 +16606,13 @@
         <v>435</v>
       </c>
       <c r="E436" t="s">
-        <v>293</v>
+        <v>821</v>
       </c>
       <c r="F436" t="s">
-        <v>294</v>
+        <v>822</v>
       </c>
       <c r="G436" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H436" t="s">
         <v>4</v>
@@ -16929,13 +16635,13 @@
         <v>436</v>
       </c>
       <c r="E437" t="s">
-        <v>833</v>
+        <v>823</v>
       </c>
       <c r="F437" t="s">
-        <v>834</v>
+        <v>824</v>
       </c>
       <c r="G437" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H437" t="s">
         <v>4</v>
@@ -16958,13 +16664,13 @@
         <v>437</v>
       </c>
       <c r="E438" t="s">
-        <v>135</v>
+        <v>825</v>
       </c>
       <c r="F438" t="s">
-        <v>136</v>
+        <v>826</v>
       </c>
       <c r="G438" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H438" t="s">
         <v>4</v>
@@ -16987,10 +16693,10 @@
         <v>438</v>
       </c>
       <c r="E439" t="s">
-        <v>835</v>
+        <v>827</v>
       </c>
       <c r="F439" t="s">
-        <v>836</v>
+        <v>828</v>
       </c>
       <c r="G439" t="n">
         <v>1</v>
@@ -17016,13 +16722,13 @@
         <v>439</v>
       </c>
       <c r="E440" t="s">
-        <v>373</v>
+        <v>829</v>
       </c>
       <c r="F440" t="s">
-        <v>374</v>
+        <v>830</v>
       </c>
       <c r="G440" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H440" t="s">
         <v>4</v>
@@ -17045,13 +16751,13 @@
         <v>440</v>
       </c>
       <c r="E441" t="s">
-        <v>149</v>
+        <v>831</v>
       </c>
       <c r="F441" t="s">
-        <v>150</v>
+        <v>832</v>
       </c>
       <c r="G441" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="H441" t="s">
         <v>4</v>
@@ -17074,13 +16780,13 @@
         <v>441</v>
       </c>
       <c r="E442" t="s">
-        <v>313</v>
+        <v>833</v>
       </c>
       <c r="F442" t="s">
-        <v>314</v>
+        <v>834</v>
       </c>
       <c r="G442" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H442" t="s">
         <v>4</v>
@@ -17103,10 +16809,10 @@
         <v>442</v>
       </c>
       <c r="E443" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="F443" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="G443" t="n">
         <v>1</v>
@@ -17132,10 +16838,10 @@
         <v>443</v>
       </c>
       <c r="E444" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="F444" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="G444" t="n">
         <v>1</v>
@@ -17161,10 +16867,10 @@
         <v>444</v>
       </c>
       <c r="E445" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="F445" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="G445" t="n">
         <v>1</v>
@@ -17190,13 +16896,13 @@
         <v>445</v>
       </c>
       <c r="E446" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="F446" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="G446" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H446" t="s">
         <v>4</v>
@@ -17219,13 +16925,13 @@
         <v>446</v>
       </c>
       <c r="E447" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="F447" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="G447" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H447" t="s">
         <v>4</v>
@@ -17248,13 +16954,13 @@
         <v>447</v>
       </c>
       <c r="E448" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="F448" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="G448" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H448" t="s">
         <v>4</v>
@@ -17277,10 +16983,10 @@
         <v>448</v>
       </c>
       <c r="E449" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="F449" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="G449" t="n">
         <v>1</v>
@@ -17306,13 +17012,13 @@
         <v>449</v>
       </c>
       <c r="E450" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="F450" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="G450" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H450" t="s">
         <v>4</v>
@@ -17335,10 +17041,10 @@
         <v>450</v>
       </c>
       <c r="E451" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="F451" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="G451" t="n">
         <v>1</v>
@@ -17364,10 +17070,10 @@
         <v>451</v>
       </c>
       <c r="E452" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="F452" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="G452" t="n">
         <v>1</v>
@@ -17393,10 +17099,10 @@
         <v>452</v>
       </c>
       <c r="E453" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="F453" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="G453" t="n">
         <v>1</v>
@@ -17422,10 +17128,10 @@
         <v>453</v>
       </c>
       <c r="E454" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="F454" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="G454" t="n">
         <v>1</v>
@@ -17451,10 +17157,10 @@
         <v>454</v>
       </c>
       <c r="E455" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="F455" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="G455" t="n">
         <v>1</v>
@@ -17480,10 +17186,10 @@
         <v>455</v>
       </c>
       <c r="E456" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="F456" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="G456" t="n">
         <v>1</v>
@@ -17509,13 +17215,13 @@
         <v>456</v>
       </c>
       <c r="E457" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="F457" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G457" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H457" t="s">
         <v>4</v>
@@ -17538,10 +17244,10 @@
         <v>457</v>
       </c>
       <c r="E458" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="F458" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="G458" t="n">
         <v>1</v>
@@ -17567,10 +17273,10 @@
         <v>458</v>
       </c>
       <c r="E459" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="F459" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="G459" t="n">
         <v>1</v>
@@ -17596,10 +17302,10 @@
         <v>459</v>
       </c>
       <c r="E460" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="F460" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="G460" t="n">
         <v>1</v>
@@ -17625,13 +17331,13 @@
         <v>460</v>
       </c>
       <c r="E461" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="F461" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="G461" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H461" t="s">
         <v>4</v>
@@ -17654,10 +17360,10 @@
         <v>461</v>
       </c>
       <c r="E462" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="F462" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="G462" t="n">
         <v>1</v>
@@ -17683,10 +17389,10 @@
         <v>462</v>
       </c>
       <c r="E463" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="F463" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="G463" t="n">
         <v>1</v>
@@ -17712,13 +17418,13 @@
         <v>463</v>
       </c>
       <c r="E464" t="s">
-        <v>879</v>
+        <v>93</v>
       </c>
       <c r="F464" t="s">
-        <v>880</v>
+        <v>94</v>
       </c>
       <c r="G464" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="H464" t="s">
         <v>4</v>
@@ -17741,10 +17447,10 @@
         <v>464</v>
       </c>
       <c r="E465" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
       <c r="F465" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="G465" t="n">
         <v>1</v>
@@ -17770,10 +17476,10 @@
         <v>465</v>
       </c>
       <c r="E466" t="s">
-        <v>883</v>
+        <v>879</v>
       </c>
       <c r="F466" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
       <c r="G466" t="n">
         <v>1</v>
@@ -17799,13 +17505,13 @@
         <v>466</v>
       </c>
       <c r="E467" t="s">
-        <v>885</v>
+        <v>881</v>
       </c>
       <c r="F467" t="s">
-        <v>886</v>
+        <v>882</v>
       </c>
       <c r="G467" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="H467" t="s">
         <v>4</v>
@@ -17828,10 +17534,10 @@
         <v>467</v>
       </c>
       <c r="E468" t="s">
-        <v>887</v>
+        <v>883</v>
       </c>
       <c r="F468" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="G468" t="n">
         <v>1</v>
@@ -17857,10 +17563,10 @@
         <v>468</v>
       </c>
       <c r="E469" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="F469" t="s">
-        <v>890</v>
+        <v>886</v>
       </c>
       <c r="G469" t="n">
         <v>1</v>
@@ -17886,13 +17592,13 @@
         <v>469</v>
       </c>
       <c r="E470" t="s">
-        <v>891</v>
+        <v>887</v>
       </c>
       <c r="F470" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="G470" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H470" t="s">
         <v>4</v>
@@ -17915,10 +17621,10 @@
         <v>470</v>
       </c>
       <c r="E471" t="s">
-        <v>893</v>
+        <v>889</v>
       </c>
       <c r="F471" t="s">
-        <v>894</v>
+        <v>890</v>
       </c>
       <c r="G471" t="n">
         <v>1</v>
@@ -17944,10 +17650,10 @@
         <v>471</v>
       </c>
       <c r="E472" t="s">
-        <v>895</v>
+        <v>891</v>
       </c>
       <c r="F472" t="s">
-        <v>896</v>
+        <v>892</v>
       </c>
       <c r="G472" t="n">
         <v>1</v>
@@ -17973,10 +17679,10 @@
         <v>472</v>
       </c>
       <c r="E473" t="s">
-        <v>897</v>
+        <v>893</v>
       </c>
       <c r="F473" t="s">
-        <v>898</v>
+        <v>894</v>
       </c>
       <c r="G473" t="n">
         <v>1</v>
@@ -18002,10 +17708,10 @@
         <v>473</v>
       </c>
       <c r="E474" t="s">
-        <v>899</v>
+        <v>895</v>
       </c>
       <c r="F474" t="s">
-        <v>900</v>
+        <v>896</v>
       </c>
       <c r="G474" t="n">
         <v>1</v>
@@ -18031,10 +17737,10 @@
         <v>474</v>
       </c>
       <c r="E475" t="s">
-        <v>901</v>
+        <v>897</v>
       </c>
       <c r="F475" t="s">
-        <v>902</v>
+        <v>898</v>
       </c>
       <c r="G475" t="n">
         <v>1</v>
@@ -18060,13 +17766,13 @@
         <v>475</v>
       </c>
       <c r="E476" t="s">
-        <v>903</v>
+        <v>899</v>
       </c>
       <c r="F476" t="s">
-        <v>904</v>
+        <v>900</v>
       </c>
       <c r="G476" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H476" t="s">
         <v>4</v>
@@ -18089,10 +17795,10 @@
         <v>476</v>
       </c>
       <c r="E477" t="s">
-        <v>905</v>
+        <v>901</v>
       </c>
       <c r="F477" t="s">
-        <v>906</v>
+        <v>902</v>
       </c>
       <c r="G477" t="n">
         <v>1</v>
@@ -18118,10 +17824,10 @@
         <v>477</v>
       </c>
       <c r="E478" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
       <c r="F478" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
       <c r="G478" t="n">
         <v>1</v>
@@ -18147,10 +17853,10 @@
         <v>478</v>
       </c>
       <c r="E479" t="s">
-        <v>909</v>
+        <v>905</v>
       </c>
       <c r="F479" t="s">
-        <v>910</v>
+        <v>906</v>
       </c>
       <c r="G479" t="n">
         <v>1</v>
@@ -18176,13 +17882,13 @@
         <v>479</v>
       </c>
       <c r="E480" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="F480" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G480" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H480" t="s">
         <v>4</v>
@@ -18205,10 +17911,10 @@
         <v>480</v>
       </c>
       <c r="E481" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
       <c r="F481" t="s">
-        <v>914</v>
+        <v>910</v>
       </c>
       <c r="G481" t="n">
         <v>1</v>
@@ -18234,10 +17940,10 @@
         <v>481</v>
       </c>
       <c r="E482" t="s">
-        <v>915</v>
+        <v>911</v>
       </c>
       <c r="F482" t="s">
-        <v>916</v>
+        <v>912</v>
       </c>
       <c r="G482" t="n">
         <v>1</v>
@@ -18263,10 +17969,10 @@
         <v>482</v>
       </c>
       <c r="E483" t="s">
-        <v>917</v>
+        <v>913</v>
       </c>
       <c r="F483" t="s">
-        <v>918</v>
+        <v>914</v>
       </c>
       <c r="G483" t="n">
         <v>1</v>
@@ -18292,10 +17998,10 @@
         <v>483</v>
       </c>
       <c r="E484" t="s">
-        <v>831</v>
+        <v>915</v>
       </c>
       <c r="F484" t="s">
-        <v>832</v>
+        <v>916</v>
       </c>
       <c r="G484" t="n">
         <v>1</v>
@@ -18321,10 +18027,10 @@
         <v>484</v>
       </c>
       <c r="E485" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="F485" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="G485" t="n">
         <v>1</v>
@@ -18350,10 +18056,10 @@
         <v>485</v>
       </c>
       <c r="E486" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="F486" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="G486" t="n">
         <v>1</v>
@@ -18379,10 +18085,10 @@
         <v>486</v>
       </c>
       <c r="E487" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="F487" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="G487" t="n">
         <v>1</v>
@@ -18408,10 +18114,10 @@
         <v>487</v>
       </c>
       <c r="E488" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="F488" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="G488" t="n">
         <v>1</v>
@@ -18437,10 +18143,10 @@
         <v>488</v>
       </c>
       <c r="E489" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="F489" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="G489" t="n">
         <v>1</v>
@@ -18466,10 +18172,10 @@
         <v>489</v>
       </c>
       <c r="E490" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="F490" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="G490" t="n">
         <v>1</v>
@@ -18495,10 +18201,10 @@
         <v>490</v>
       </c>
       <c r="E491" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="F491" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="G491" t="n">
         <v>1</v>
@@ -18524,10 +18230,10 @@
         <v>491</v>
       </c>
       <c r="E492" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="F492" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="G492" t="n">
         <v>1</v>
@@ -18553,10 +18259,10 @@
         <v>492</v>
       </c>
       <c r="E493" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="F493" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="G493" t="n">
         <v>1</v>
@@ -18582,10 +18288,10 @@
         <v>493</v>
       </c>
       <c r="E494" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="F494" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="G494" t="n">
         <v>1</v>
@@ -18611,10 +18317,10 @@
         <v>494</v>
       </c>
       <c r="E495" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="F495" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="G495" t="n">
         <v>1</v>
@@ -18640,10 +18346,10 @@
         <v>495</v>
       </c>
       <c r="E496" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="F496" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="G496" t="n">
         <v>1</v>
@@ -18669,10 +18375,10 @@
         <v>496</v>
       </c>
       <c r="E497" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="F497" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="G497" t="n">
         <v>1</v>
@@ -18698,10 +18404,10 @@
         <v>497</v>
       </c>
       <c r="E498" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="F498" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="G498" t="n">
         <v>1</v>
@@ -18727,10 +18433,10 @@
         <v>498</v>
       </c>
       <c r="E499" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="F499" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="G499" t="n">
         <v>1</v>
@@ -18756,10 +18462,10 @@
         <v>499</v>
       </c>
       <c r="E500" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="F500" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="G500" t="n">
         <v>1</v>
@@ -18785,10 +18491,10 @@
         <v>500</v>
       </c>
       <c r="E501" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="F501" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="G501" t="n">
         <v>1</v>
@@ -18814,10 +18520,10 @@
         <v>501</v>
       </c>
       <c r="E502" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="F502" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="G502" t="n">
         <v>1</v>
@@ -18843,10 +18549,10 @@
         <v>502</v>
       </c>
       <c r="E503" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="F503" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="G503" t="n">
         <v>1</v>
@@ -18872,10 +18578,10 @@
         <v>503</v>
       </c>
       <c r="E504" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="F504" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="G504" t="n">
         <v>1</v>
@@ -18901,10 +18607,10 @@
         <v>504</v>
       </c>
       <c r="E505" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="F505" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="G505" t="n">
         <v>1</v>
@@ -18930,10 +18636,10 @@
         <v>505</v>
       </c>
       <c r="E506" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="F506" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G506" t="n">
         <v>1</v>
@@ -18959,10 +18665,10 @@
         <v>506</v>
       </c>
       <c r="E507" t="s">
-        <v>963</v>
+        <v>95</v>
       </c>
       <c r="F507" t="s">
-        <v>964</v>
+        <v>96</v>
       </c>
       <c r="G507" t="n">
         <v>1</v>
@@ -18988,10 +18694,10 @@
         <v>507</v>
       </c>
       <c r="E508" t="s">
-        <v>965</v>
+        <v>961</v>
       </c>
       <c r="F508" t="s">
-        <v>966</v>
+        <v>962</v>
       </c>
       <c r="G508" t="n">
         <v>1</v>
@@ -19017,10 +18723,10 @@
         <v>508</v>
       </c>
       <c r="E509" t="s">
-        <v>967</v>
+        <v>963</v>
       </c>
       <c r="F509" t="s">
-        <v>968</v>
+        <v>964</v>
       </c>
       <c r="G509" t="n">
         <v>1</v>
@@ -19046,13 +18752,13 @@
         <v>509</v>
       </c>
       <c r="E510" t="s">
-        <v>969</v>
+        <v>965</v>
       </c>
       <c r="F510" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
       <c r="G510" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H510" t="s">
         <v>4</v>
@@ -19075,10 +18781,10 @@
         <v>510</v>
       </c>
       <c r="E511" t="s">
-        <v>971</v>
+        <v>967</v>
       </c>
       <c r="F511" t="s">
-        <v>972</v>
+        <v>968</v>
       </c>
       <c r="G511" t="n">
         <v>1</v>
@@ -19104,10 +18810,10 @@
         <v>511</v>
       </c>
       <c r="E512" t="s">
-        <v>973</v>
+        <v>969</v>
       </c>
       <c r="F512" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
       <c r="G512" t="n">
         <v>1</v>
@@ -19133,13 +18839,13 @@
         <v>512</v>
       </c>
       <c r="E513" t="s">
-        <v>93</v>
+        <v>971</v>
       </c>
       <c r="F513" t="s">
-        <v>94</v>
+        <v>972</v>
       </c>
       <c r="G513" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="H513" t="s">
         <v>4</v>
@@ -19162,10 +18868,10 @@
         <v>513</v>
       </c>
       <c r="E514" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="F514" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="G514" t="n">
         <v>1</v>
@@ -19191,10 +18897,10 @@
         <v>514</v>
       </c>
       <c r="E515" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="F515" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="G515" t="n">
         <v>1</v>
@@ -19220,13 +18926,13 @@
         <v>515</v>
       </c>
       <c r="E516" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="F516" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="G516" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="H516" t="s">
         <v>4</v>
@@ -19249,10 +18955,10 @@
         <v>516</v>
       </c>
       <c r="E517" t="s">
-        <v>981</v>
+        <v>91</v>
       </c>
       <c r="F517" t="s">
-        <v>982</v>
+        <v>92</v>
       </c>
       <c r="G517" t="n">
         <v>1</v>
@@ -19278,10 +18984,10 @@
         <v>517</v>
       </c>
       <c r="E518" t="s">
-        <v>983</v>
+        <v>979</v>
       </c>
       <c r="F518" t="s">
-        <v>984</v>
+        <v>980</v>
       </c>
       <c r="G518" t="n">
         <v>1</v>
@@ -19307,10 +19013,10 @@
         <v>518</v>
       </c>
       <c r="E519" t="s">
-        <v>985</v>
+        <v>37</v>
       </c>
       <c r="F519" t="s">
-        <v>986</v>
+        <v>38</v>
       </c>
       <c r="G519" t="n">
         <v>1</v>
@@ -19336,13 +19042,13 @@
         <v>519</v>
       </c>
       <c r="E520" t="s">
-        <v>987</v>
+        <v>981</v>
       </c>
       <c r="F520" t="s">
-        <v>988</v>
+        <v>982</v>
       </c>
       <c r="G520" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="H520" t="s">
         <v>4</v>
@@ -19365,10 +19071,10 @@
         <v>520</v>
       </c>
       <c r="E521" t="s">
-        <v>989</v>
+        <v>983</v>
       </c>
       <c r="F521" t="s">
-        <v>990</v>
+        <v>984</v>
       </c>
       <c r="G521" t="n">
         <v>1</v>
@@ -19394,13 +19100,13 @@
         <v>521</v>
       </c>
       <c r="E522" t="s">
-        <v>991</v>
+        <v>985</v>
       </c>
       <c r="F522" t="s">
-        <v>992</v>
+        <v>986</v>
       </c>
       <c r="G522" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H522" t="s">
         <v>4</v>
@@ -19423,13 +19129,13 @@
         <v>522</v>
       </c>
       <c r="E523" t="s">
-        <v>993</v>
+        <v>987</v>
       </c>
       <c r="F523" t="s">
-        <v>994</v>
+        <v>988</v>
       </c>
       <c r="G523" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H523" t="s">
         <v>4</v>
@@ -19452,13 +19158,13 @@
         <v>523</v>
       </c>
       <c r="E524" t="s">
-        <v>995</v>
+        <v>989</v>
       </c>
       <c r="F524" t="s">
-        <v>996</v>
+        <v>990</v>
       </c>
       <c r="G524" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H524" t="s">
         <v>4</v>
@@ -19481,13 +19187,13 @@
         <v>524</v>
       </c>
       <c r="E525" t="s">
-        <v>997</v>
+        <v>991</v>
       </c>
       <c r="F525" t="s">
-        <v>998</v>
+        <v>992</v>
       </c>
       <c r="G525" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H525" t="s">
         <v>4</v>
@@ -19510,10 +19216,10 @@
         <v>525</v>
       </c>
       <c r="E526" t="s">
-        <v>999</v>
+        <v>993</v>
       </c>
       <c r="F526" t="s">
-        <v>1000</v>
+        <v>994</v>
       </c>
       <c r="G526" t="n">
         <v>1</v>
@@ -19539,13 +19245,13 @@
         <v>526</v>
       </c>
       <c r="E527" t="s">
-        <v>1001</v>
+        <v>995</v>
       </c>
       <c r="F527" t="s">
-        <v>1002</v>
+        <v>996</v>
       </c>
       <c r="G527" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H527" t="s">
         <v>4</v>
@@ -19568,13 +19274,13 @@
         <v>527</v>
       </c>
       <c r="E528" t="s">
-        <v>1003</v>
+        <v>997</v>
       </c>
       <c r="F528" t="s">
-        <v>1004</v>
+        <v>998</v>
       </c>
       <c r="G528" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H528" t="s">
         <v>4</v>
@@ -19597,10 +19303,10 @@
         <v>528</v>
       </c>
       <c r="E529" t="s">
-        <v>1005</v>
+        <v>999</v>
       </c>
       <c r="F529" t="s">
-        <v>1006</v>
+        <v>1000</v>
       </c>
       <c r="G529" t="n">
         <v>1</v>
@@ -19626,13 +19332,13 @@
         <v>529</v>
       </c>
       <c r="E530" t="s">
-        <v>1007</v>
+        <v>1001</v>
       </c>
       <c r="F530" t="s">
-        <v>1008</v>
+        <v>1002</v>
       </c>
       <c r="G530" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H530" t="s">
         <v>4</v>
@@ -19655,10 +19361,10 @@
         <v>530</v>
       </c>
       <c r="E531" t="s">
-        <v>1009</v>
+        <v>1003</v>
       </c>
       <c r="F531" t="s">
-        <v>1010</v>
+        <v>1004</v>
       </c>
       <c r="G531" t="n">
         <v>1</v>
@@ -19684,13 +19390,13 @@
         <v>531</v>
       </c>
       <c r="E532" t="s">
-        <v>1011</v>
+        <v>1005</v>
       </c>
       <c r="F532" t="s">
-        <v>1012</v>
+        <v>1006</v>
       </c>
       <c r="G532" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H532" t="s">
         <v>4</v>
@@ -19713,13 +19419,13 @@
         <v>532</v>
       </c>
       <c r="E533" t="s">
-        <v>1013</v>
+        <v>1007</v>
       </c>
       <c r="F533" t="s">
-        <v>1014</v>
+        <v>1008</v>
       </c>
       <c r="G533" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H533" t="s">
         <v>4</v>
@@ -19742,13 +19448,13 @@
         <v>533</v>
       </c>
       <c r="E534" t="s">
-        <v>1015</v>
+        <v>1009</v>
       </c>
       <c r="F534" t="s">
-        <v>1016</v>
+        <v>1010</v>
       </c>
       <c r="G534" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H534" t="s">
         <v>4</v>
@@ -19771,10 +19477,10 @@
         <v>534</v>
       </c>
       <c r="E535" t="s">
-        <v>1017</v>
+        <v>1011</v>
       </c>
       <c r="F535" t="s">
-        <v>1018</v>
+        <v>1012</v>
       </c>
       <c r="G535" t="n">
         <v>1</v>
@@ -19800,13 +19506,13 @@
         <v>535</v>
       </c>
       <c r="E536" t="s">
-        <v>1019</v>
+        <v>1013</v>
       </c>
       <c r="F536" t="s">
-        <v>1020</v>
+        <v>1014</v>
       </c>
       <c r="G536" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H536" t="s">
         <v>4</v>
@@ -19829,10 +19535,10 @@
         <v>536</v>
       </c>
       <c r="E537" t="s">
-        <v>1021</v>
+        <v>1015</v>
       </c>
       <c r="F537" t="s">
-        <v>1022</v>
+        <v>1016</v>
       </c>
       <c r="G537" t="n">
         <v>1</v>
@@ -19858,13 +19564,13 @@
         <v>537</v>
       </c>
       <c r="E538" t="s">
-        <v>1023</v>
+        <v>1017</v>
       </c>
       <c r="F538" t="s">
-        <v>1024</v>
+        <v>1018</v>
       </c>
       <c r="G538" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H538" t="s">
         <v>4</v>
@@ -19887,10 +19593,10 @@
         <v>538</v>
       </c>
       <c r="E539" t="s">
-        <v>1025</v>
+        <v>1019</v>
       </c>
       <c r="F539" t="s">
-        <v>1026</v>
+        <v>1020</v>
       </c>
       <c r="G539" t="n">
         <v>1</v>
@@ -19916,13 +19622,13 @@
         <v>539</v>
       </c>
       <c r="E540" t="s">
-        <v>1027</v>
+        <v>803</v>
       </c>
       <c r="F540" t="s">
-        <v>1028</v>
+        <v>804</v>
       </c>
       <c r="G540" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H540" t="s">
         <v>4</v>
@@ -19945,13 +19651,13 @@
         <v>540</v>
       </c>
       <c r="E541" t="s">
-        <v>1029</v>
+        <v>1021</v>
       </c>
       <c r="F541" t="s">
-        <v>1030</v>
+        <v>1022</v>
       </c>
       <c r="G541" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H541" t="s">
         <v>4</v>
@@ -19974,13 +19680,13 @@
         <v>541</v>
       </c>
       <c r="E542" t="s">
-        <v>1031</v>
+        <v>781</v>
       </c>
       <c r="F542" t="s">
-        <v>1032</v>
+        <v>782</v>
       </c>
       <c r="G542" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H542" t="s">
         <v>4</v>
@@ -20003,13 +19709,13 @@
         <v>542</v>
       </c>
       <c r="E543" t="s">
-        <v>1033</v>
+        <v>1023</v>
       </c>
       <c r="F543" t="s">
-        <v>1034</v>
+        <v>1024</v>
       </c>
       <c r="G543" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H543" t="s">
         <v>4</v>
@@ -20032,13 +19738,13 @@
         <v>543</v>
       </c>
       <c r="E544" t="s">
-        <v>1035</v>
+        <v>799</v>
       </c>
       <c r="F544" t="s">
-        <v>1036</v>
+        <v>800</v>
       </c>
       <c r="G544" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H544" t="s">
         <v>4</v>
@@ -20061,13 +19767,13 @@
         <v>544</v>
       </c>
       <c r="E545" t="s">
-        <v>1037</v>
+        <v>795</v>
       </c>
       <c r="F545" t="s">
-        <v>1038</v>
+        <v>796</v>
       </c>
       <c r="G545" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H545" t="s">
         <v>4</v>
@@ -20090,13 +19796,13 @@
         <v>545</v>
       </c>
       <c r="E546" t="s">
-        <v>1039</v>
+        <v>779</v>
       </c>
       <c r="F546" t="s">
-        <v>1040</v>
+        <v>780</v>
       </c>
       <c r="G546" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H546" t="s">
         <v>4</v>
@@ -20119,13 +19825,13 @@
         <v>546</v>
       </c>
       <c r="E547" t="s">
-        <v>1041</v>
+        <v>777</v>
       </c>
       <c r="F547" t="s">
-        <v>1042</v>
+        <v>778</v>
       </c>
       <c r="G547" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="H547" t="s">
         <v>4</v>
@@ -20148,13 +19854,13 @@
         <v>547</v>
       </c>
       <c r="E548" t="s">
-        <v>1043</v>
+        <v>767</v>
       </c>
       <c r="F548" t="s">
-        <v>1044</v>
+        <v>768</v>
       </c>
       <c r="G548" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H548" t="s">
         <v>4</v>
@@ -20177,13 +19883,13 @@
         <v>548</v>
       </c>
       <c r="E549" t="s">
-        <v>1045</v>
+        <v>769</v>
       </c>
       <c r="F549" t="s">
-        <v>1046</v>
+        <v>770</v>
       </c>
       <c r="G549" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H549" t="s">
         <v>4</v>
@@ -20206,13 +19912,13 @@
         <v>549</v>
       </c>
       <c r="E550" t="s">
-        <v>1047</v>
+        <v>859</v>
       </c>
       <c r="F550" t="s">
-        <v>1048</v>
+        <v>860</v>
       </c>
       <c r="G550" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H550" t="s">
         <v>4</v>
@@ -20235,13 +19941,13 @@
         <v>550</v>
       </c>
       <c r="E551" t="s">
-        <v>1049</v>
+        <v>1025</v>
       </c>
       <c r="F551" t="s">
-        <v>1050</v>
+        <v>1026</v>
       </c>
       <c r="G551" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H551" t="s">
         <v>4</v>
@@ -20264,13 +19970,13 @@
         <v>551</v>
       </c>
       <c r="E552" t="s">
-        <v>1051</v>
+        <v>1027</v>
       </c>
       <c r="F552" t="s">
-        <v>1052</v>
+        <v>1028</v>
       </c>
       <c r="G552" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H552" t="s">
         <v>4</v>
@@ -20293,13 +19999,13 @@
         <v>552</v>
       </c>
       <c r="E553" t="s">
-        <v>1053</v>
+        <v>805</v>
       </c>
       <c r="F553" t="s">
-        <v>1054</v>
+        <v>806</v>
       </c>
       <c r="G553" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H553" t="s">
         <v>4</v>
@@ -20322,10 +20028,10 @@
         <v>553</v>
       </c>
       <c r="E554" t="s">
-        <v>1055</v>
+        <v>1029</v>
       </c>
       <c r="F554" t="s">
-        <v>1056</v>
+        <v>1030</v>
       </c>
       <c r="G554" t="n">
         <v>1</v>
@@ -20351,13 +20057,13 @@
         <v>554</v>
       </c>
       <c r="E555" t="s">
-        <v>1057</v>
+        <v>827</v>
       </c>
       <c r="F555" t="s">
-        <v>1058</v>
+        <v>828</v>
       </c>
       <c r="G555" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H555" t="s">
         <v>4</v>
@@ -20380,13 +20086,13 @@
         <v>555</v>
       </c>
       <c r="E556" t="s">
-        <v>95</v>
+        <v>1031</v>
       </c>
       <c r="F556" t="s">
-        <v>96</v>
+        <v>1032</v>
       </c>
       <c r="G556" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H556" t="s">
         <v>4</v>
@@ -20409,13 +20115,13 @@
         <v>556</v>
       </c>
       <c r="E557" t="s">
-        <v>1059</v>
+        <v>1033</v>
       </c>
       <c r="F557" t="s">
-        <v>1060</v>
+        <v>1034</v>
       </c>
       <c r="G557" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H557" t="s">
         <v>4</v>
@@ -20438,13 +20144,13 @@
         <v>557</v>
       </c>
       <c r="E558" t="s">
-        <v>1061</v>
+        <v>763</v>
       </c>
       <c r="F558" t="s">
-        <v>1062</v>
+        <v>764</v>
       </c>
       <c r="G558" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H558" t="s">
         <v>4</v>
@@ -20467,13 +20173,13 @@
         <v>558</v>
       </c>
       <c r="E559" t="s">
-        <v>1063</v>
+        <v>811</v>
       </c>
       <c r="F559" t="s">
-        <v>1064</v>
+        <v>812</v>
       </c>
       <c r="G559" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H559" t="s">
         <v>4</v>
@@ -20496,13 +20202,13 @@
         <v>559</v>
       </c>
       <c r="E560" t="s">
-        <v>1065</v>
+        <v>1035</v>
       </c>
       <c r="F560" t="s">
-        <v>1066</v>
+        <v>1036</v>
       </c>
       <c r="G560" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H560" t="s">
         <v>4</v>
@@ -20525,13 +20231,13 @@
         <v>560</v>
       </c>
       <c r="E561" t="s">
-        <v>1067</v>
+        <v>793</v>
       </c>
       <c r="F561" t="s">
-        <v>1068</v>
+        <v>794</v>
       </c>
       <c r="G561" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H561" t="s">
         <v>4</v>
@@ -20554,13 +20260,13 @@
         <v>561</v>
       </c>
       <c r="E562" t="s">
-        <v>1069</v>
+        <v>1037</v>
       </c>
       <c r="F562" t="s">
-        <v>1070</v>
+        <v>1038</v>
       </c>
       <c r="G562" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H562" t="s">
         <v>4</v>
@@ -20583,10 +20289,10 @@
         <v>562</v>
       </c>
       <c r="E563" t="s">
-        <v>1071</v>
+        <v>1039</v>
       </c>
       <c r="F563" t="s">
-        <v>1072</v>
+        <v>1040</v>
       </c>
       <c r="G563" t="n">
         <v>1</v>
@@ -20612,13 +20318,13 @@
         <v>563</v>
       </c>
       <c r="E564" t="s">
-        <v>1073</v>
+        <v>1041</v>
       </c>
       <c r="F564" t="s">
-        <v>1074</v>
+        <v>1042</v>
       </c>
       <c r="G564" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H564" t="s">
         <v>4</v>
@@ -20641,13 +20347,13 @@
         <v>564</v>
       </c>
       <c r="E565" t="s">
-        <v>1075</v>
+        <v>1043</v>
       </c>
       <c r="F565" t="s">
-        <v>1076</v>
+        <v>1044</v>
       </c>
       <c r="G565" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H565" t="s">
         <v>4</v>
@@ -20670,13 +20376,13 @@
         <v>565</v>
       </c>
       <c r="E566" t="s">
-        <v>91</v>
+        <v>1045</v>
       </c>
       <c r="F566" t="s">
-        <v>92</v>
+        <v>1046</v>
       </c>
       <c r="G566" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H566" t="s">
         <v>4</v>
@@ -20699,13 +20405,13 @@
         <v>566</v>
       </c>
       <c r="E567" t="s">
-        <v>1077</v>
+        <v>771</v>
       </c>
       <c r="F567" t="s">
-        <v>1078</v>
+        <v>772</v>
       </c>
       <c r="G567" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H567" t="s">
         <v>4</v>
@@ -20728,13 +20434,13 @@
         <v>567</v>
       </c>
       <c r="E568" t="s">
-        <v>37</v>
+        <v>1047</v>
       </c>
       <c r="F568" t="s">
-        <v>38</v>
+        <v>1048</v>
       </c>
       <c r="G568" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H568" t="s">
         <v>4</v>
@@ -20757,13 +20463,13 @@
         <v>568</v>
       </c>
       <c r="E569" t="s">
-        <v>1079</v>
+        <v>773</v>
       </c>
       <c r="F569" t="s">
-        <v>1080</v>
+        <v>774</v>
       </c>
       <c r="G569" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H569" t="s">
         <v>4</v>
@@ -20786,13 +20492,13 @@
         <v>569</v>
       </c>
       <c r="E570" t="s">
-        <v>1081</v>
+        <v>783</v>
       </c>
       <c r="F570" t="s">
-        <v>1082</v>
+        <v>784</v>
       </c>
       <c r="G570" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H570" t="s">
         <v>4</v>
@@ -20815,13 +20521,13 @@
         <v>570</v>
       </c>
       <c r="E571" t="s">
-        <v>1083</v>
+        <v>1049</v>
       </c>
       <c r="F571" t="s">
-        <v>1084</v>
+        <v>1050</v>
       </c>
       <c r="G571" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H571" t="s">
         <v>4</v>
@@ -20844,13 +20550,13 @@
         <v>571</v>
       </c>
       <c r="E572" t="s">
-        <v>1085</v>
+        <v>1051</v>
       </c>
       <c r="F572" t="s">
-        <v>1086</v>
+        <v>1052</v>
       </c>
       <c r="G572" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H572" t="s">
         <v>4</v>
@@ -20873,13 +20579,13 @@
         <v>572</v>
       </c>
       <c r="E573" t="s">
-        <v>1087</v>
+        <v>1053</v>
       </c>
       <c r="F573" t="s">
-        <v>1088</v>
+        <v>1054</v>
       </c>
       <c r="G573" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H573" t="s">
         <v>4</v>
@@ -20902,13 +20608,13 @@
         <v>573</v>
       </c>
       <c r="E574" t="s">
-        <v>1089</v>
+        <v>1055</v>
       </c>
       <c r="F574" t="s">
-        <v>1090</v>
+        <v>1056</v>
       </c>
       <c r="G574" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H574" t="s">
         <v>4</v>
@@ -20931,13 +20637,13 @@
         <v>574</v>
       </c>
       <c r="E575" t="s">
-        <v>1091</v>
+        <v>1057</v>
       </c>
       <c r="F575" t="s">
-        <v>1092</v>
+        <v>1058</v>
       </c>
       <c r="G575" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H575" t="s">
         <v>4</v>
@@ -20960,13 +20666,13 @@
         <v>575</v>
       </c>
       <c r="E576" t="s">
-        <v>1093</v>
+        <v>1059</v>
       </c>
       <c r="F576" t="s">
-        <v>1094</v>
+        <v>1060</v>
       </c>
       <c r="G576" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H576" t="s">
         <v>4</v>
@@ -20989,10 +20695,10 @@
         <v>576</v>
       </c>
       <c r="E577" t="s">
-        <v>1095</v>
+        <v>1061</v>
       </c>
       <c r="F577" t="s">
-        <v>1096</v>
+        <v>1062</v>
       </c>
       <c r="G577" t="n">
         <v>2</v>
@@ -21018,13 +20724,13 @@
         <v>577</v>
       </c>
       <c r="E578" t="s">
-        <v>1097</v>
+        <v>747</v>
       </c>
       <c r="F578" t="s">
-        <v>1098</v>
+        <v>748</v>
       </c>
       <c r="G578" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H578" t="s">
         <v>4</v>
@@ -21047,13 +20753,13 @@
         <v>578</v>
       </c>
       <c r="E579" t="s">
-        <v>1099</v>
+        <v>813</v>
       </c>
       <c r="F579" t="s">
-        <v>1100</v>
+        <v>814</v>
       </c>
       <c r="G579" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="H579" t="s">
         <v>4</v>
@@ -21076,13 +20782,13 @@
         <v>579</v>
       </c>
       <c r="E580" t="s">
-        <v>1101</v>
+        <v>1063</v>
       </c>
       <c r="F580" t="s">
-        <v>1102</v>
+        <v>1064</v>
       </c>
       <c r="G580" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H580" t="s">
         <v>4</v>
@@ -21105,13 +20811,13 @@
         <v>580</v>
       </c>
       <c r="E581" t="s">
-        <v>1103</v>
+        <v>743</v>
       </c>
       <c r="F581" t="s">
-        <v>1104</v>
+        <v>744</v>
       </c>
       <c r="G581" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H581" t="s">
         <v>4</v>
@@ -21134,13 +20840,13 @@
         <v>581</v>
       </c>
       <c r="E582" t="s">
-        <v>1105</v>
+        <v>369</v>
       </c>
       <c r="F582" t="s">
-        <v>1106</v>
+        <v>370</v>
       </c>
       <c r="G582" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H582" t="s">
         <v>4</v>
@@ -21163,13 +20869,13 @@
         <v>582</v>
       </c>
       <c r="E583" t="s">
-        <v>1107</v>
+        <v>797</v>
       </c>
       <c r="F583" t="s">
-        <v>1108</v>
+        <v>798</v>
       </c>
       <c r="G583" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H583" t="s">
         <v>4</v>
@@ -21192,13 +20898,13 @@
         <v>583</v>
       </c>
       <c r="E584" t="s">
-        <v>1109</v>
+        <v>1065</v>
       </c>
       <c r="F584" t="s">
-        <v>1110</v>
+        <v>1066</v>
       </c>
       <c r="G584" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H584" t="s">
         <v>4</v>
@@ -21221,13 +20927,13 @@
         <v>584</v>
       </c>
       <c r="E585" t="s">
-        <v>1111</v>
+        <v>753</v>
       </c>
       <c r="F585" t="s">
-        <v>1112</v>
+        <v>754</v>
       </c>
       <c r="G585" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H585" t="s">
         <v>4</v>
@@ -21250,13 +20956,13 @@
         <v>585</v>
       </c>
       <c r="E586" t="s">
-        <v>1113</v>
+        <v>1067</v>
       </c>
       <c r="F586" t="s">
-        <v>1114</v>
+        <v>1068</v>
       </c>
       <c r="G586" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H586" t="s">
         <v>4</v>
@@ -21279,13 +20985,13 @@
         <v>586</v>
       </c>
       <c r="E587" t="s">
-        <v>1115</v>
+        <v>839</v>
       </c>
       <c r="F587" t="s">
-        <v>1116</v>
+        <v>840</v>
       </c>
       <c r="G587" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H587" t="s">
         <v>4</v>
@@ -21308,10 +21014,10 @@
         <v>587</v>
       </c>
       <c r="E588" t="s">
-        <v>1117</v>
+        <v>1069</v>
       </c>
       <c r="F588" t="s">
-        <v>1118</v>
+        <v>1070</v>
       </c>
       <c r="G588" t="n">
         <v>1</v>
@@ -21337,13 +21043,13 @@
         <v>588</v>
       </c>
       <c r="E589" t="s">
-        <v>901</v>
+        <v>1071</v>
       </c>
       <c r="F589" t="s">
-        <v>902</v>
+        <v>1072</v>
       </c>
       <c r="G589" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H589" t="s">
         <v>4</v>
@@ -21366,13 +21072,13 @@
         <v>589</v>
       </c>
       <c r="E590" t="s">
-        <v>1119</v>
+        <v>1073</v>
       </c>
       <c r="F590" t="s">
-        <v>1120</v>
+        <v>1074</v>
       </c>
       <c r="G590" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H590" t="s">
         <v>4</v>
@@ -21395,13 +21101,13 @@
         <v>590</v>
       </c>
       <c r="E591" t="s">
-        <v>879</v>
+        <v>1075</v>
       </c>
       <c r="F591" t="s">
-        <v>880</v>
+        <v>1076</v>
       </c>
       <c r="G591" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H591" t="s">
         <v>4</v>
@@ -21424,13 +21130,13 @@
         <v>591</v>
       </c>
       <c r="E592" t="s">
-        <v>1121</v>
+        <v>761</v>
       </c>
       <c r="F592" t="s">
-        <v>1122</v>
+        <v>762</v>
       </c>
       <c r="G592" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H592" t="s">
         <v>4</v>
@@ -21453,13 +21159,13 @@
         <v>592</v>
       </c>
       <c r="E593" t="s">
-        <v>897</v>
+        <v>1077</v>
       </c>
       <c r="F593" t="s">
-        <v>898</v>
+        <v>1078</v>
       </c>
       <c r="G593" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="H593" t="s">
         <v>4</v>
@@ -21482,13 +21188,13 @@
         <v>593</v>
       </c>
       <c r="E594" t="s">
-        <v>893</v>
+        <v>1079</v>
       </c>
       <c r="F594" t="s">
-        <v>894</v>
+        <v>1080</v>
       </c>
       <c r="G594" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H594" t="s">
         <v>4</v>
@@ -21511,13 +21217,13 @@
         <v>594</v>
       </c>
       <c r="E595" t="s">
-        <v>877</v>
+        <v>1081</v>
       </c>
       <c r="F595" t="s">
-        <v>878</v>
+        <v>1082</v>
       </c>
       <c r="G595" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H595" t="s">
         <v>4</v>
@@ -21540,13 +21246,13 @@
         <v>595</v>
       </c>
       <c r="E596" t="s">
-        <v>875</v>
+        <v>1083</v>
       </c>
       <c r="F596" t="s">
-        <v>876</v>
+        <v>1084</v>
       </c>
       <c r="G596" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="H596" t="s">
         <v>4</v>
@@ -21569,13 +21275,13 @@
         <v>596</v>
       </c>
       <c r="E597" t="s">
-        <v>865</v>
+        <v>1085</v>
       </c>
       <c r="F597" t="s">
-        <v>866</v>
+        <v>1086</v>
       </c>
       <c r="G597" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H597" t="s">
         <v>4</v>
@@ -21598,13 +21304,13 @@
         <v>597</v>
       </c>
       <c r="E598" t="s">
-        <v>867</v>
+        <v>1087</v>
       </c>
       <c r="F598" t="s">
-        <v>868</v>
+        <v>1088</v>
       </c>
       <c r="G598" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H598" t="s">
         <v>4</v>
@@ -21627,10 +21333,10 @@
         <v>598</v>
       </c>
       <c r="E599" t="s">
-        <v>957</v>
+        <v>1089</v>
       </c>
       <c r="F599" t="s">
-        <v>958</v>
+        <v>1090</v>
       </c>
       <c r="G599" t="n">
         <v>4</v>
@@ -21656,13 +21362,13 @@
         <v>599</v>
       </c>
       <c r="E600" t="s">
-        <v>1123</v>
+        <v>1091</v>
       </c>
       <c r="F600" t="s">
-        <v>1124</v>
+        <v>1092</v>
       </c>
       <c r="G600" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H600" t="s">
         <v>4</v>
@@ -21685,13 +21391,13 @@
         <v>600</v>
       </c>
       <c r="E601" t="s">
-        <v>1125</v>
+        <v>1093</v>
       </c>
       <c r="F601" t="s">
-        <v>1126</v>
+        <v>1094</v>
       </c>
       <c r="G601" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H601" t="s">
         <v>4</v>
@@ -21714,13 +21420,13 @@
         <v>601</v>
       </c>
       <c r="E602" t="s">
-        <v>903</v>
+        <v>1095</v>
       </c>
       <c r="F602" t="s">
-        <v>904</v>
+        <v>1096</v>
       </c>
       <c r="G602" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H602" t="s">
         <v>4</v>
@@ -21743,10 +21449,10 @@
         <v>602</v>
       </c>
       <c r="E603" t="s">
-        <v>1127</v>
+        <v>1097</v>
       </c>
       <c r="F603" t="s">
-        <v>1128</v>
+        <v>1098</v>
       </c>
       <c r="G603" t="n">
         <v>1</v>
@@ -21772,13 +21478,13 @@
         <v>603</v>
       </c>
       <c r="E604" t="s">
-        <v>925</v>
+        <v>1099</v>
       </c>
       <c r="F604" t="s">
-        <v>926</v>
+        <v>1100</v>
       </c>
       <c r="G604" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H604" t="s">
         <v>4</v>
@@ -21801,13 +21507,13 @@
         <v>604</v>
       </c>
       <c r="E605" t="s">
-        <v>1129</v>
+        <v>1101</v>
       </c>
       <c r="F605" t="s">
-        <v>1130</v>
+        <v>1102</v>
       </c>
       <c r="G605" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H605" t="s">
         <v>4</v>
@@ -21830,13 +21536,13 @@
         <v>605</v>
       </c>
       <c r="E606" t="s">
-        <v>1131</v>
+        <v>1103</v>
       </c>
       <c r="F606" t="s">
-        <v>1132</v>
+        <v>1104</v>
       </c>
       <c r="G606" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H606" t="s">
         <v>4</v>
@@ -21859,13 +21565,13 @@
         <v>606</v>
       </c>
       <c r="E607" t="s">
-        <v>861</v>
+        <v>1105</v>
       </c>
       <c r="F607" t="s">
-        <v>862</v>
+        <v>1106</v>
       </c>
       <c r="G607" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H607" t="s">
         <v>4</v>
@@ -21888,13 +21594,13 @@
         <v>607</v>
       </c>
       <c r="E608" t="s">
-        <v>909</v>
+        <v>1107</v>
       </c>
       <c r="F608" t="s">
-        <v>910</v>
+        <v>1108</v>
       </c>
       <c r="G608" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H608" t="s">
         <v>4</v>
@@ -21917,13 +21623,13 @@
         <v>608</v>
       </c>
       <c r="E609" t="s">
-        <v>1133</v>
+        <v>1109</v>
       </c>
       <c r="F609" t="s">
-        <v>1134</v>
+        <v>1110</v>
       </c>
       <c r="G609" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H609" t="s">
         <v>4</v>
@@ -21946,13 +21652,13 @@
         <v>609</v>
       </c>
       <c r="E610" t="s">
-        <v>891</v>
+        <v>1111</v>
       </c>
       <c r="F610" t="s">
-        <v>892</v>
+        <v>1112</v>
       </c>
       <c r="G610" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H610" t="s">
         <v>4</v>
@@ -21975,13 +21681,13 @@
         <v>610</v>
       </c>
       <c r="E611" t="s">
-        <v>1135</v>
+        <v>857</v>
       </c>
       <c r="F611" t="s">
-        <v>1136</v>
+        <v>858</v>
       </c>
       <c r="G611" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H611" t="s">
         <v>4</v>
@@ -22004,10 +21710,10 @@
         <v>611</v>
       </c>
       <c r="E612" t="s">
-        <v>1137</v>
+        <v>1113</v>
       </c>
       <c r="F612" t="s">
-        <v>1138</v>
+        <v>1114</v>
       </c>
       <c r="G612" t="n">
         <v>1</v>
@@ -22033,13 +21739,13 @@
         <v>612</v>
       </c>
       <c r="E613" t="s">
-        <v>1139</v>
+        <v>1115</v>
       </c>
       <c r="F613" t="s">
-        <v>1140</v>
+        <v>1116</v>
       </c>
       <c r="G613" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H613" t="s">
         <v>4</v>
@@ -22062,13 +21768,13 @@
         <v>613</v>
       </c>
       <c r="E614" t="s">
-        <v>1141</v>
+        <v>1117</v>
       </c>
       <c r="F614" t="s">
-        <v>1142</v>
+        <v>1118</v>
       </c>
       <c r="G614" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H614" t="s">
         <v>4</v>
@@ -22091,10 +21797,10 @@
         <v>614</v>
       </c>
       <c r="E615" t="s">
-        <v>1143</v>
+        <v>1119</v>
       </c>
       <c r="F615" t="s">
-        <v>1144</v>
+        <v>1120</v>
       </c>
       <c r="G615" t="n">
         <v>1</v>
@@ -22120,13 +21826,13 @@
         <v>615</v>
       </c>
       <c r="E616" t="s">
-        <v>869</v>
+        <v>1121</v>
       </c>
       <c r="F616" t="s">
-        <v>870</v>
+        <v>1122</v>
       </c>
       <c r="G616" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H616" t="s">
         <v>4</v>
@@ -22149,13 +21855,13 @@
         <v>616</v>
       </c>
       <c r="E617" t="s">
-        <v>1145</v>
+        <v>1123</v>
       </c>
       <c r="F617" t="s">
-        <v>1146</v>
+        <v>1124</v>
       </c>
       <c r="G617" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H617" t="s">
         <v>4</v>
@@ -22178,13 +21884,13 @@
         <v>617</v>
       </c>
       <c r="E618" t="s">
-        <v>871</v>
+        <v>1125</v>
       </c>
       <c r="F618" t="s">
-        <v>872</v>
+        <v>1126</v>
       </c>
       <c r="G618" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H618" t="s">
         <v>4</v>
@@ -22207,13 +21913,13 @@
         <v>618</v>
       </c>
       <c r="E619" t="s">
-        <v>881</v>
+        <v>1127</v>
       </c>
       <c r="F619" t="s">
-        <v>882</v>
+        <v>1128</v>
       </c>
       <c r="G619" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H619" t="s">
         <v>4</v>
@@ -22236,13 +21942,13 @@
         <v>619</v>
       </c>
       <c r="E620" t="s">
-        <v>1147</v>
+        <v>1129</v>
       </c>
       <c r="F620" t="s">
-        <v>1148</v>
+        <v>1130</v>
       </c>
       <c r="G620" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H620" t="s">
         <v>4</v>
@@ -22265,13 +21971,13 @@
         <v>620</v>
       </c>
       <c r="E621" t="s">
-        <v>1149</v>
+        <v>371</v>
       </c>
       <c r="F621" t="s">
-        <v>1150</v>
+        <v>372</v>
       </c>
       <c r="G621" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H621" t="s">
         <v>4</v>
@@ -22294,13 +22000,13 @@
         <v>621</v>
       </c>
       <c r="E622" t="s">
-        <v>1151</v>
+        <v>1131</v>
       </c>
       <c r="F622" t="s">
-        <v>1152</v>
+        <v>1132</v>
       </c>
       <c r="G622" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H622" t="s">
         <v>4</v>
@@ -22323,10 +22029,10 @@
         <v>622</v>
       </c>
       <c r="E623" t="s">
-        <v>1153</v>
+        <v>1133</v>
       </c>
       <c r="F623" t="s">
-        <v>1154</v>
+        <v>1134</v>
       </c>
       <c r="G623" t="n">
         <v>1</v>
@@ -22352,13 +22058,13 @@
         <v>623</v>
       </c>
       <c r="E624" t="s">
-        <v>1155</v>
+        <v>1135</v>
       </c>
       <c r="F624" t="s">
-        <v>1156</v>
+        <v>1136</v>
       </c>
       <c r="G624" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H624" t="s">
         <v>4</v>
@@ -22381,13 +22087,13 @@
         <v>624</v>
       </c>
       <c r="E625" t="s">
-        <v>1157</v>
+        <v>537</v>
       </c>
       <c r="F625" t="s">
-        <v>1158</v>
+        <v>538</v>
       </c>
       <c r="G625" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H625" t="s">
         <v>4</v>
@@ -22410,10 +22116,10 @@
         <v>625</v>
       </c>
       <c r="E626" t="s">
-        <v>1159</v>
+        <v>1137</v>
       </c>
       <c r="F626" t="s">
-        <v>1160</v>
+        <v>1138</v>
       </c>
       <c r="G626" t="n">
         <v>2</v>
@@ -22439,13 +22145,13 @@
         <v>626</v>
       </c>
       <c r="E627" t="s">
-        <v>845</v>
+        <v>1139</v>
       </c>
       <c r="F627" t="s">
-        <v>846</v>
+        <v>1140</v>
       </c>
       <c r="G627" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H627" t="s">
         <v>4</v>
@@ -22468,13 +22174,13 @@
         <v>627</v>
       </c>
       <c r="E628" t="s">
-        <v>911</v>
+        <v>1141</v>
       </c>
       <c r="F628" t="s">
-        <v>912</v>
+        <v>1142</v>
       </c>
       <c r="G628" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="H628" t="s">
         <v>4</v>
@@ -22497,13 +22203,13 @@
         <v>628</v>
       </c>
       <c r="E629" t="s">
-        <v>1161</v>
+        <v>1143</v>
       </c>
       <c r="F629" t="s">
-        <v>1162</v>
+        <v>1144</v>
       </c>
       <c r="G629" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H629" t="s">
         <v>4</v>
@@ -22526,13 +22232,13 @@
         <v>629</v>
       </c>
       <c r="E630" t="s">
-        <v>841</v>
+        <v>1145</v>
       </c>
       <c r="F630" t="s">
-        <v>842</v>
+        <v>1146</v>
       </c>
       <c r="G630" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H630" t="s">
         <v>4</v>
@@ -22555,13 +22261,13 @@
         <v>630</v>
       </c>
       <c r="E631" t="s">
-        <v>371</v>
+        <v>1147</v>
       </c>
       <c r="F631" t="s">
-        <v>372</v>
+        <v>1148</v>
       </c>
       <c r="G631" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H631" t="s">
         <v>4</v>
@@ -22584,13 +22290,13 @@
         <v>631</v>
       </c>
       <c r="E632" t="s">
-        <v>895</v>
+        <v>1149</v>
       </c>
       <c r="F632" t="s">
-        <v>896</v>
+        <v>1150</v>
       </c>
       <c r="G632" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H632" t="s">
         <v>4</v>
@@ -22613,13 +22319,13 @@
         <v>632</v>
       </c>
       <c r="E633" t="s">
-        <v>1163</v>
+        <v>1151</v>
       </c>
       <c r="F633" t="s">
-        <v>1164</v>
+        <v>1152</v>
       </c>
       <c r="G633" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H633" t="s">
         <v>4</v>
@@ -22642,13 +22348,13 @@
         <v>633</v>
       </c>
       <c r="E634" t="s">
-        <v>851</v>
+        <v>1153</v>
       </c>
       <c r="F634" t="s">
-        <v>852</v>
+        <v>1154</v>
       </c>
       <c r="G634" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H634" t="s">
         <v>4</v>
@@ -22671,13 +22377,13 @@
         <v>634</v>
       </c>
       <c r="E635" t="s">
-        <v>1165</v>
+        <v>817</v>
       </c>
       <c r="F635" t="s">
-        <v>1166</v>
+        <v>818</v>
       </c>
       <c r="G635" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H635" t="s">
         <v>4</v>
@@ -22700,13 +22406,13 @@
         <v>635</v>
       </c>
       <c r="E636" t="s">
-        <v>937</v>
+        <v>1155</v>
       </c>
       <c r="F636" t="s">
-        <v>938</v>
+        <v>1156</v>
       </c>
       <c r="G636" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H636" t="s">
         <v>4</v>
@@ -22729,10 +22435,10 @@
         <v>636</v>
       </c>
       <c r="E637" t="s">
-        <v>1167</v>
+        <v>1157</v>
       </c>
       <c r="F637" t="s">
-        <v>1168</v>
+        <v>1158</v>
       </c>
       <c r="G637" t="n">
         <v>1</v>
@@ -22758,13 +22464,13 @@
         <v>637</v>
       </c>
       <c r="E638" t="s">
-        <v>1169</v>
+        <v>1159</v>
       </c>
       <c r="F638" t="s">
-        <v>1170</v>
+        <v>1160</v>
       </c>
       <c r="G638" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H638" t="s">
         <v>4</v>
@@ -22787,13 +22493,13 @@
         <v>638</v>
       </c>
       <c r="E639" t="s">
-        <v>1171</v>
+        <v>1161</v>
       </c>
       <c r="F639" t="s">
-        <v>1172</v>
+        <v>1162</v>
       </c>
       <c r="G639" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H639" t="s">
         <v>4</v>
@@ -22816,13 +22522,13 @@
         <v>639</v>
       </c>
       <c r="E640" t="s">
-        <v>1173</v>
+        <v>1163</v>
       </c>
       <c r="F640" t="s">
-        <v>1174</v>
+        <v>1164</v>
       </c>
       <c r="G640" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H640" t="s">
         <v>4</v>
@@ -22845,13 +22551,13 @@
         <v>640</v>
       </c>
       <c r="E641" t="s">
-        <v>859</v>
+        <v>1165</v>
       </c>
       <c r="F641" t="s">
-        <v>860</v>
+        <v>1166</v>
       </c>
       <c r="G641" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H641" t="s">
         <v>4</v>
@@ -22874,13 +22580,13 @@
         <v>641</v>
       </c>
       <c r="E642" t="s">
-        <v>1175</v>
+        <v>1167</v>
       </c>
       <c r="F642" t="s">
-        <v>1176</v>
+        <v>1168</v>
       </c>
       <c r="G642" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="H642" t="s">
         <v>4</v>
@@ -22903,13 +22609,13 @@
         <v>642</v>
       </c>
       <c r="E643" t="s">
-        <v>1177</v>
+        <v>1169</v>
       </c>
       <c r="F643" t="s">
-        <v>1178</v>
+        <v>1170</v>
       </c>
       <c r="G643" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H643" t="s">
         <v>4</v>
@@ -22932,10 +22638,10 @@
         <v>643</v>
       </c>
       <c r="E644" t="s">
-        <v>1179</v>
+        <v>1171</v>
       </c>
       <c r="F644" t="s">
-        <v>1180</v>
+        <v>1172</v>
       </c>
       <c r="G644" t="n">
         <v>1</v>
@@ -22961,13 +22667,13 @@
         <v>644</v>
       </c>
       <c r="E645" t="s">
-        <v>1181</v>
+        <v>1173</v>
       </c>
       <c r="F645" t="s">
-        <v>1182</v>
+        <v>1174</v>
       </c>
       <c r="G645" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H645" t="s">
         <v>4</v>
@@ -22990,10 +22696,10 @@
         <v>645</v>
       </c>
       <c r="E646" t="s">
-        <v>1183</v>
+        <v>1175</v>
       </c>
       <c r="F646" t="s">
-        <v>1184</v>
+        <v>1176</v>
       </c>
       <c r="G646" t="n">
         <v>5</v>
@@ -23019,13 +22725,13 @@
         <v>646</v>
       </c>
       <c r="E647" t="s">
-        <v>1185</v>
+        <v>1177</v>
       </c>
       <c r="F647" t="s">
-        <v>1186</v>
+        <v>1178</v>
       </c>
       <c r="G647" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H647" t="s">
         <v>4</v>
@@ -23048,13 +22754,13 @@
         <v>647</v>
       </c>
       <c r="E648" t="s">
-        <v>1187</v>
+        <v>1179</v>
       </c>
       <c r="F648" t="s">
-        <v>1188</v>
+        <v>1180</v>
       </c>
       <c r="G648" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H648" t="s">
         <v>4</v>
@@ -23077,13 +22783,13 @@
         <v>648</v>
       </c>
       <c r="E649" t="s">
-        <v>1189</v>
+        <v>841</v>
       </c>
       <c r="F649" t="s">
-        <v>1190</v>
+        <v>842</v>
       </c>
       <c r="G649" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H649" t="s">
         <v>4</v>
@@ -23106,10 +22812,10 @@
         <v>649</v>
       </c>
       <c r="E650" t="s">
-        <v>1191</v>
+        <v>1181</v>
       </c>
       <c r="F650" t="s">
-        <v>1192</v>
+        <v>1182</v>
       </c>
       <c r="G650" t="n">
         <v>2</v>
@@ -23135,13 +22841,13 @@
         <v>650</v>
       </c>
       <c r="E651" t="s">
-        <v>1193</v>
+        <v>1183</v>
       </c>
       <c r="F651" t="s">
-        <v>1194</v>
+        <v>1184</v>
       </c>
       <c r="G651" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H651" t="s">
         <v>4</v>
@@ -23164,10 +22870,10 @@
         <v>651</v>
       </c>
       <c r="E652" t="s">
-        <v>1195</v>
+        <v>1185</v>
       </c>
       <c r="F652" t="s">
-        <v>1196</v>
+        <v>1186</v>
       </c>
       <c r="G652" t="n">
         <v>1</v>
@@ -23193,13 +22899,13 @@
         <v>652</v>
       </c>
       <c r="E653" t="s">
-        <v>1197</v>
+        <v>1187</v>
       </c>
       <c r="F653" t="s">
-        <v>1198</v>
+        <v>1188</v>
       </c>
       <c r="G653" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H653" t="s">
         <v>4</v>
@@ -23222,13 +22928,13 @@
         <v>653</v>
       </c>
       <c r="E654" t="s">
-        <v>1199</v>
+        <v>1189</v>
       </c>
       <c r="F654" t="s">
-        <v>1200</v>
+        <v>1190</v>
       </c>
       <c r="G654" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H654" t="s">
         <v>4</v>
@@ -23251,10 +22957,10 @@
         <v>654</v>
       </c>
       <c r="E655" t="s">
-        <v>1201</v>
+        <v>1191</v>
       </c>
       <c r="F655" t="s">
-        <v>1202</v>
+        <v>1192</v>
       </c>
       <c r="G655" t="n">
         <v>1</v>
@@ -23280,13 +22986,13 @@
         <v>655</v>
       </c>
       <c r="E656" t="s">
-        <v>1203</v>
+        <v>1193</v>
       </c>
       <c r="F656" t="s">
-        <v>1204</v>
+        <v>1194</v>
       </c>
       <c r="G656" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H656" t="s">
         <v>4</v>
@@ -23309,13 +23015,13 @@
         <v>656</v>
       </c>
       <c r="E657" t="s">
-        <v>1205</v>
+        <v>1195</v>
       </c>
       <c r="F657" t="s">
-        <v>1206</v>
+        <v>1196</v>
       </c>
       <c r="G657" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H657" t="s">
         <v>4</v>
@@ -23338,10 +23044,10 @@
         <v>657</v>
       </c>
       <c r="E658" t="s">
-        <v>1207</v>
+        <v>1197</v>
       </c>
       <c r="F658" t="s">
-        <v>1208</v>
+        <v>1198</v>
       </c>
       <c r="G658" t="n">
         <v>1</v>
@@ -23367,10 +23073,10 @@
         <v>658</v>
       </c>
       <c r="E659" t="s">
-        <v>1209</v>
+        <v>1199</v>
       </c>
       <c r="F659" t="s">
-        <v>1210</v>
+        <v>1200</v>
       </c>
       <c r="G659" t="n">
         <v>1</v>
@@ -23396,1439 +23102,18 @@
         <v>659</v>
       </c>
       <c r="E660" t="s">
-        <v>955</v>
+        <v>1201</v>
       </c>
       <c r="F660" t="s">
-        <v>956</v>
+        <v>1202</v>
       </c>
       <c r="G660" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H660" t="s">
         <v>4</v>
       </c>
       <c r="I660" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="661" spans="1:9">
-      <c r="A661" s="1" t="n">
-        <v>659</v>
-      </c>
-      <c r="B661" t="s">
-        <v>0</v>
-      </c>
-      <c r="C661" t="s">
-        <v>1</v>
-      </c>
-      <c r="D661" t="n">
-        <v>660</v>
-      </c>
-      <c r="E661" t="s">
-        <v>1211</v>
-      </c>
-      <c r="F661" t="s">
-        <v>1212</v>
-      </c>
-      <c r="G661" t="n">
-        <v>1</v>
-      </c>
-      <c r="H661" t="s">
-        <v>4</v>
-      </c>
-      <c r="I661" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="662" spans="1:9">
-      <c r="A662" s="1" t="n">
-        <v>660</v>
-      </c>
-      <c r="B662" t="s">
-        <v>0</v>
-      </c>
-      <c r="C662" t="s">
-        <v>1</v>
-      </c>
-      <c r="D662" t="n">
-        <v>661</v>
-      </c>
-      <c r="E662" t="s">
-        <v>1213</v>
-      </c>
-      <c r="F662" t="s">
-        <v>1214</v>
-      </c>
-      <c r="G662" t="n">
-        <v>1</v>
-      </c>
-      <c r="H662" t="s">
-        <v>4</v>
-      </c>
-      <c r="I662" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="663" spans="1:9">
-      <c r="A663" s="1" t="n">
-        <v>661</v>
-      </c>
-      <c r="B663" t="s">
-        <v>0</v>
-      </c>
-      <c r="C663" t="s">
-        <v>1</v>
-      </c>
-      <c r="D663" t="n">
-        <v>662</v>
-      </c>
-      <c r="E663" t="s">
-        <v>1215</v>
-      </c>
-      <c r="F663" t="s">
-        <v>1216</v>
-      </c>
-      <c r="G663" t="n">
-        <v>1</v>
-      </c>
-      <c r="H663" t="s">
-        <v>4</v>
-      </c>
-      <c r="I663" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="664" spans="1:9">
-      <c r="A664" s="1" t="n">
-        <v>662</v>
-      </c>
-      <c r="B664" t="s">
-        <v>0</v>
-      </c>
-      <c r="C664" t="s">
-        <v>1</v>
-      </c>
-      <c r="D664" t="n">
-        <v>663</v>
-      </c>
-      <c r="E664" t="s">
-        <v>1217</v>
-      </c>
-      <c r="F664" t="s">
-        <v>1218</v>
-      </c>
-      <c r="G664" t="n">
-        <v>1</v>
-      </c>
-      <c r="H664" t="s">
-        <v>4</v>
-      </c>
-      <c r="I664" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="665" spans="1:9">
-      <c r="A665" s="1" t="n">
-        <v>663</v>
-      </c>
-      <c r="B665" t="s">
-        <v>0</v>
-      </c>
-      <c r="C665" t="s">
-        <v>1</v>
-      </c>
-      <c r="D665" t="n">
-        <v>664</v>
-      </c>
-      <c r="E665" t="s">
-        <v>1219</v>
-      </c>
-      <c r="F665" t="s">
-        <v>1220</v>
-      </c>
-      <c r="G665" t="n">
-        <v>1</v>
-      </c>
-      <c r="H665" t="s">
-        <v>4</v>
-      </c>
-      <c r="I665" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="666" spans="1:9">
-      <c r="A666" s="1" t="n">
-        <v>664</v>
-      </c>
-      <c r="B666" t="s">
-        <v>0</v>
-      </c>
-      <c r="C666" t="s">
-        <v>1</v>
-      </c>
-      <c r="D666" t="n">
-        <v>665</v>
-      </c>
-      <c r="E666" t="s">
-        <v>1221</v>
-      </c>
-      <c r="F666" t="s">
-        <v>1222</v>
-      </c>
-      <c r="G666" t="n">
-        <v>1</v>
-      </c>
-      <c r="H666" t="s">
-        <v>4</v>
-      </c>
-      <c r="I666" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="667" spans="1:9">
-      <c r="A667" s="1" t="n">
-        <v>665</v>
-      </c>
-      <c r="B667" t="s">
-        <v>0</v>
-      </c>
-      <c r="C667" t="s">
-        <v>1</v>
-      </c>
-      <c r="D667" t="n">
-        <v>666</v>
-      </c>
-      <c r="E667" t="s">
-        <v>1223</v>
-      </c>
-      <c r="F667" t="s">
-        <v>1224</v>
-      </c>
-      <c r="G667" t="n">
-        <v>1</v>
-      </c>
-      <c r="H667" t="s">
-        <v>4</v>
-      </c>
-      <c r="I667" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="668" spans="1:9">
-      <c r="A668" s="1" t="n">
-        <v>666</v>
-      </c>
-      <c r="B668" t="s">
-        <v>0</v>
-      </c>
-      <c r="C668" t="s">
-        <v>1</v>
-      </c>
-      <c r="D668" t="n">
-        <v>667</v>
-      </c>
-      <c r="E668" t="s">
-        <v>1225</v>
-      </c>
-      <c r="F668" t="s">
-        <v>1226</v>
-      </c>
-      <c r="G668" t="n">
-        <v>1</v>
-      </c>
-      <c r="H668" t="s">
-        <v>4</v>
-      </c>
-      <c r="I668" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="669" spans="1:9">
-      <c r="A669" s="1" t="n">
-        <v>667</v>
-      </c>
-      <c r="B669" t="s">
-        <v>0</v>
-      </c>
-      <c r="C669" t="s">
-        <v>1</v>
-      </c>
-      <c r="D669" t="n">
-        <v>668</v>
-      </c>
-      <c r="E669" t="s">
-        <v>1227</v>
-      </c>
-      <c r="F669" t="s">
-        <v>1228</v>
-      </c>
-      <c r="G669" t="n">
-        <v>1</v>
-      </c>
-      <c r="H669" t="s">
-        <v>4</v>
-      </c>
-      <c r="I669" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="670" spans="1:9">
-      <c r="A670" s="1" t="n">
-        <v>668</v>
-      </c>
-      <c r="B670" t="s">
-        <v>0</v>
-      </c>
-      <c r="C670" t="s">
-        <v>1</v>
-      </c>
-      <c r="D670" t="n">
-        <v>669</v>
-      </c>
-      <c r="E670" t="s">
-        <v>373</v>
-      </c>
-      <c r="F670" t="s">
-        <v>374</v>
-      </c>
-      <c r="G670" t="n">
-        <v>2</v>
-      </c>
-      <c r="H670" t="s">
-        <v>4</v>
-      </c>
-      <c r="I670" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="671" spans="1:9">
-      <c r="A671" s="1" t="n">
-        <v>669</v>
-      </c>
-      <c r="B671" t="s">
-        <v>0</v>
-      </c>
-      <c r="C671" t="s">
-        <v>1</v>
-      </c>
-      <c r="D671" t="n">
-        <v>670</v>
-      </c>
-      <c r="E671" t="s">
-        <v>1229</v>
-      </c>
-      <c r="F671" t="s">
-        <v>1230</v>
-      </c>
-      <c r="G671" t="n">
-        <v>2</v>
-      </c>
-      <c r="H671" t="s">
-        <v>4</v>
-      </c>
-      <c r="I671" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="672" spans="1:9">
-      <c r="A672" s="1" t="n">
-        <v>670</v>
-      </c>
-      <c r="B672" t="s">
-        <v>0</v>
-      </c>
-      <c r="C672" t="s">
-        <v>1</v>
-      </c>
-      <c r="D672" t="n">
-        <v>671</v>
-      </c>
-      <c r="E672" t="s">
-        <v>1231</v>
-      </c>
-      <c r="F672" t="s">
-        <v>1232</v>
-      </c>
-      <c r="G672" t="n">
-        <v>1</v>
-      </c>
-      <c r="H672" t="s">
-        <v>4</v>
-      </c>
-      <c r="I672" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="673" spans="1:9">
-      <c r="A673" s="1" t="n">
-        <v>671</v>
-      </c>
-      <c r="B673" t="s">
-        <v>0</v>
-      </c>
-      <c r="C673" t="s">
-        <v>1</v>
-      </c>
-      <c r="D673" t="n">
-        <v>672</v>
-      </c>
-      <c r="E673" t="s">
-        <v>1233</v>
-      </c>
-      <c r="F673" t="s">
-        <v>1234</v>
-      </c>
-      <c r="G673" t="n">
-        <v>1</v>
-      </c>
-      <c r="H673" t="s">
-        <v>4</v>
-      </c>
-      <c r="I673" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="674" spans="1:9">
-      <c r="A674" s="1" t="n">
-        <v>672</v>
-      </c>
-      <c r="B674" t="s">
-        <v>0</v>
-      </c>
-      <c r="C674" t="s">
-        <v>1</v>
-      </c>
-      <c r="D674" t="n">
-        <v>673</v>
-      </c>
-      <c r="E674" t="s">
-        <v>539</v>
-      </c>
-      <c r="F674" t="s">
-        <v>540</v>
-      </c>
-      <c r="G674" t="n">
-        <v>3</v>
-      </c>
-      <c r="H674" t="s">
-        <v>4</v>
-      </c>
-      <c r="I674" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="675" spans="1:9">
-      <c r="A675" s="1" t="n">
-        <v>673</v>
-      </c>
-      <c r="B675" t="s">
-        <v>0</v>
-      </c>
-      <c r="C675" t="s">
-        <v>1</v>
-      </c>
-      <c r="D675" t="n">
-        <v>674</v>
-      </c>
-      <c r="E675" t="s">
-        <v>1235</v>
-      </c>
-      <c r="F675" t="s">
-        <v>1236</v>
-      </c>
-      <c r="G675" t="n">
-        <v>2</v>
-      </c>
-      <c r="H675" t="s">
-        <v>4</v>
-      </c>
-      <c r="I675" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="676" spans="1:9">
-      <c r="A676" s="1" t="n">
-        <v>674</v>
-      </c>
-      <c r="B676" t="s">
-        <v>0</v>
-      </c>
-      <c r="C676" t="s">
-        <v>1</v>
-      </c>
-      <c r="D676" t="n">
-        <v>675</v>
-      </c>
-      <c r="E676" t="s">
-        <v>1237</v>
-      </c>
-      <c r="F676" t="s">
-        <v>1238</v>
-      </c>
-      <c r="G676" t="n">
-        <v>2</v>
-      </c>
-      <c r="H676" t="s">
-        <v>4</v>
-      </c>
-      <c r="I676" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="677" spans="1:9">
-      <c r="A677" s="1" t="n">
-        <v>675</v>
-      </c>
-      <c r="B677" t="s">
-        <v>0</v>
-      </c>
-      <c r="C677" t="s">
-        <v>1</v>
-      </c>
-      <c r="D677" t="n">
-        <v>676</v>
-      </c>
-      <c r="E677" t="s">
-        <v>1239</v>
-      </c>
-      <c r="F677" t="s">
-        <v>1240</v>
-      </c>
-      <c r="G677" t="n">
-        <v>1</v>
-      </c>
-      <c r="H677" t="s">
-        <v>4</v>
-      </c>
-      <c r="I677" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="678" spans="1:9">
-      <c r="A678" s="1" t="n">
-        <v>676</v>
-      </c>
-      <c r="B678" t="s">
-        <v>0</v>
-      </c>
-      <c r="C678" t="s">
-        <v>1</v>
-      </c>
-      <c r="D678" t="n">
-        <v>677</v>
-      </c>
-      <c r="E678" t="s">
-        <v>1241</v>
-      </c>
-      <c r="F678" t="s">
-        <v>1242</v>
-      </c>
-      <c r="G678" t="n">
-        <v>1</v>
-      </c>
-      <c r="H678" t="s">
-        <v>4</v>
-      </c>
-      <c r="I678" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="679" spans="1:9">
-      <c r="A679" s="1" t="n">
-        <v>677</v>
-      </c>
-      <c r="B679" t="s">
-        <v>0</v>
-      </c>
-      <c r="C679" t="s">
-        <v>1</v>
-      </c>
-      <c r="D679" t="n">
-        <v>678</v>
-      </c>
-      <c r="E679" t="s">
-        <v>1243</v>
-      </c>
-      <c r="F679" t="s">
-        <v>1244</v>
-      </c>
-      <c r="G679" t="n">
-        <v>1</v>
-      </c>
-      <c r="H679" t="s">
-        <v>4</v>
-      </c>
-      <c r="I679" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="680" spans="1:9">
-      <c r="A680" s="1" t="n">
-        <v>678</v>
-      </c>
-      <c r="B680" t="s">
-        <v>0</v>
-      </c>
-      <c r="C680" t="s">
-        <v>1</v>
-      </c>
-      <c r="D680" t="n">
-        <v>679</v>
-      </c>
-      <c r="E680" t="s">
-        <v>1245</v>
-      </c>
-      <c r="F680" t="s">
-        <v>1246</v>
-      </c>
-      <c r="G680" t="n">
-        <v>1</v>
-      </c>
-      <c r="H680" t="s">
-        <v>4</v>
-      </c>
-      <c r="I680" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="681" spans="1:9">
-      <c r="A681" s="1" t="n">
-        <v>679</v>
-      </c>
-      <c r="B681" t="s">
-        <v>0</v>
-      </c>
-      <c r="C681" t="s">
-        <v>1</v>
-      </c>
-      <c r="D681" t="n">
-        <v>680</v>
-      </c>
-      <c r="E681" t="s">
-        <v>1247</v>
-      </c>
-      <c r="F681" t="s">
-        <v>1248</v>
-      </c>
-      <c r="G681" t="n">
-        <v>1</v>
-      </c>
-      <c r="H681" t="s">
-        <v>4</v>
-      </c>
-      <c r="I681" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="682" spans="1:9">
-      <c r="A682" s="1" t="n">
-        <v>680</v>
-      </c>
-      <c r="B682" t="s">
-        <v>0</v>
-      </c>
-      <c r="C682" t="s">
-        <v>1</v>
-      </c>
-      <c r="D682" t="n">
-        <v>681</v>
-      </c>
-      <c r="E682" t="s">
-        <v>1249</v>
-      </c>
-      <c r="F682" t="s">
-        <v>1250</v>
-      </c>
-      <c r="G682" t="n">
-        <v>1</v>
-      </c>
-      <c r="H682" t="s">
-        <v>4</v>
-      </c>
-      <c r="I682" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="683" spans="1:9">
-      <c r="A683" s="1" t="n">
-        <v>681</v>
-      </c>
-      <c r="B683" t="s">
-        <v>0</v>
-      </c>
-      <c r="C683" t="s">
-        <v>1</v>
-      </c>
-      <c r="D683" t="n">
-        <v>682</v>
-      </c>
-      <c r="E683" t="s">
-        <v>1251</v>
-      </c>
-      <c r="F683" t="s">
-        <v>1252</v>
-      </c>
-      <c r="G683" t="n">
-        <v>1</v>
-      </c>
-      <c r="H683" t="s">
-        <v>4</v>
-      </c>
-      <c r="I683" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="684" spans="1:9">
-      <c r="A684" s="1" t="n">
-        <v>682</v>
-      </c>
-      <c r="B684" t="s">
-        <v>0</v>
-      </c>
-      <c r="C684" t="s">
-        <v>1</v>
-      </c>
-      <c r="D684" t="n">
-        <v>683</v>
-      </c>
-      <c r="E684" t="s">
-        <v>915</v>
-      </c>
-      <c r="F684" t="s">
-        <v>916</v>
-      </c>
-      <c r="G684" t="n">
-        <v>4</v>
-      </c>
-      <c r="H684" t="s">
-        <v>4</v>
-      </c>
-      <c r="I684" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="685" spans="1:9">
-      <c r="A685" s="1" t="n">
-        <v>683</v>
-      </c>
-      <c r="B685" t="s">
-        <v>0</v>
-      </c>
-      <c r="C685" t="s">
-        <v>1</v>
-      </c>
-      <c r="D685" t="n">
-        <v>684</v>
-      </c>
-      <c r="E685" t="s">
-        <v>1253</v>
-      </c>
-      <c r="F685" t="s">
-        <v>1254</v>
-      </c>
-      <c r="G685" t="n">
-        <v>2</v>
-      </c>
-      <c r="H685" t="s">
-        <v>4</v>
-      </c>
-      <c r="I685" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="686" spans="1:9">
-      <c r="A686" s="1" t="n">
-        <v>684</v>
-      </c>
-      <c r="B686" t="s">
-        <v>0</v>
-      </c>
-      <c r="C686" t="s">
-        <v>1</v>
-      </c>
-      <c r="D686" t="n">
-        <v>685</v>
-      </c>
-      <c r="E686" t="s">
-        <v>1255</v>
-      </c>
-      <c r="F686" t="s">
-        <v>1256</v>
-      </c>
-      <c r="G686" t="n">
-        <v>1</v>
-      </c>
-      <c r="H686" t="s">
-        <v>4</v>
-      </c>
-      <c r="I686" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="687" spans="1:9">
-      <c r="A687" s="1" t="n">
-        <v>685</v>
-      </c>
-      <c r="B687" t="s">
-        <v>0</v>
-      </c>
-      <c r="C687" t="s">
-        <v>1</v>
-      </c>
-      <c r="D687" t="n">
-        <v>686</v>
-      </c>
-      <c r="E687" t="s">
-        <v>1257</v>
-      </c>
-      <c r="F687" t="s">
-        <v>1258</v>
-      </c>
-      <c r="G687" t="n">
-        <v>1</v>
-      </c>
-      <c r="H687" t="s">
-        <v>4</v>
-      </c>
-      <c r="I687" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="688" spans="1:9">
-      <c r="A688" s="1" t="n">
-        <v>686</v>
-      </c>
-      <c r="B688" t="s">
-        <v>0</v>
-      </c>
-      <c r="C688" t="s">
-        <v>1</v>
-      </c>
-      <c r="D688" t="n">
-        <v>687</v>
-      </c>
-      <c r="E688" t="s">
-        <v>1259</v>
-      </c>
-      <c r="F688" t="s">
-        <v>1260</v>
-      </c>
-      <c r="G688" t="n">
-        <v>1</v>
-      </c>
-      <c r="H688" t="s">
-        <v>4</v>
-      </c>
-      <c r="I688" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="689" spans="1:9">
-      <c r="A689" s="1" t="n">
-        <v>687</v>
-      </c>
-      <c r="B689" t="s">
-        <v>0</v>
-      </c>
-      <c r="C689" t="s">
-        <v>1</v>
-      </c>
-      <c r="D689" t="n">
-        <v>688</v>
-      </c>
-      <c r="E689" t="s">
-        <v>1261</v>
-      </c>
-      <c r="F689" t="s">
-        <v>1262</v>
-      </c>
-      <c r="G689" t="n">
-        <v>2</v>
-      </c>
-      <c r="H689" t="s">
-        <v>4</v>
-      </c>
-      <c r="I689" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="690" spans="1:9">
-      <c r="A690" s="1" t="n">
-        <v>688</v>
-      </c>
-      <c r="B690" t="s">
-        <v>0</v>
-      </c>
-      <c r="C690" t="s">
-        <v>1</v>
-      </c>
-      <c r="D690" t="n">
-        <v>689</v>
-      </c>
-      <c r="E690" t="s">
-        <v>1263</v>
-      </c>
-      <c r="F690" t="s">
-        <v>1264</v>
-      </c>
-      <c r="G690" t="n">
-        <v>1</v>
-      </c>
-      <c r="H690" t="s">
-        <v>4</v>
-      </c>
-      <c r="I690" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="691" spans="1:9">
-      <c r="A691" s="1" t="n">
-        <v>689</v>
-      </c>
-      <c r="B691" t="s">
-        <v>0</v>
-      </c>
-      <c r="C691" t="s">
-        <v>1</v>
-      </c>
-      <c r="D691" t="n">
-        <v>690</v>
-      </c>
-      <c r="E691" t="s">
-        <v>1265</v>
-      </c>
-      <c r="F691" t="s">
-        <v>1266</v>
-      </c>
-      <c r="G691" t="n">
-        <v>1</v>
-      </c>
-      <c r="H691" t="s">
-        <v>4</v>
-      </c>
-      <c r="I691" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="692" spans="1:9">
-      <c r="A692" s="1" t="n">
-        <v>690</v>
-      </c>
-      <c r="B692" t="s">
-        <v>0</v>
-      </c>
-      <c r="C692" t="s">
-        <v>1</v>
-      </c>
-      <c r="D692" t="n">
-        <v>691</v>
-      </c>
-      <c r="E692" t="s">
-        <v>1267</v>
-      </c>
-      <c r="F692" t="s">
-        <v>1268</v>
-      </c>
-      <c r="G692" t="n">
-        <v>1</v>
-      </c>
-      <c r="H692" t="s">
-        <v>4</v>
-      </c>
-      <c r="I692" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="693" spans="1:9">
-      <c r="A693" s="1" t="n">
-        <v>691</v>
-      </c>
-      <c r="B693" t="s">
-        <v>0</v>
-      </c>
-      <c r="C693" t="s">
-        <v>1</v>
-      </c>
-      <c r="D693" t="n">
-        <v>692</v>
-      </c>
-      <c r="E693" t="s">
-        <v>1269</v>
-      </c>
-      <c r="F693" t="s">
-        <v>1270</v>
-      </c>
-      <c r="G693" t="n">
-        <v>1</v>
-      </c>
-      <c r="H693" t="s">
-        <v>4</v>
-      </c>
-      <c r="I693" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="694" spans="1:9">
-      <c r="A694" s="1" t="n">
-        <v>692</v>
-      </c>
-      <c r="B694" t="s">
-        <v>0</v>
-      </c>
-      <c r="C694" t="s">
-        <v>1</v>
-      </c>
-      <c r="D694" t="n">
-        <v>693</v>
-      </c>
-      <c r="E694" t="s">
-        <v>1271</v>
-      </c>
-      <c r="F694" t="s">
-        <v>1272</v>
-      </c>
-      <c r="G694" t="n">
-        <v>1</v>
-      </c>
-      <c r="H694" t="s">
-        <v>4</v>
-      </c>
-      <c r="I694" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="695" spans="1:9">
-      <c r="A695" s="1" t="n">
-        <v>693</v>
-      </c>
-      <c r="B695" t="s">
-        <v>0</v>
-      </c>
-      <c r="C695" t="s">
-        <v>1</v>
-      </c>
-      <c r="D695" t="n">
-        <v>694</v>
-      </c>
-      <c r="E695" t="s">
-        <v>1273</v>
-      </c>
-      <c r="F695" t="s">
-        <v>1274</v>
-      </c>
-      <c r="G695" t="n">
-        <v>5</v>
-      </c>
-      <c r="H695" t="s">
-        <v>4</v>
-      </c>
-      <c r="I695" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="696" spans="1:9">
-      <c r="A696" s="1" t="n">
-        <v>694</v>
-      </c>
-      <c r="B696" t="s">
-        <v>0</v>
-      </c>
-      <c r="C696" t="s">
-        <v>1</v>
-      </c>
-      <c r="D696" t="n">
-        <v>695</v>
-      </c>
-      <c r="E696" t="s">
-        <v>1275</v>
-      </c>
-      <c r="F696" t="s">
-        <v>1276</v>
-      </c>
-      <c r="G696" t="n">
-        <v>1</v>
-      </c>
-      <c r="H696" t="s">
-        <v>4</v>
-      </c>
-      <c r="I696" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="697" spans="1:9">
-      <c r="A697" s="1" t="n">
-        <v>695</v>
-      </c>
-      <c r="B697" t="s">
-        <v>0</v>
-      </c>
-      <c r="C697" t="s">
-        <v>1</v>
-      </c>
-      <c r="D697" t="n">
-        <v>696</v>
-      </c>
-      <c r="E697" t="s">
-        <v>1277</v>
-      </c>
-      <c r="F697" t="s">
-        <v>1278</v>
-      </c>
-      <c r="G697" t="n">
-        <v>1</v>
-      </c>
-      <c r="H697" t="s">
-        <v>4</v>
-      </c>
-      <c r="I697" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="698" spans="1:9">
-      <c r="A698" s="1" t="n">
-        <v>696</v>
-      </c>
-      <c r="B698" t="s">
-        <v>0</v>
-      </c>
-      <c r="C698" t="s">
-        <v>1</v>
-      </c>
-      <c r="D698" t="n">
-        <v>697</v>
-      </c>
-      <c r="E698" t="s">
-        <v>939</v>
-      </c>
-      <c r="F698" t="s">
-        <v>940</v>
-      </c>
-      <c r="G698" t="n">
-        <v>2</v>
-      </c>
-      <c r="H698" t="s">
-        <v>4</v>
-      </c>
-      <c r="I698" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="699" spans="1:9">
-      <c r="A699" s="1" t="n">
-        <v>697</v>
-      </c>
-      <c r="B699" t="s">
-        <v>0</v>
-      </c>
-      <c r="C699" t="s">
-        <v>1</v>
-      </c>
-      <c r="D699" t="n">
-        <v>698</v>
-      </c>
-      <c r="E699" t="s">
-        <v>1279</v>
-      </c>
-      <c r="F699" t="s">
-        <v>1280</v>
-      </c>
-      <c r="G699" t="n">
-        <v>2</v>
-      </c>
-      <c r="H699" t="s">
-        <v>4</v>
-      </c>
-      <c r="I699" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="700" spans="1:9">
-      <c r="A700" s="1" t="n">
-        <v>698</v>
-      </c>
-      <c r="B700" t="s">
-        <v>0</v>
-      </c>
-      <c r="C700" t="s">
-        <v>1</v>
-      </c>
-      <c r="D700" t="n">
-        <v>699</v>
-      </c>
-      <c r="E700" t="s">
-        <v>1281</v>
-      </c>
-      <c r="F700" t="s">
-        <v>1282</v>
-      </c>
-      <c r="G700" t="n">
-        <v>1</v>
-      </c>
-      <c r="H700" t="s">
-        <v>4</v>
-      </c>
-      <c r="I700" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="701" spans="1:9">
-      <c r="A701" s="1" t="n">
-        <v>699</v>
-      </c>
-      <c r="B701" t="s">
-        <v>0</v>
-      </c>
-      <c r="C701" t="s">
-        <v>1</v>
-      </c>
-      <c r="D701" t="n">
-        <v>700</v>
-      </c>
-      <c r="E701" t="s">
-        <v>1283</v>
-      </c>
-      <c r="F701" t="s">
-        <v>1284</v>
-      </c>
-      <c r="G701" t="n">
-        <v>1</v>
-      </c>
-      <c r="H701" t="s">
-        <v>4</v>
-      </c>
-      <c r="I701" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="702" spans="1:9">
-      <c r="A702" s="1" t="n">
-        <v>700</v>
-      </c>
-      <c r="B702" t="s">
-        <v>0</v>
-      </c>
-      <c r="C702" t="s">
-        <v>1</v>
-      </c>
-      <c r="D702" t="n">
-        <v>701</v>
-      </c>
-      <c r="E702" t="s">
-        <v>1285</v>
-      </c>
-      <c r="F702" t="s">
-        <v>1286</v>
-      </c>
-      <c r="G702" t="n">
-        <v>3</v>
-      </c>
-      <c r="H702" t="s">
-        <v>4</v>
-      </c>
-      <c r="I702" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="703" spans="1:9">
-      <c r="A703" s="1" t="n">
-        <v>701</v>
-      </c>
-      <c r="B703" t="s">
-        <v>0</v>
-      </c>
-      <c r="C703" t="s">
-        <v>1</v>
-      </c>
-      <c r="D703" t="n">
-        <v>702</v>
-      </c>
-      <c r="E703" t="s">
-        <v>1287</v>
-      </c>
-      <c r="F703" t="s">
-        <v>1288</v>
-      </c>
-      <c r="G703" t="n">
-        <v>1</v>
-      </c>
-      <c r="H703" t="s">
-        <v>4</v>
-      </c>
-      <c r="I703" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="704" spans="1:9">
-      <c r="A704" s="1" t="n">
-        <v>702</v>
-      </c>
-      <c r="B704" t="s">
-        <v>0</v>
-      </c>
-      <c r="C704" t="s">
-        <v>1</v>
-      </c>
-      <c r="D704" t="n">
-        <v>703</v>
-      </c>
-      <c r="E704" t="s">
-        <v>1289</v>
-      </c>
-      <c r="F704" t="s">
-        <v>1290</v>
-      </c>
-      <c r="G704" t="n">
-        <v>1</v>
-      </c>
-      <c r="H704" t="s">
-        <v>4</v>
-      </c>
-      <c r="I704" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="705" spans="1:9">
-      <c r="A705" s="1" t="n">
-        <v>703</v>
-      </c>
-      <c r="B705" t="s">
-        <v>0</v>
-      </c>
-      <c r="C705" t="s">
-        <v>1</v>
-      </c>
-      <c r="D705" t="n">
-        <v>704</v>
-      </c>
-      <c r="E705" t="s">
-        <v>1291</v>
-      </c>
-      <c r="F705" t="s">
-        <v>1292</v>
-      </c>
-      <c r="G705" t="n">
-        <v>1</v>
-      </c>
-      <c r="H705" t="s">
-        <v>4</v>
-      </c>
-      <c r="I705" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="706" spans="1:9">
-      <c r="A706" s="1" t="n">
-        <v>704</v>
-      </c>
-      <c r="B706" t="s">
-        <v>0</v>
-      </c>
-      <c r="C706" t="s">
-        <v>1</v>
-      </c>
-      <c r="D706" t="n">
-        <v>705</v>
-      </c>
-      <c r="E706" t="s">
-        <v>1293</v>
-      </c>
-      <c r="F706" t="s">
-        <v>1294</v>
-      </c>
-      <c r="G706" t="n">
-        <v>1</v>
-      </c>
-      <c r="H706" t="s">
-        <v>4</v>
-      </c>
-      <c r="I706" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="707" spans="1:9">
-      <c r="A707" s="1" t="n">
-        <v>705</v>
-      </c>
-      <c r="B707" t="s">
-        <v>0</v>
-      </c>
-      <c r="C707" t="s">
-        <v>1</v>
-      </c>
-      <c r="D707" t="n">
-        <v>706</v>
-      </c>
-      <c r="E707" t="s">
-        <v>1295</v>
-      </c>
-      <c r="F707" t="s">
-        <v>1296</v>
-      </c>
-      <c r="G707" t="n">
-        <v>1</v>
-      </c>
-      <c r="H707" t="s">
-        <v>4</v>
-      </c>
-      <c r="I707" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="708" spans="1:9">
-      <c r="A708" s="1" t="n">
-        <v>706</v>
-      </c>
-      <c r="B708" t="s">
-        <v>0</v>
-      </c>
-      <c r="C708" t="s">
-        <v>1</v>
-      </c>
-      <c r="D708" t="n">
-        <v>707</v>
-      </c>
-      <c r="E708" t="s">
-        <v>1297</v>
-      </c>
-      <c r="F708" t="s">
-        <v>1298</v>
-      </c>
-      <c r="G708" t="n">
-        <v>1</v>
-      </c>
-      <c r="H708" t="s">
-        <v>4</v>
-      </c>
-      <c r="I708" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="709" spans="1:9">
-      <c r="A709" s="1" t="n">
-        <v>707</v>
-      </c>
-      <c r="B709" t="s">
-        <v>0</v>
-      </c>
-      <c r="C709" t="s">
-        <v>1</v>
-      </c>
-      <c r="D709" t="n">
-        <v>708</v>
-      </c>
-      <c r="E709" t="s">
-        <v>1299</v>
-      </c>
-      <c r="F709" t="s">
-        <v>1300</v>
-      </c>
-      <c r="G709" t="n">
-        <v>1</v>
-      </c>
-      <c r="H709" t="s">
-        <v>4</v>
-      </c>
-      <c r="I709" t="n">
         <v>3</v>
       </c>
     </row>
